--- a/findx/Excel/ColdWeapon_冷兵器表.xlsx
+++ b/findx/Excel/ColdWeapon_冷兵器表.xlsx
@@ -68,6 +68,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9.75"/>
+      <color rgb="FFF01D94"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFF01D94"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="9"/>
       <color rgb="FF1F2329"/>
       <name val="Calibri"/>
@@ -90,14 +104,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FFF01D94"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9.75"/>
-      <color rgb="FFF01D94"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -105,13 +112,6 @@
     <font>
       <sz val="9.75"/>
       <color rgb="FFF54A45"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -229,22 +229,22 @@
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="5" fillId="0" fontId="5" numFmtId="164" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="5" fillId="0" fontId="5" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="6" fillId="0" fontId="6" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="7" fillId="0" fontId="7" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="7" fillId="0" fontId="7" numFmtId="164" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="8" fillId="0" fontId="8" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="9" fillId="0" fontId="9" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="9" fillId="0" fontId="9" numFmtId="165" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="10" fillId="0" fontId="10" numFmtId="165" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="10" fillId="0" fontId="10" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -595,16 +595,16 @@
   </cols>
   <sheetData>
     <row customHeight="true" ht="23" r="1">
-      <c r="A1" s="5" t="str">
+      <c r="A1" s="7" t="str">
         <v>int</v>
       </c>
-      <c r="B1" s="5" t="str">
+      <c r="B1" s="7" t="str">
         <v>string</v>
       </c>
-      <c r="C1" s="5" t="str">
+      <c r="C1" s="7" t="str">
         <v>string</v>
       </c>
-      <c r="D1" s="5" t="str">
+      <c r="D1" s="7" t="str">
         <v>string</v>
       </c>
       <c r="E1" s="3" t="str">
@@ -613,29 +613,29 @@
       <c r="F1" s="3" t="str">
         <v>string</v>
       </c>
-      <c r="G1" s="5" t="str">
+      <c r="G1" s="7" t="str">
         <v>int</v>
       </c>
-      <c r="H1" s="4" t="str">
+      <c r="H1" s="6" t="str">
         <v>int</v>
       </c>
-      <c r="I1" s="4" t="str">
+      <c r="I1" s="6" t="str">
         <v>String</v>
       </c>
-      <c r="J1" s="10" t="str">
+      <c r="J1" s="9" t="str">
         <v>string</v>
       </c>
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
     </row>
     <row customHeight="true" ht="23" r="2">
-      <c r="A2" s="5" t="str">
+      <c r="A2" s="7" t="str">
         <v>id</v>
       </c>
-      <c r="B2" s="5" t="str">
+      <c r="B2" s="7" t="str">
         <v>jsons</v>
       </c>
-      <c r="C2" s="5" t="str">
+      <c r="C2" s="7" t="str">
         <v>rightWeaponGuid</v>
       </c>
       <c r="D2" s="3" t="str">
@@ -650,26 +650,26 @@
       <c r="G2" s="3" t="str">
         <v>hitDamage</v>
       </c>
-      <c r="H2" s="4" t="str">
+      <c r="H2" s="6" t="str">
         <v>IsIAA</v>
       </c>
-      <c r="I2" s="4" t="str">
+      <c r="I2" s="6" t="str">
         <v>WeaponName</v>
       </c>
-      <c r="J2" s="6" t="str">
+      <c r="J2" s="8" t="str">
         <v>StandbyAnimation</v>
       </c>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
     </row>
     <row customHeight="true" ht="61" r="3">
-      <c r="A3" s="5" t="str">
+      <c r="A3" s="7" t="str">
         <v>id</v>
       </c>
-      <c r="B3" s="5" t="str">
+      <c r="B3" s="7" t="str">
         <v>动作数据</v>
       </c>
-      <c r="C3" s="5" t="str">
+      <c r="C3" s="7" t="str">
         <v>右手装备</v>
       </c>
       <c r="D3" s="3" t="str">
@@ -684,31 +684,31 @@
       <c r="G3" s="3" t="str">
         <v>伤害</v>
       </c>
-      <c r="H3" s="4" t="str">
+      <c r="H3" s="6" t="str">
         <v>武器类型
 0：直接获得
 1：看广告获取</v>
       </c>
-      <c r="I3" s="4" t="str">
+      <c r="I3" s="6" t="str">
         <v>武器的名字</v>
       </c>
-      <c r="J3" s="6" t="str">
+      <c r="J3" s="8" t="str">
         <v>待机动画</v>
       </c>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
     </row>
     <row customHeight="true" ht="23" r="4">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
-      <c r="H4" s="4"/>
+      <c r="H4" s="6"/>
       <c r="I4" s="3"/>
-      <c r="J4" s="6"/>
+      <c r="J4" s="8"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
     </row>
@@ -736,7 +736,7 @@
         <v>1</v>
       </c>
       <c r="I5" s="1" t="str">
-        <v>悟空</v>
+        <v>悟空法杖</v>
       </c>
       <c r="J5" s="1">
         <v>117391</v>
@@ -924,7 +924,7 @@
         <v>1</v>
       </c>
       <c r="I6" s="1" t="str">
-        <v>赛博自来也</v>
+        <v>赛博斩刀</v>
       </c>
       <c r="J6" s="1">
         <v>117391</v>
@@ -956,7 +956,7 @@
         <v>1</v>
       </c>
       <c r="I7" s="1" t="str">
-        <v>海王</v>
+        <v>黄金海王镰刀</v>
       </c>
       <c r="J7" s="1">
         <v>117391</v>
@@ -964,18 +964,554 @@
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
     </row>
-    <row customHeight="true" ht="23" r="8">
+    <row customHeight="true" ht="24" r="8">
       <c r="A8" s="1">
         <v>4</v>
       </c>
       <c r="B8" s="1" t="str">
-        <v>{"charFightIdelAniId":"","infos":[{"type":"1","guid":"121652","duration":"900","hitLength":"300","frontRockLength":"600","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"3","guid":"","duration":"200","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"50","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"126922","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"250","slotIndex":"-1","stopTime":"400","offsetPos":["0","0","0"],"offsetRotation":["-30","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"120","skillLength":"120","skillWidth":"160","moveSpeed":"300"},{"type":"4","guid":"47870","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"0","slotIndex":"-1","stopTime":"0","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"0","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"100"},{"type":"4","guid":"145579","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"150","slotIndex":"-1","stopTime":"0","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"0","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"100"},{"type":"1","guid":"121639","duration":"1300","hitLength":"600","frontRockLength":"800","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"3","guid":"","duration":"180","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"80","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"300","skillLength":"500","skillWidth":"120","moveSpeed":"300"},{"type":"2","guid":"126922","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"350","slotIndex":"-1","stopTime":"400","offsetPos":["0","0","0"],"offsetRotation":["90","0","0"],"offsetScale":["1.2","1.2","1.2"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"135892","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"450","slotIndex":"-1","stopTime":"600","offsetPos":["120","0","-85"],"offsetRotation":["0","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"135892","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"500","slotIndex":"-1","stopTime":"600","offsetPos":["240","0","-85"],"offsetRotation":["0","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"135892","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"550","slotIndex":"-1","stopTime":"600","offsetPos":["360","0","-85"],"offsetRotation":["0","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"135892","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"600","slotIndex":"-1","stopTime":"600","offsetPos":["480","0","-85"],"offsetRotation":["0","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"1","guid":"121644","duration":"1300","hitLength":"400","frontRockLength":"800","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"4","guid":"75351","duration":"","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"0","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"0","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"100"},{"type":"2","guid":"135891","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"800","offsetPos":["120","0","0"],"offsetRotation":["0","0","-90"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"200","skillLength":"300","skillWidth":"200","moveSpeed":"300"}]}</v>
+        <v>{
+    "charFightIdelAniId": "",
+    "infos": [
+        {
+            "type": "1",
+            "guid": "121413",
+            "duration": "2000",
+            "hitLength": "500",
+            "frontRockLength": "500",
+            "isCharge": "0",
+            "isAutoPlay": "0",
+            "delayPlayTime": "600",
+            "slotIndex": "-1",
+            "stopTime": "",
+            "offsetPos": [
+                "0",
+                "0",
+                "0"
+            ],
+            "offsetRotation": [
+                "0",
+                "0",
+                "0"
+            ],
+            "offsetScale": [
+                "0",
+                "0",
+                "0"
+            ],
+            "colorHex": "",
+            "isToPos": "0",
+            "moveDir": "",
+            "moveDistance": "100",
+            "skillAngle": "0",
+            "skillOffsetDis": "0",
+            "skillRadius": "0",
+            "skillHeight": "0",
+            "skillLength": "0",
+            "skillWidth": "0",
+            "moveSpeed": "300"
+        },
+        {
+            "type": "2",
+            "guid": "224109",
+            "duration": "1000",
+            "hitLength": "",
+            "frontRockLength": "",
+            "isCharge": "0",
+            "isAutoPlay": "0",
+            "delayPlayTime": "300",
+            "slotIndex": "-1",
+            "stopTime": "400",
+            "offsetPos": [
+                "50",
+                "0",
+                "30"
+            ],
+            "offsetRotation": [
+                "180",
+                "0",
+                "90"
+            ],
+            "offsetScale": [
+                "1.5",
+                "1.5",
+                "1.5"
+            ],
+            "colorHex": "",
+            "isToPos": "",
+            "moveDir": "",
+            "moveDistance": "100",
+            "skillAngle": "0",
+            "skillOffsetDis": "0",
+            "skillRadius": "0",
+            "skillHeight": "0",
+            "skillLength": "0",
+            "skillWidth": "0",
+            "moveSpeed": "300"
+        },
+        {
+            "type": "5",
+            "guid": "",
+            "duration": "1000",
+            "hitLength": "",
+            "frontRockLength": "",
+            "isCharge": "0",
+            "isAutoPlay": "0",
+            "delayPlayTime": "100",
+            "slotIndex": "-1",
+            "stopTime": "",
+            "offsetPos": [
+                "0",
+                "0",
+                "0"
+            ],
+            "offsetRotation": [
+                "0",
+                "0",
+                "0"
+            ],
+            "offsetScale": [
+                "0",
+                "0",
+                "0"
+            ],
+            "colorHex": "",
+            "isToPos": "",
+            "moveDir": "",
+            "moveDistance": "100",
+            "skillAngle": "0",
+            "skillOffsetDis": "0",
+            "skillRadius": "0",
+            "skillHeight": "80",
+            "skillLength": "700",
+            "skillWidth": "100",
+            "moveSpeed": "300"
+        },
+        {
+            "type": "4",
+            "guid": "75351",
+            "duration": "",
+            "hitLength": "",
+            "frontRockLength": "",
+            "isCharge": "0",
+            "isAutoPlay": "0",
+            "delayPlayTime": "150",
+            "slotIndex": "-1",
+            "stopTime": "",
+            "offsetPos": [
+                "0",
+                "0",
+                "0"
+            ],
+            "offsetRotation": [
+                "0",
+                "0",
+                "0"
+            ],
+            "offsetScale": [
+                "0",
+                "0",
+                "0"
+            ],
+            "colorHex": "",
+            "isToPos": "0",
+            "moveDir": "1",
+            "moveDistance": "",
+            "skillAngle": "0",
+            "skillOffsetDis": "0|0|0",
+            "skillRadius": "0",
+            "skillHeight": "0",
+            "skillLength": "0",
+            "skillWidth": "0",
+            "moveSpeed": "100"
+        },
+        {
+            "type": "1",
+            "guid": "121654",
+            "duration": "750",
+            "hitLength": "500",
+            "frontRockLength": "600",
+            "isCharge": "0",
+            "isAutoPlay": "0",
+            "delayPlayTime": "100",
+            "slotIndex": "-1",
+            "stopTime": "",
+            "offsetPos": [
+                "0",
+                "0",
+                "0"
+            ],
+            "offsetRotation": [
+                "0",
+                "0",
+                "0"
+            ],
+            "offsetScale": [
+                "0",
+                "0",
+                "0"
+            ],
+            "colorHex": "",
+            "isToPos": "",
+            "moveDir": "",
+            "moveDistance": "100",
+            "skillAngle": "0",
+            "skillOffsetDis": "0",
+            "skillRadius": "0",
+            "skillHeight": "0",
+            "skillLength": "0",
+            "skillWidth": "0",
+            "moveSpeed": "300"
+        },
+        {
+            "type": "2",
+            "guid": "224109",
+            "duration": "1000",
+            "hitLength": "",
+            "frontRockLength": "",
+            "isCharge": "0",
+            "isAutoPlay": "0",
+            "delayPlayTime": "450",
+            "slotIndex": "-1",
+            "stopTime": "400",
+            "offsetPos": [
+                "90",
+                "0",
+                "0"
+            ],
+            "offsetRotation": [
+                "180",
+                "0",
+                "90"
+            ],
+            "offsetScale": [
+                "1.2",
+                "1.2",
+                "1.2"
+            ],
+            "colorHex": "",
+            "isToPos": "",
+            "moveDir": "",
+            "moveDistance": "100",
+            "skillAngle": "0",
+            "skillOffsetDis": "0",
+            "skillRadius": "0",
+            "skillHeight": "0",
+            "skillLength": "0",
+            "skillWidth": "0",
+            "moveSpeed": "300"
+        },
+        {
+            "type": "4",
+            "guid": "75351",
+            "duration": "",
+            "hitLength": "",
+            "frontRockLength": "",
+            "isCharge": "0",
+            "isAutoPlay": "0",
+            "delayPlayTime": "300",
+            "slotIndex": "-1",
+            "stopTime": "",
+            "offsetPos": [
+                "0",
+                "0",
+                "0"
+            ],
+            "offsetRotation": [
+                "0",
+                "0",
+                "0"
+            ],
+            "offsetScale": [
+                "0",
+                "0",
+                "0"
+            ],
+            "colorHex": "",
+            "isToPos": "0",
+            "moveDir": "1",
+            "moveDistance": "",
+            "skillAngle": "0",
+            "skillOffsetDis": "0|0|0",
+            "skillRadius": "0",
+            "skillHeight": "0",
+            "skillLength": "0",
+            "skillWidth": "0",
+            "moveSpeed": "100"
+        },
+        {
+            "type": "3",
+            "guid": "",
+            "duration": "200",
+            "hitLength": "",
+            "frontRockLength": "",
+            "isCharge": "0",
+            "isAutoPlay": "0",
+            "delayPlayTime": "300",
+            "slotIndex": "-1",
+            "stopTime": "",
+            "offsetPos": [
+                "0",
+                "0",
+                "0"
+            ],
+            "offsetRotation": [
+                "0",
+                "0",
+                "0"
+            ],
+            "offsetScale": [
+                "0",
+                "0",
+                "0"
+            ],
+            "colorHex": "",
+            "isToPos": "0",
+            "moveDir": "1",
+            "moveDistance": "50",
+            "skillAngle": "0",
+            "skillOffsetDis": "0",
+            "skillRadius": "0",
+            "skillHeight": "0",
+            "skillLength": "0",
+            "skillWidth": "0",
+            "moveSpeed": "300"
+        },
+        {
+            "type": "5",
+            "guid": "",
+            "duration": "1000",
+            "hitLength": "",
+            "frontRockLength": "",
+            "isCharge": "0",
+            "isAutoPlay": "0",
+            "delayPlayTime": "100",
+            "slotIndex": "-1",
+            "stopTime": "",
+            "offsetPos": [
+                "0",
+                "0",
+                "0"
+            ],
+            "offsetRotation": [
+                "0",
+                "0",
+                "0"
+            ],
+            "offsetScale": [
+                "0",
+                "0",
+                "0"
+            ],
+            "colorHex": "",
+            "isToPos": "",
+            "moveDir": "",
+            "moveDistance": "100",
+            "skillAngle": "0",
+            "skillOffsetDis": "0",
+            "skillRadius": "0",
+            "skillHeight": "120",
+            "skillLength": "700",
+            "skillWidth": "100",
+            "moveSpeed": "300"
+        },
+        {
+            "type": "1",
+            "guid": "121416",
+            "duration": "800",
+            "hitLength": "400",
+            "frontRockLength": "500",
+            "isCharge": "0",
+            "isAutoPlay": "0",
+            "delayPlayTime": "100",
+            "slotIndex": "-1",
+            "stopTime": "",
+            "offsetPos": [
+                "0",
+                "0",
+                "0"
+            ],
+            "offsetRotation": [
+                "0",
+                "0",
+                "0"
+            ],
+            "offsetScale": [
+                "0",
+                "0",
+                "0"
+            ],
+            "colorHex": "",
+            "isToPos": "0",
+            "moveDir": "",
+            "moveDistance": "100",
+            "skillAngle": "0",
+            "skillOffsetDis": "0",
+            "skillRadius": "0",
+            "skillHeight": "0",
+            "skillLength": "0",
+            "skillWidth": "0",
+            "moveSpeed": "300"
+        },
+        {
+            "type": "3",
+            "guid": "",
+            "duration": "80",
+            "hitLength": "",
+            "frontRockLength": "",
+            "isCharge": "0",
+            "isAutoPlay": "0",
+            "delayPlayTime": "200",
+            "slotIndex": "-1",
+            "stopTime": "",
+            "offsetPos": [
+                "0",
+                "0",
+                "0"
+            ],
+            "offsetRotation": [
+                "0",
+                "0",
+                "0"
+            ],
+            "offsetScale": [
+                "0",
+                "0",
+                "0"
+            ],
+            "colorHex": "",
+            "isToPos": "0",
+            "moveDir": "1",
+            "moveDistance": "100",
+            "skillAngle": "0",
+            "skillOffsetDis": "0",
+            "skillRadius": "0",
+            "skillHeight": "0",
+            "skillLength": "0",
+            "skillWidth": "0",
+            "moveSpeed": "300"
+        },
+        {
+            "type": "2",
+            "guid": "224109",
+            "duration": "1000",
+            "hitLength": "",
+            "frontRockLength": "",
+            "isCharge": "0",
+            "isAutoPlay": "0",
+            "delayPlayTime": "450",
+            "slotIndex": "-1",
+            "stopTime": "400",
+            "offsetPos": [
+                "60",
+                "0",
+                "70"
+            ],
+            "offsetRotation": [
+                "180",
+                "0",
+                "90"
+            ],
+            "offsetScale": [
+                "1.35",
+                "1.35",
+                "1.35"
+            ],
+            "colorHex": "",
+            "isToPos": "",
+            "moveDir": "",
+            "moveDistance": "100",
+            "skillAngle": "0",
+            "skillOffsetDis": "0",
+            "skillRadius": "0",
+            "skillHeight": "0",
+            "skillLength": "0",
+            "skillWidth": "0",
+            "moveSpeed": "300"
+        },
+        {
+            "type": "4",
+            "guid": "75351",
+            "duration": "",
+            "hitLength": "",
+            "frontRockLength": "",
+            "isCharge": "0",
+            "isAutoPlay": "0",
+            "delayPlayTime": "300",
+            "slotIndex": "-1",
+            "stopTime": "",
+            "offsetPos": [
+                "0",
+                "0",
+                "0"
+            ],
+            "offsetRotation": [
+                "0",
+                "0",
+                "0"
+            ],
+            "offsetScale": [
+                "0",
+                "0",
+                "0"
+            ],
+            "colorHex": "",
+            "isToPos": "0",
+            "moveDir": "1",
+            "moveDistance": "",
+            "skillAngle": "0",
+            "skillOffsetDis": "0|0|0",
+            "skillRadius": "0",
+            "skillHeight": "0",
+            "skillLength": "0",
+            "skillWidth": "0",
+            "moveSpeed": "300"
+        },
+        {
+            "type": "5",
+            "guid": "",
+            "duration": "1000",
+            "hitLength": "",
+            "frontRockLength": "",
+            "isCharge": "0",
+            "isAutoPlay": "0",
+            "delayPlayTime": "100",
+            "slotIndex": "-1",
+            "stopTime": "",
+            "offsetPos": [
+                "0",
+                "0",
+                "0"
+            ],
+            "offsetRotation": [
+                "0",
+                "0",
+                "0"
+            ],
+            "offsetScale": [
+                "0",
+                "0",
+                "0"
+            ],
+            "colorHex": "",
+            "isToPos": "",
+            "moveDir": "",
+            "moveDistance": "100",
+            "skillAngle": "0",
+            "skillOffsetDis": "0",
+            "skillRadius": "0",
+            "skillHeight": "200",
+            "skillLength": "700",
+            "skillWidth": "100",
+            "moveSpeed": "300"
+        }
+    ]
+}</v>
       </c>
       <c r="C8" s="1">
-        <v>118147</v>
+        <v>122720</v>
       </c>
       <c r="D8" s="1">
-        <v>118147</v>
+        <v>122720</v>
       </c>
       <c r="E8" s="1">
         <v>121409</v>
@@ -990,44 +1526,44 @@
         <v>1</v>
       </c>
       <c r="I8" s="1" t="str">
-        <v>美国队长</v>
+        <v>激光炮</v>
       </c>
       <c r="J8" s="1">
-        <v>121658</v>
+        <v>117391</v>
       </c>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
     </row>
-    <row customHeight="true" ht="23" r="9">
+    <row r="9">
       <c r="A9" s="1">
         <v>5</v>
       </c>
       <c r="B9" s="1" t="str">
-        <v>{"charFightIdelAniId":"","infos":[{"type":"1","guid":"121647","duration":"800","hitLength":"300","frontRockLength":"500","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"124432","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"230","slotIndex":"-1","stopTime":"500","offsetPos":["0","0","0"],"offsetRotation":["0","-10","-120"],"offsetScale":["0.8","0.8","0.8"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"10","skillLength":"150","skillWidth":"160","moveSpeed":"300"},{"type":"4","guid":"47870","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"0","slotIndex":"-1","stopTime":"0","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"0","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"100"},{"type":"1","guid":"121641","duration":"600","hitLength":"300","frontRockLength":"500","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"124433","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"1200","offsetPos":["-30","0","-20"],"offsetRotation":["240","-45","-278"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"150","skillLength":"160","skillWidth":"140","moveSpeed":"300"},{"type":"4","guid":"75372","duration":"","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"0","slotIndex":"-1","stopTime":"0","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"0","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"100"},{"type":"1","guid":"121597","duration":"2300","hitLength":"1000","frontRockLength":"1800","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"3","guid":"","duration":"300","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"200","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"124434","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"900","slotIndex":"-1","stopTime":"2000","offsetPos":["50","0","-80"],"offsetRotation":["0","0","-90"],"offsetScale":["0.8","0.8","0.8"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"0","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"150","skillLength":"800","skillWidth":"140","moveSpeed":"300"},{"type":"4","guid":"122569","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"700","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"}]}</v>
+        <v>{"charFightIdelAniId":"117391","infos":[{"type":"1","guid":"117402","duration":"500","hitLength":"100","frontRockLength":"300","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"108555","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"500","offsetPos":["80","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["1.5","1.5","1.5"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"60","skillLength":"100","skillWidth":"60"},{"type":"1","guid":"117400","duration":"500","hitLength":"250","frontRockLength":"300","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"108558","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"0","slotIndex":"-1","stopTime":"600","offsetPos":["0","0","0"],"offsetRotation":["-130","0","0"],"offsetScale":["1.5","1.5","1.5"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"80","skillLength":"80","skillWidth":"80"},{"type":"1","guid":"108416","duration":"1800","hitLength":"500","frontRockLength":"800","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"108556","duration":"","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"500","slotIndex":"-1","stopTime":"600","offsetPos":["80","0","0"],"offsetRotation":["0","0","-90"],"offsetScale":["1.5","1.5","1.5"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"50","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"450","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"50","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"60","skillLength":"130","skillWidth":"60"},{"type":"1","guid":"108417","duration":"1100","hitLength":"550","frontRockLength":"800","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"85166","duration":"","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"600","offsetPos":["100","0","-50"],"offsetRotation":["0","0","0"],"offsetScale":["1","1","1"],"colorHex":"A8FF8AFF","isToPos":"","moveDir":"","moveDistance":"","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"85166","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"450","slotIndex":"-1","stopTime":"600","offsetPos":["80","0","60"],"offsetRotation":["0","0","0"],"offsetScale":["1","1","1"],"colorHex":"A8FF8AFF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"30","skillRadius":"0","skillHeight":"120","skillLength":"140","skillWidth":"120"},{"type":"1","guid":"108418","duration":"2300","hitLength":"700","frontRockLength":"1000","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"108557","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"500","slotIndex":"-1","stopTime":"1200","offsetPos":["30","0","-80"],"offsetRotation":["0","0","-90"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"108557","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"550","slotIndex":"-1","stopTime":"1200","offsetPos":["30","0","-80"],"offsetRotation":["0","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"108557","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"600","slotIndex":"-1","stopTime":"1200","offsetPos":["30","0","-80"],"offsetRotation":["0","0","90"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"108557","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"650","slotIndex":"-1","stopTime":"1200","offsetPos":["30","0","-80"],"offsetRotation":["0","0","180"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"123626","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"500","slotIndex":"-1","stopTime":"1500","offsetPos":["0","0","-70"],"offsetRotation":["0","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"450","skillLength":"500","skillWidth":"120"}]}</v>
       </c>
       <c r="C9" s="1">
-        <v>152619</v>
+        <v>122716</v>
       </c>
       <c r="D9" s="1">
-        <v>152619</v>
-      </c>
-      <c r="E9" s="7">
+        <v>122716</v>
+      </c>
+      <c r="E9" s="1">
         <v>121409</v>
       </c>
       <c r="F9" s="1">
-        <v>117224</v>
-      </c>
-      <c r="G9" s="7">
+        <v>27421</v>
+      </c>
+      <c r="G9" s="1">
         <v>10</v>
       </c>
       <c r="H9" s="2">
         <v>1</v>
       </c>
       <c r="I9" s="1" t="str">
-        <v>毒液</v>
+        <v>天神枪</v>
       </c>
       <c r="J9" s="1">
-        <v>121648</v>
+        <v>117391</v>
       </c>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
@@ -1037,19 +1573,19 @@
         <v>6</v>
       </c>
       <c r="B10" s="1" t="str">
-        <v>{"charFightIdelAniId":"","infos":[{"type":"1","guid":"121592","duration":"750","hitLength":"450","frontRockLength":"500","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"126922","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"400","slotIndex":"-1","stopTime":"400","offsetPos":["50","0","0"],"offsetRotation":["160","0","0"],"offsetScale":["1.2","1.2","1.2"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"4","guid":"12374","duration":"","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"0","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"100"},{"type":"3","guid":"","duration":"200","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"50","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"120","skillLength":"200","skillWidth":"200","moveSpeed":"300"},{"type":"1","guid":"121600","duration":"800","hitLength":"150","frontRockLength":"250","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"3","guid":"","duration":"80","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"126922","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"400","offsetPos":["0","0","0"],"offsetRotation":["30","0","0"],"offsetScale":["1.35","1.35","1.35"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"4","guid":"12374","duration":"","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"0","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"200","skillLength":"250","skillWidth":"200","moveSpeed":"300"},{"type":"1","guid":"121599","duration":"800","hitLength":"250","frontRockLength":"300","isCharge":"0","isAutoPlay":"0","delayPlayTime":"600","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"126922","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"400","offsetPos":["0","0","0"],"offsetRotation":["180","0","0"],"offsetScale":["1.5","1.5","1.5"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"4","guid":"12374","duration":"","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"0","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"100"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"80","skillLength":"200","skillWidth":"300","moveSpeed":"300"}]}</v>
+        <v>{"charFightIdelAniId":"","infos":[{"type":"1","guid":"121652","duration":"900","hitLength":"300","frontRockLength":"600","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"3","guid":"","duration":"200","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"50","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"126922","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"250","slotIndex":"-1","stopTime":"400","offsetPos":["0","0","0"],"offsetRotation":["-30","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"120","skillLength":"120","skillWidth":"160","moveSpeed":"300"},{"type":"4","guid":"47870","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"0","slotIndex":"-1","stopTime":"0","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"0","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"100"},{"type":"4","guid":"145579","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"150","slotIndex":"-1","stopTime":"0","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"0","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"100"},{"type":"1","guid":"121639","duration":"1300","hitLength":"600","frontRockLength":"800","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"3","guid":"","duration":"180","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"80","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"300","skillLength":"500","skillWidth":"120","moveSpeed":"300"},{"type":"2","guid":"126922","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"350","slotIndex":"-1","stopTime":"400","offsetPos":["0","0","0"],"offsetRotation":["90","0","0"],"offsetScale":["1.2","1.2","1.2"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"135892","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"450","slotIndex":"-1","stopTime":"600","offsetPos":["120","0","-85"],"offsetRotation":["0","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"135892","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"500","slotIndex":"-1","stopTime":"600","offsetPos":["240","0","-85"],"offsetRotation":["0","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"135892","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"550","slotIndex":"-1","stopTime":"600","offsetPos":["360","0","-85"],"offsetRotation":["0","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"135892","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"600","slotIndex":"-1","stopTime":"600","offsetPos":["480","0","-85"],"offsetRotation":["0","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"1","guid":"121644","duration":"1300","hitLength":"400","frontRockLength":"800","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"4","guid":"75351","duration":"","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"0","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"0","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"100"},{"type":"2","guid":"135891","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"800","offsetPos":["120","0","0"],"offsetRotation":["0","0","-90"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"200","skillLength":"300","skillWidth":"200","moveSpeed":"300"}]}</v>
       </c>
       <c r="C10" s="1">
-        <v>217276</v>
+        <v>118147</v>
       </c>
       <c r="D10" s="1">
-        <v>217276</v>
+        <v>118147</v>
       </c>
       <c r="E10" s="1">
         <v>121409</v>
       </c>
       <c r="F10" s="1">
-        <v>89089</v>
+        <v>135892</v>
       </c>
       <c r="G10" s="1">
         <v>10</v>
@@ -1058,10 +1594,10 @@
         <v>1</v>
       </c>
       <c r="I10" s="1" t="str">
-        <v>灭霸拳套</v>
+        <v>假雷神之锤</v>
       </c>
       <c r="J10" s="1">
-        <v>117391</v>
+        <v>121658</v>
       </c>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
@@ -1071,31 +1607,31 @@
         <v>7</v>
       </c>
       <c r="B11" s="1" t="str">
-        <v>{"charFightIdelAniId":"121557","infos":[{"type":"1","guid":"121575","duration":"900","hitLength":"500","frontRockLength":"600","isCharge":"0","isAutoPlay":"0","delayPlayTime":"","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"135890","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"450","slotIndex":"-1","stopTime":"400","offsetPos":["0","0","0"],"offsetRotation":["160","10","20"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"30","skillRadius":"0","skillHeight":"120","skillLength":"100","skillWidth":"200"},{"type":"1","guid":"121574","duration":"800","hitLength":"400","frontRockLength":"500","isCharge":"0","isAutoPlay":"0","delayPlayTime":"600","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"100","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"50","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"135890","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"400","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"30","skillRadius":"0","skillHeight":"120","skillLength":"100","skillWidth":"200"},{"type":"1","guid":"121573","duration":"800","hitLength":"400","frontRockLength":"500","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"150","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"135890","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"400","offsetPos":["0","0","0"],"offsetRotation":["130","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"30","skillRadius":"0","skillHeight":"120","skillLength":"80","skillWidth":"200"},{"type":"1","guid":"121572","duration":"1200","hitLength":"350","frontRockLength":"600","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"135889","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"1200","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"-150","skillRadius":"0","skillHeight":"100","skillLength":"300","skillWidth":"300"},{"type":"1","guid":"121571","duration":"1500","hitLength":"500","frontRockLength":"800","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"200","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"320","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"160","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"135894","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"500","slotIndex":"-1","stopTime":"800","offsetPos":["0","0","0"],"offsetRotation":["0","0","-90"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"200","skillLength":"450","skillWidth":"200"}]}</v>
+        <v>{"charFightIdelAniId":"","infos":[{"type":"1","guid":"121647","duration":"800","hitLength":"300","frontRockLength":"500","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"124432","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"230","slotIndex":"-1","stopTime":"500","offsetPos":["0","0","0"],"offsetRotation":["0","-10","-120"],"offsetScale":["0.8","0.8","0.8"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"10","skillLength":"150","skillWidth":"160","moveSpeed":"300"},{"type":"4","guid":"47870","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"0","slotIndex":"-1","stopTime":"0","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"0","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"100"},{"type":"1","guid":"121641","duration":"600","hitLength":"300","frontRockLength":"500","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"124433","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"1200","offsetPos":["-30","0","-20"],"offsetRotation":["240","-45","-278"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"150","skillLength":"160","skillWidth":"140","moveSpeed":"300"},{"type":"4","guid":"75372","duration":"","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"0","slotIndex":"-1","stopTime":"0","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"0","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"100"},{"type":"1","guid":"121597","duration":"2300","hitLength":"1000","frontRockLength":"1800","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"3","guid":"","duration":"300","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"200","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"124434","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"900","slotIndex":"-1","stopTime":"2000","offsetPos":["50","0","-80"],"offsetRotation":["0","0","-90"],"offsetScale":["0.8","0.8","0.8"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"0","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"150","skillLength":"800","skillWidth":"140","moveSpeed":"300"},{"type":"4","guid":"122569","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"700","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"}]}</v>
       </c>
       <c r="C11" s="1">
-        <v>116457</v>
+        <v>142965</v>
       </c>
       <c r="D11" s="1">
-        <v>116457</v>
-      </c>
-      <c r="E11" s="1">
+        <v>142965</v>
+      </c>
+      <c r="E11" s="5">
         <v>121409</v>
       </c>
       <c r="F11" s="1">
-        <v>135892</v>
-      </c>
-      <c r="G11" s="1">
+        <v>117224</v>
+      </c>
+      <c r="G11" s="5">
         <v>10</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="2">
         <v>1</v>
       </c>
       <c r="I11" s="1" t="str">
-        <v>鸣人</v>
+        <v>毒液刺</v>
       </c>
       <c r="J11" s="1">
-        <v>121557</v>
+        <v>121648</v>
       </c>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
@@ -1105,19 +1641,19 @@
         <v>8</v>
       </c>
       <c r="B12" s="1" t="str">
-        <v>{"charFightIdelAniId":"","infos":[{"type":"1","guid":"117371","duration":"500","hitLength":"100","frontRockLength":"300","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"123288","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"500","offsetPos":["30","0","-30"],"offsetRotation":["0","-20","-90"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"5","guid":"","duration":"","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"","skillAngle":"45","skillOffsetDis":"0","skillRadius":"0","skillHeight":"60","skillLength":"180","skillWidth":"240","moveSpeed":"300"},{"type":"4","guid":"135750","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"0","slotIndex":"-1","stopTime":"0","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"1","guid":"117366","duration":"1000","hitLength":"300","frontRockLength":"500","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"3","guid":"","duration":"100","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"80","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"123288","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"400","slotIndex":"-1","stopTime":"500","offsetPos":["30","0","15"],"offsetRotation":["187","20","110"],"offsetScale":["1.2","1.2","1.2"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"40","skillRadius":"0","skillHeight":"120","skillLength":"180","skillWidth":"240","moveSpeed":"300"},{"type":"4","guid":"135750","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"0","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"1","guid":"117375","duration":"1300","hitLength":"300","frontRockLength":"500","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"3","guid":"","duration":"50","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"20","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"123288","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"150","slotIndex":"-1","stopTime":"400","offsetPos":["30","0","15"],"offsetRotation":["-15","27","-122"],"offsetScale":["1.25","1.25","1.25"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"200","skillLength":"180","skillWidth":"240","moveSpeed":"300"},{"type":"4","guid":"135750","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"0","slotIndex":"-1","stopTime":"0","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"1","guid":"117376","duration":"1500","hitLength":"600","frontRockLength":"850","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"3","guid":"","duration":"200","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"80","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"123286","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"400","slotIndex":"-1","stopTime":"500","offsetPos":["0","0","0"],"offsetRotation":["-180","15","-270"],"offsetScale":["1.5","1.5","1.5"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"123286","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"600","slotIndex":"-1","stopTime":"800","offsetPos":["30","0","0"],"offsetRotation":["0","0","-90"],"offsetScale":["1.6","1.6","1.6"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"4","guid":"135750","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"400","slotIndex":"-1","stopTime":"0","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"4","guid":"135750","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"150","slotIndex":"-1","stopTime":"0","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"120","skillLength":"250","skillWidth":"400","moveSpeed":"300"},{"type":"3","guid":"","duration":"200","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"150","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"}]}</v>
-      </c>
-      <c r="C12" s="1" t="str">
-        <v>2CBF95974B875F019A70A4985A63BA89</v>
-      </c>
-      <c r="D12" s="1" t="str">
-        <v>2CBF95974B875F019A70A4985A63BA89</v>
+        <v>{"charFightIdelAniId":"","infos":[{"type":"1","guid":"121592","duration":"750","hitLength":"450","frontRockLength":"500","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"126922","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"400","slotIndex":"-1","stopTime":"400","offsetPos":["50","0","0"],"offsetRotation":["160","0","0"],"offsetScale":["1.2","1.2","1.2"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"4","guid":"12374","duration":"","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"0","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"100"},{"type":"3","guid":"","duration":"200","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"50","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"120","skillLength":"200","skillWidth":"200","moveSpeed":"300"},{"type":"1","guid":"121600","duration":"800","hitLength":"150","frontRockLength":"250","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"3","guid":"","duration":"80","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"126922","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"400","offsetPos":["0","0","0"],"offsetRotation":["30","0","0"],"offsetScale":["1.35","1.35","1.35"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"4","guid":"12374","duration":"","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"0","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"200","skillLength":"250","skillWidth":"200","moveSpeed":"300"},{"type":"1","guid":"121599","duration":"800","hitLength":"250","frontRockLength":"300","isCharge":"0","isAutoPlay":"0","delayPlayTime":"600","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"126922","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"400","offsetPos":["0","0","0"],"offsetRotation":["180","0","0"],"offsetScale":["1.5","1.5","1.5"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"4","guid":"12374","duration":"","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"0","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"100"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"80","skillLength":"200","skillWidth":"300","moveSpeed":"300"}]}</v>
+      </c>
+      <c r="C12" s="1">
+        <v>168953</v>
+      </c>
+      <c r="D12" s="1">
+        <v>168953</v>
       </c>
       <c r="E12" s="1">
         <v>121409</v>
       </c>
       <c r="F12" s="1">
-        <v>135892</v>
+        <v>89089</v>
       </c>
       <c r="G12" s="1">
         <v>10</v>
@@ -1125,11 +1661,11 @@
       <c r="H12" s="2">
         <v>1</v>
       </c>
-      <c r="I12" s="2" t="str">
-        <v>未来战士</v>
+      <c r="I12" s="1" t="str">
+        <v>灭霸法球</v>
       </c>
       <c r="J12" s="1">
-        <v>117403</v>
+        <v>117391</v>
       </c>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
@@ -1138,7 +1674,1390 @@
       <c r="A13" s="1">
         <v>9</v>
       </c>
-      <c r="B13" s="7" t="str">
+      <c r="B13" s="1" t="str">
+        <v>{"charFightIdelAniId":"121557","infos":[{"type":"1","guid":"121575","duration":"900","hitLength":"500","frontRockLength":"600","isCharge":"0","isAutoPlay":"0","delayPlayTime":"","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"135890","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"450","slotIndex":"-1","stopTime":"400","offsetPos":["0","0","0"],"offsetRotation":["160","10","20"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"30","skillRadius":"0","skillHeight":"120","skillLength":"100","skillWidth":"200"},{"type":"1","guid":"121574","duration":"800","hitLength":"400","frontRockLength":"500","isCharge":"0","isAutoPlay":"0","delayPlayTime":"600","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"100","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"50","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"135890","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"400","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"30","skillRadius":"0","skillHeight":"120","skillLength":"100","skillWidth":"200"},{"type":"1","guid":"121573","duration":"800","hitLength":"400","frontRockLength":"500","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"150","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"135890","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"400","offsetPos":["0","0","0"],"offsetRotation":["130","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"30","skillRadius":"0","skillHeight":"120","skillLength":"80","skillWidth":"200"},{"type":"1","guid":"121572","duration":"1200","hitLength":"350","frontRockLength":"600","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"135889","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"1200","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"-150","skillRadius":"0","skillHeight":"100","skillLength":"300","skillWidth":"300"},{"type":"1","guid":"121571","duration":"1500","hitLength":"500","frontRockLength":"800","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"200","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"320","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"160","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"135894","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"500","slotIndex":"-1","stopTime":"800","offsetPos":["0","0","0"],"offsetRotation":["0","0","-90"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"200","skillLength":"450","skillWidth":"200"}]}</v>
+      </c>
+      <c r="C13" s="1">
+        <v>116457</v>
+      </c>
+      <c r="D13" s="1">
+        <v>116457</v>
+      </c>
+      <c r="E13" s="1">
+        <v>121409</v>
+      </c>
+      <c r="F13" s="1">
+        <v>135892</v>
+      </c>
+      <c r="G13" s="1">
+        <v>10</v>
+      </c>
+      <c r="H13" s="6">
+        <v>1</v>
+      </c>
+      <c r="I13" s="1" t="str">
+        <v>螺旋丸</v>
+      </c>
+      <c r="J13" s="1">
+        <v>121557</v>
+      </c>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+    </row>
+    <row customHeight="true" ht="23" r="14">
+      <c r="A14" s="1">
+        <v>10</v>
+      </c>
+      <c r="B14" s="1" t="str">
+        <v>{"charFightIdelAniId":"","infos":[{"type":"1","guid":"117371","duration":"500","hitLength":"100","frontRockLength":"300","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"123288","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"500","offsetPos":["30","0","-30"],"offsetRotation":["0","-20","-90"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"5","guid":"","duration":"","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"","skillAngle":"45","skillOffsetDis":"0","skillRadius":"0","skillHeight":"60","skillLength":"180","skillWidth":"240","moveSpeed":"300"},{"type":"4","guid":"135750","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"0","slotIndex":"-1","stopTime":"0","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"1","guid":"117366","duration":"1000","hitLength":"300","frontRockLength":"500","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"3","guid":"","duration":"100","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"80","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"123288","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"400","slotIndex":"-1","stopTime":"500","offsetPos":["30","0","15"],"offsetRotation":["187","20","110"],"offsetScale":["1.2","1.2","1.2"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"40","skillRadius":"0","skillHeight":"120","skillLength":"180","skillWidth":"240","moveSpeed":"300"},{"type":"4","guid":"135750","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"0","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"1","guid":"117375","duration":"1300","hitLength":"300","frontRockLength":"500","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"3","guid":"","duration":"50","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"20","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"123288","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"150","slotIndex":"-1","stopTime":"400","offsetPos":["30","0","15"],"offsetRotation":["-15","27","-122"],"offsetScale":["1.25","1.25","1.25"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"200","skillLength":"180","skillWidth":"240","moveSpeed":"300"},{"type":"4","guid":"135750","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"0","slotIndex":"-1","stopTime":"0","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"1","guid":"117376","duration":"1500","hitLength":"600","frontRockLength":"850","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"3","guid":"","duration":"200","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"80","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"123286","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"400","slotIndex":"-1","stopTime":"500","offsetPos":["0","0","0"],"offsetRotation":["-180","15","-270"],"offsetScale":["1.5","1.5","1.5"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"123286","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"600","slotIndex":"-1","stopTime":"800","offsetPos":["30","0","0"],"offsetRotation":["0","0","-90"],"offsetScale":["1.6","1.6","1.6"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"4","guid":"135750","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"400","slotIndex":"-1","stopTime":"0","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"4","guid":"135750","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"150","slotIndex":"-1","stopTime":"0","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"120","skillLength":"250","skillWidth":"400","moveSpeed":"300"},{"type":"3","guid":"","duration":"200","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"150","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"}]}</v>
+      </c>
+      <c r="C14" s="1">
+        <v>31179</v>
+      </c>
+      <c r="D14" s="1">
+        <v>31179</v>
+      </c>
+      <c r="E14" s="1">
+        <v>121409</v>
+      </c>
+      <c r="F14" s="1">
+        <v>135892</v>
+      </c>
+      <c r="G14" s="1">
+        <v>10</v>
+      </c>
+      <c r="H14" s="2">
+        <v>1</v>
+      </c>
+      <c r="I14" s="2" t="str">
+        <v>双剑华斩</v>
+      </c>
+      <c r="J14" s="1">
+        <v>117403</v>
+      </c>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1">
+        <v>11</v>
+      </c>
+      <c r="B15" s="1" t="str">
+        <v>{"charFightIdelAniId":"","infos":[{"type":"1","guid":"111103","duration":"700","hitLength":"300","frontRockLength":"500","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"3","guid":"","duration":"50","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"0","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"30","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"4","guid":"12374","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"0","slotIndex":"-1","stopTime":"0","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"0","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"100"},{"type":"2","guid":"105325","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"220","slotIndex":"-1","stopTime":"400","offsetPos":["30","0","0"],"offsetRotation":["150","12","20"],"offsetScale":["1","1","1"],"colorHex":"88E5FFFF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"4","guid":"12374","duration":"","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"0","slotIndex":"-1","stopTime":"0","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"0","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"100"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"80","skillLength":"110","skillWidth":"120","moveSpeed":"300"},{"type":"1","guid":"111101","duration":"1300","hitLength":"300","frontRockLength":"400","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"4","guid":"12374","duration":"","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"0","slotIndex":"-1","stopTime":"0","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"0","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"100"},{"type":"3","guid":"","duration":"100","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"60","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"-80","skillRadius":"0","skillHeight":"250","skillLength":"260","skillWidth":"20","moveSpeed":"300"},{"type":"2","guid":"105325","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"250","slotIndex":"-1","stopTime":"500","offsetPos":["20","0","0"],"offsetRotation":["-107","55","-14"],"offsetScale":["1.1","1.1","1.1"],"colorHex":"88E5FFFF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"105325","duration":"","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"350","slotIndex":"-1","stopTime":"500","offsetPos":["20","20","0"],"offsetRotation":["-254","44","-168"],"offsetScale":["1.3","1.3","1.3"],"colorHex":"88E5FFFF","isToPos":"0","moveDir":"1","moveDistance":"","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"105325","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"450","slotIndex":"-1","stopTime":"400","offsetPos":["20","-30","0"],"offsetRotation":["-249","-56","-196"],"offsetScale":["1.15","1.15","1.15"],"colorHex":"88E5FFFF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"105325","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"480","slotIndex":"-1","stopTime":"100","offsetPos":["20","20","0"],"offsetRotation":["-101","-17","-355"],"offsetScale":["1.2","1.2","1.2"],"colorHex":"88E5FFFF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"105325","duration":"","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"500","slotIndex":"-1","stopTime":"500","offsetPos":["30","0","0"],"offsetRotation":["-101","-8","-358"],"offsetScale":["1.5","1.5","1.5"],"colorHex":"88E5FFFF","isToPos":"","moveDir":"","moveDistance":"","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"1","guid":"111093","duration":"1700","hitLength":"500","frontRockLength":"800","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"3","guid":"","duration":"300","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"116459","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"600","slotIndex":"-1","stopTime":"1200","offsetPos":["0","0","-60"],"offsetRotation":["0","0","-180"],"offsetScale":["1","1","1"],"colorHex":"88E5FFFF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"4","guid":"12374","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"350","slotIndex":"-1","stopTime":"0","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"}]}</v>
+      </c>
+      <c r="C15" s="1">
+        <v>118148</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1">
+        <v>121409</v>
+      </c>
+      <c r="F15" s="1">
+        <v>27422</v>
+      </c>
+      <c r="G15" s="1">
+        <v>10</v>
+      </c>
+      <c r="H15" s="2">
+        <v>1</v>
+      </c>
+      <c r="I15" s="1" t="str">
+        <v>洛基法杖</v>
+      </c>
+      <c r="J15" s="1">
+        <v>117391</v>
+      </c>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+    </row>
+    <row customHeight="true" ht="24" r="16">
+      <c r="A16" s="1">
+        <v>12</v>
+      </c>
+      <c r="B16" s="1" t="str">
+        <v>{
+    "charFightIdelAniId": "117380",
+    "infos": [
+        {
+            "type": "1",
+            "guid": "117399",
+            "duration": "1200",
+            "hitLength": "300",
+            "frontRockLength": "500",
+            "isCharge": "0",
+            "isAutoPlay": "0",
+            "delayPlayTime": "100",
+            "slotIndex": "-1",
+            "stopTime": "",
+            "offsetPos": [
+                "0",
+                "0",
+                "0"
+            ],
+            "offsetRotation": [
+                "0",
+                "0",
+                "0"
+            ],
+            "offsetScale": [
+                "0",
+                "0",
+                "0"
+            ],
+            "colorHex": "",
+            "isToPos": "",
+            "moveDir": "",
+            "moveDistance": "100",
+            "skillAngle": "0",
+            "skillOffsetDis": "0",
+            "skillRadius": "0",
+            "skillHeight": "0",
+            "skillLength": "0",
+            "skillWidth": "0"
+        },
+        {
+            "type": "2",
+            "guid": "120066",
+            "duration": "1000",
+            "hitLength": "",
+            "frontRockLength": "",
+            "isCharge": "0",
+            "isAutoPlay": "0",
+            "delayPlayTime": "150",
+            "slotIndex": "-1",
+            "stopTime": "500",
+            "offsetPos": [
+                "0",
+                "0",
+                "0"
+            ],
+            "offsetRotation": [
+                "0",
+                "0",
+                "0"
+            ],
+            "offsetScale": [
+                "1",
+                "1",
+                "1"
+            ],
+            "colorHex": "",
+            "isToPos": "",
+            "moveDir": "",
+            "moveDistance": "100",
+            "skillAngle": "0",
+            "skillOffsetDis": "0",
+            "skillRadius": "0",
+            "skillHeight": "0",
+            "skillLength": "0",
+            "skillWidth": "0"
+        },
+        {
+            "type": "3",
+            "guid": "",
+            "duration": "50",
+            "hitLength": "",
+            "frontRockLength": "",
+            "isCharge": "0",
+            "isAutoPlay": "0",
+            "delayPlayTime": "200",
+            "slotIndex": "-1",
+            "stopTime": "",
+            "offsetPos": [
+                "0",
+                "0",
+                "0"
+            ],
+            "offsetRotation": [
+                "0",
+                "0",
+                "0"
+            ],
+            "offsetScale": [
+                "0",
+                "0",
+                "0"
+            ],
+            "colorHex": "",
+            "isToPos": "0",
+            "moveDir": "1",
+            "moveDistance": "50",
+            "skillAngle": "0",
+            "skillOffsetDis": "0",
+            "skillRadius": "0",
+            "skillHeight": "0",
+            "skillLength": "0",
+            "skillWidth": "0"
+        },
+        {
+            "type": "5",
+            "guid": "",
+            "duration": "",
+            "hitLength": "",
+            "frontRockLength": "",
+            "isCharge": "0",
+            "isAutoPlay": "0",
+            "delayPlayTime": "300",
+            "slotIndex": "-1",
+            "stopTime": "",
+            "offsetPos": [
+                "0",
+                "0",
+                "0"
+            ],
+            "offsetRotation": [
+                "0",
+                "0",
+                "0"
+            ],
+            "offsetScale": [
+                "0",
+                "0",
+                "0"
+            ],
+            "colorHex": "",
+            "isToPos": "0",
+            "moveDir": "1",
+            "moveDistance": "",
+            "skillAngle": "45",
+            "skillOffsetDis": "0",
+            "skillRadius": "0",
+            "skillHeight": "60",
+            "skillLength": "180",
+            "skillWidth": "240"
+        },
+        {
+            "type": "1",
+            "guid": "117398",
+            "duration": "1400",
+            "hitLength": "300",
+            "frontRockLength": "600",
+            "isCharge": "0",
+            "isAutoPlay": "0",
+            "delayPlayTime": "100",
+            "slotIndex": "-1",
+            "stopTime": "",
+            "offsetPos": [
+                "0",
+                "0",
+                "0"
+            ],
+            "offsetRotation": [
+                "0",
+                "0",
+                "0"
+            ],
+            "offsetScale": [
+                "0",
+                "0",
+                "0"
+            ],
+            "colorHex": "",
+            "isToPos": "",
+            "moveDir": "",
+            "moveDistance": "100",
+            "skillAngle": "0",
+            "skillOffsetDis": "0",
+            "skillRadius": "0",
+            "skillHeight": "0",
+            "skillLength": "0",
+            "skillWidth": "0"
+        },
+        {
+            "type": "2",
+            "guid": "120066",
+            "duration": "1000",
+            "hitLength": "",
+            "frontRockLength": "",
+            "isCharge": "0",
+            "isAutoPlay": "0",
+            "delayPlayTime": "150",
+            "slotIndex": "-1",
+            "stopTime": "500",
+            "offsetPos": [
+                "0",
+                "0",
+                "0"
+            ],
+            "offsetRotation": [
+                "160",
+                "0",
+                "0"
+            ],
+            "offsetScale": [
+                "1",
+                "1",
+                "1"
+            ],
+            "colorHex": "",
+            "isToPos": "",
+            "moveDir": "",
+            "moveDistance": "100",
+            "skillAngle": "0",
+            "skillOffsetDis": "0",
+            "skillRadius": "0",
+            "skillHeight": "0",
+            "skillLength": "0",
+            "skillWidth": "0"
+        },
+        {
+            "type": "3",
+            "guid": "",
+            "duration": "50",
+            "hitLength": "",
+            "frontRockLength": "",
+            "isCharge": "0",
+            "isAutoPlay": "0",
+            "delayPlayTime": "100",
+            "slotIndex": "-1",
+            "stopTime": "",
+            "offsetPos": [
+                "0",
+                "0",
+                "0"
+            ],
+            "offsetRotation": [
+                "0",
+                "0",
+                "0"
+            ],
+            "offsetScale": [
+                "0",
+                "0",
+                "0"
+            ],
+            "colorHex": "",
+            "isToPos": "0",
+            "moveDir": "1",
+            "moveDistance": "50",
+            "skillAngle": "0",
+            "skillOffsetDis": "0",
+            "skillRadius": "0",
+            "skillHeight": "0",
+            "skillLength": "0",
+            "skillWidth": "0"
+        },
+        {
+            "type": "5",
+            "guid": "",
+            "duration": "1000",
+            "hitLength": "",
+            "frontRockLength": "",
+            "isCharge": "0",
+            "isAutoPlay": "0",
+            "delayPlayTime": "300",
+            "slotIndex": "-1",
+            "stopTime": "",
+            "offsetPos": [
+                "0",
+                "0",
+                "0"
+            ],
+            "offsetRotation": [
+                "0",
+                "0",
+                "0"
+            ],
+            "offsetScale": [
+                "0",
+                "0",
+                "0"
+            ],
+            "colorHex": "",
+            "isToPos": "",
+            "moveDir": "",
+            "moveDistance": "100",
+            "skillAngle": "0",
+            "skillOffsetDis": "40",
+            "skillRadius": "0",
+            "skillHeight": "120",
+            "skillLength": "180",
+            "skillWidth": "240"
+        },
+        {
+            "type": "1",
+            "guid": "117397",
+            "duration": "2100",
+            "hitLength": "300",
+            "frontRockLength": "800",
+            "isCharge": "0",
+            "isAutoPlay": "0",
+            "delayPlayTime": "100",
+            "slotIndex": "-1",
+            "stopTime": "",
+            "offsetPos": [
+                "0",
+                "0",
+                "0"
+            ],
+            "offsetRotation": [
+                "0",
+                "0",
+                "0"
+            ],
+            "offsetScale": [
+                "0",
+                "0",
+                "0"
+            ],
+            "colorHex": "",
+            "isToPos": "",
+            "moveDir": "",
+            "moveDistance": "100",
+            "skillAngle": "0",
+            "skillOffsetDis": "0",
+            "skillRadius": "0",
+            "skillHeight": "0",
+            "skillLength": "0",
+            "skillWidth": "0"
+        },
+        {
+            "type": "3",
+            "guid": "",
+            "duration": "500",
+            "hitLength": "",
+            "frontRockLength": "",
+            "isCharge": "0",
+            "isAutoPlay": "0",
+            "delayPlayTime": "150",
+            "slotIndex": "-1",
+            "stopTime": "",
+            "offsetPos": [
+                "0",
+                "0",
+                "0"
+            ],
+            "offsetRotation": [
+                "0",
+                "0",
+                "0"
+            ],
+            "offsetScale": [
+                "0",
+                "0",
+                "0"
+            ],
+            "colorHex": "",
+            "isToPos": "0",
+            "moveDir": "1",
+            "moveDistance": "300",
+            "skillAngle": "0",
+            "skillOffsetDis": "0",
+            "skillRadius": "0",
+            "skillHeight": "0",
+            "skillLength": "0",
+            "skillWidth": "0"
+        },
+        {
+            "type": "2",
+            "guid": "120063",
+            "duration": "1000",
+            "hitLength": "",
+            "frontRockLength": "",
+            "isCharge": "0",
+            "isAutoPlay": "0",
+            "delayPlayTime": "150",
+            "slotIndex": "-1",
+            "stopTime": "600",
+            "offsetPos": [
+                "120",
+                "0",
+                "0"
+            ],
+            "offsetRotation": [
+                "0",
+                "0",
+                "-90"
+            ],
+            "offsetScale": [
+                "1",
+                "1",
+                "1"
+            ],
+            "colorHex": "",
+            "isToPos": "",
+            "moveDir": "",
+            "moveDistance": "100",
+            "skillAngle": "0",
+            "skillOffsetDis": "0",
+            "skillRadius": "0",
+            "skillHeight": "0",
+            "skillLength": "0",
+            "skillWidth": "0"
+        },
+        {
+            "type": "2",
+            "guid": "120062",
+            "duration": "1000",
+            "hitLength": "",
+            "frontRockLength": "",
+            "isCharge": "0",
+            "isAutoPlay": "0",
+            "delayPlayTime": "350",
+            "slotIndex": "-1",
+            "stopTime": "800",
+            "offsetPos": [
+                "200",
+                "0",
+                "0"
+            ],
+            "offsetRotation": [
+                "0",
+                "0",
+                "0"
+            ],
+            "offsetScale": [
+                "1.3",
+                "1.3",
+                "1.3"
+            ],
+            "colorHex": "",
+            "isToPos": "",
+            "moveDir": "",
+            "moveDistance": "100",
+            "skillAngle": "0",
+            "skillOffsetDis": "0",
+            "skillRadius": "0",
+            "skillHeight": "0",
+            "skillLength": "0",
+            "skillWidth": "0"
+        },
+        {
+            "type": "5",
+            "guid": "",
+            "duration": "1000",
+            "hitLength": "",
+            "frontRockLength": "",
+            "isCharge": "0",
+            "isAutoPlay": "0",
+            "delayPlayTime": "300",
+            "slotIndex": "-1",
+            "stopTime": "",
+            "offsetPos": [
+                "0",
+                "0",
+                "0"
+            ],
+            "offsetRotation": [
+                "0",
+                "0",
+                "0"
+            ],
+            "offsetScale": [
+                "0",
+                "0",
+                "0"
+            ],
+            "colorHex": "",
+            "isToPos": "",
+            "moveDir": "",
+            "moveDistance": "100",
+            "skillAngle": "0",
+            "skillOffsetDis": "250",
+            "skillRadius": "0",
+            "skillHeight": "200",
+            "skillLength": "180",
+            "skillWidth": "240"
+        },
+        {
+            "type": "1",
+            "guid": "117396",
+            "duration": "2000",
+            "hitLength": "500",
+            "frontRockLength": "1200",
+            "isCharge": "0",
+            "isAutoPlay": "0",
+            "delayPlayTime": "100",
+            "slotIndex": "-1",
+            "stopTime": "",
+            "offsetPos": [
+                "0",
+                "0",
+                "0"
+            ],
+            "offsetRotation": [
+                "0",
+                "0",
+                "0"
+            ],
+            "offsetScale": [
+                "0",
+                "0",
+                "0"
+            ],
+            "colorHex": "",
+            "isToPos": "",
+            "moveDir": "",
+            "moveDistance": "100",
+            "skillAngle": "0",
+            "skillOffsetDis": "0",
+            "skillRadius": "0",
+            "skillHeight": "0",
+            "skillLength": "0",
+            "skillWidth": "0"
+        },
+        {
+            "type": "2",
+            "guid": "120065",
+            "duration": "1000",
+            "hitLength": "",
+            "frontRockLength": "",
+            "isCharge": "0",
+            "isAutoPlay": "0",
+            "delayPlayTime": "300",
+            "slotIndex": "-1",
+            "stopTime": "1800",
+            "offsetPos": [
+                "60",
+                "0",
+                "100"
+            ],
+            "offsetRotation": [
+                "90",
+                "0",
+                "0"
+            ],
+            "offsetScale": [
+                "1",
+                "1",
+                "1"
+            ],
+            "colorHex": "",
+            "isToPos": "",
+            "moveDir": "",
+            "moveDistance": "100",
+            "skillAngle": "0",
+            "skillOffsetDis": "0",
+            "skillRadius": "0",
+            "skillHeight": "0",
+            "skillLength": "0",
+            "skillWidth": "0"
+        },
+        {
+            "type": "3",
+            "guid": "",
+            "duration": "300",
+            "hitLength": "",
+            "frontRockLength": "",
+            "isCharge": "0",
+            "isAutoPlay": "0",
+            "delayPlayTime": "100",
+            "slotIndex": "-1",
+            "stopTime": "",
+            "offsetPos": [
+                "0",
+                "0",
+                "0"
+            ],
+            "offsetRotation": [
+                "0",
+                "0",
+                "0"
+            ],
+            "offsetScale": [
+                "0",
+                "0",
+                "0"
+            ],
+            "colorHex": "",
+            "isToPos": "0",
+            "moveDir": "1",
+            "moveDistance": "100",
+            "skillAngle": "0",
+            "skillOffsetDis": "0",
+            "skillRadius": "0",
+            "skillHeight": "0",
+            "skillLength": "0",
+            "skillWidth": "0"
+        },
+        {
+            "type": "5",
+            "guid": "",
+            "duration": "1000",
+            "hitLength": "",
+            "frontRockLength": "",
+            "isCharge": "0",
+            "isAutoPlay": "0",
+            "delayPlayTime": "500",
+            "slotIndex": "-1",
+            "stopTime": "",
+            "offsetPos": [
+                "0",
+                "0",
+                "0"
+            ],
+            "offsetRotation": [
+                "0",
+                "0",
+                "0"
+            ],
+            "offsetScale": [
+                "0",
+                "0",
+                "0"
+            ],
+            "colorHex": "",
+            "isToPos": "",
+            "moveDir": "",
+            "moveDistance": "100",
+            "skillAngle": "0",
+            "skillOffsetDis": "-150",
+            "skillRadius": "0",
+            "skillHeight": "200",
+            "skillLength": "300",
+            "skillWidth": "100"
+        },
+        {
+            "type": "1",
+            "guid": "117394",
+            "duration": "1600",
+            "hitLength": "300",
+            "frontRockLength": "500",
+            "isCharge": "0",
+            "isAutoPlay": "0",
+            "delayPlayTime": "100",
+            "slotIndex": "-1",
+            "stopTime": "",
+            "offsetPos": [
+                "0",
+                "0",
+                "0"
+            ],
+            "offsetRotation": [
+                "0",
+                "0",
+                "0"
+            ],
+            "offsetScale": [
+                "0",
+                "0",
+                "0"
+            ],
+            "colorHex": "",
+            "isToPos": "",
+            "moveDir": "",
+            "moveDistance": "100",
+            "skillAngle": "0",
+            "skillOffsetDis": "0",
+            "skillRadius": "0",
+            "skillHeight": "0",
+            "skillLength": "0",
+            "skillWidth": "0"
+        },
+        {
+            "type": "3",
+            "guid": "",
+            "duration": "200",
+            "hitLength": "",
+            "frontRockLength": "",
+            "isCharge": "0",
+            "isAutoPlay": "0",
+            "delayPlayTime": "100",
+            "slotIndex": "-1",
+            "stopTime": "",
+            "offsetPos": [
+                "0",
+                "0",
+                "0"
+            ],
+            "offsetRotation": [
+                "0",
+                "0",
+                "0"
+            ],
+            "offsetScale": [
+                "0",
+                "0",
+                "0"
+            ],
+            "colorHex": "",
+            "isToPos": "0",
+            "moveDir": "1",
+            "moveDistance": "150",
+            "skillAngle": "0",
+            "skillOffsetDis": "0",
+            "skillRadius": "0",
+            "skillHeight": "0",
+            "skillLength": "0",
+            "skillWidth": "0"
+        },
+        {
+            "type": "2",
+            "guid": "120064",
+            "duration": "1000",
+            "hitLength": "",
+            "frontRockLength": "",
+            "isCharge": "0",
+            "isAutoPlay": "0",
+            "delayPlayTime": "100",
+            "slotIndex": "-1",
+            "stopTime": "1600",
+            "offsetPos": [
+                "120",
+                "0",
+                "-50"
+            ],
+            "offsetRotation": [
+                "0",
+                "0",
+                "-90"
+            ],
+            "offsetScale": [
+                "1",
+                "1",
+                "1"
+            ],
+            "colorHex": "",
+            "isToPos": "",
+            "moveDir": "",
+            "moveDistance": "100",
+            "skillAngle": "0",
+            "skillOffsetDis": "0",
+            "skillRadius": "0",
+            "skillHeight": "0",
+            "skillLength": "0",
+            "skillWidth": "0"
+        },
+        {
+            "type": "5",
+            "guid": "",
+            "duration": "1000",
+            "hitLength": "",
+            "frontRockLength": "",
+            "isCharge": "0",
+            "isAutoPlay": "0",
+            "delayPlayTime": "300",
+            "slotIndex": "-1",
+            "stopTime": "",
+            "offsetPos": [
+                "0",
+                "0",
+                "0"
+            ],
+            "offsetRotation": [
+                "0",
+                "0",
+                "0"
+            ],
+            "offsetScale": [
+                "0",
+                "0",
+                "0"
+            ],
+            "colorHex": "",
+            "isToPos": "",
+            "moveDir": "",
+            "moveDistance": "100",
+            "skillAngle": "0",
+            "skillOffsetDis": "50",
+            "skillRadius": "0",
+            "skillHeight": "200",
+            "skillLength": "200",
+            "skillWidth": "200"
+        }
+    ]
+}</v>
+      </c>
+      <c r="C16" s="1">
+        <v>103061</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1">
+        <v>121409</v>
+      </c>
+      <c r="F16" s="1">
+        <v>31122</v>
+      </c>
+      <c r="G16" s="1">
+        <v>10</v>
+      </c>
+      <c r="H16" s="2">
+        <v>1</v>
+      </c>
+      <c r="I16" s="1" t="str">
+        <v>太阳神突刺斩</v>
+      </c>
+      <c r="J16" s="1">
+        <v>117391</v>
+      </c>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="1">
+        <v>13</v>
+      </c>
+      <c r="B17" s="1" t="str">
+        <v>{"charFightIdelAniId":"117403","infos":[{"type":"1","guid":"117371","duration":"500","hitLength":"100","frontRockLength":"300","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"123288","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"500","offsetPos":["30","0","-30"],"offsetRotation":["0","-20","-90"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"","skillAngle":"45","skillOffsetDis":"0","skillRadius":"0","skillHeight":"60","skillLength":"180","skillWidth":"240"},{"type":"1","guid":"117366","duration":"1000","hitLength":"300","frontRockLength":"500","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"100","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"120","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"123288","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"400","slotIndex":"-1","stopTime":"500","offsetPos":["30","0","15"],"offsetRotation":["187","20","110"],"offsetScale":["1.2","1.2","1.2"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"40","skillRadius":"0","skillHeight":"120","skillLength":"180","skillWidth":"240"},{"type":"1","guid":"117375","duration":"1300","hitLength":"300","frontRockLength":"500","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"50","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"20","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"123288","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"150","slotIndex":"-1","stopTime":"400","offsetPos":["30","0","15"],"offsetRotation":["-15","27","-122"],"offsetScale":["1.25","1.25","1.25"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"200","skillLength":"180","skillWidth":"240"},{"type":"1","guid":"117376","duration":"1500","hitLength":"600","frontRockLength":"850","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"200","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"200","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"123286","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"400","slotIndex":"-1","stopTime":"500","offsetPos":["0","0","0"],"offsetRotation":["-180","15","-270"],"offsetScale":["1.5","1.5","1.5"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"123286","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"600","slotIndex":"-1","stopTime":"800","offsetPos":["30","0","0"],"offsetRotation":["0","0","-90"],"offsetScale":["1.6","1.6","1.6"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"120","skillLength":"250","skillWidth":"400"},{"type":"1","guid":"117382","duration":"1800","hitLength":"500","frontRockLength":"1300","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"200","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"150","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"300","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"123289","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"250","slotIndex":"-1","stopTime":"600","offsetPos":["280","0","-40"],"offsetRotation":["0","0","-90"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"123287","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"2500","offsetPos":["180","0","-80"],"offsetRotation":["0","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"360","skillOffsetDis":"0","skillRadius":"320","skillHeight":"230","skillLength":"0","skillWidth":"0"}]}</v>
+      </c>
+      <c r="C17" s="1">
+        <v>122956</v>
+      </c>
+      <c r="D17" s="1">
+        <v>122956</v>
+      </c>
+      <c r="E17" s="1">
+        <v>121409</v>
+      </c>
+      <c r="F17" s="5">
+        <v>27421</v>
+      </c>
+      <c r="G17" s="1">
+        <v>10</v>
+      </c>
+      <c r="H17" s="10">
+        <v>1</v>
+      </c>
+      <c r="I17" s="1" t="str">
+        <v>死神斑爷剑</v>
+      </c>
+      <c r="J17" s="1">
+        <v>117403</v>
+      </c>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1">
+        <v>14</v>
+      </c>
+      <c r="B18" s="1" t="str">
+        <v>{"charFightIdelAniId":"111095","infos":[{"type":"1","guid":"111103","duration":"700","hitLength":"300","frontRockLength":"500","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"50","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"0","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"30","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"105325","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"220","slotIndex":"-1","stopTime":"400","offsetPos":["30","0","0"],"offsetRotation":["150","12","20"],"offsetScale":["1","1","1"],"colorHex":"88E5FFFF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"80","skillLength":"110","skillWidth":"120"},{"type":"1","guid":"111102","duration":"600","hitLength":"200","frontRockLength":"300","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"80","skillLength":"110","skillWidth":"120"},{"type":"2","guid":"105325","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"220","slotIndex":"-1","stopTime":"400","offsetPos":["20","0","0"],"offsetRotation":["-15","0","0"],"offsetScale":["1.3","1.3","1.3"],"colorHex":"88E5FFFF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"1","guid":"111101","duration":"1300","hitLength":"300","frontRockLength":"400","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"100","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"60","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"-80","skillRadius":"0","skillHeight":"250","skillLength":"260","skillWidth":"20"},{"type":"2","guid":"105325","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"250","slotIndex":"-1","stopTime":"500","offsetPos":["20","0","0"],"offsetRotation":["-107","55","-14"],"offsetScale":["1.1","1.1","1.1"],"colorHex":"88E5FFFF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"105325","duration":"","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"350","slotIndex":"-1","stopTime":"500","offsetPos":["20","20","0"],"offsetRotation":["-254","44","-168"],"offsetScale":["1.3","1.3","1.3"],"colorHex":"88E5FFFF","isToPos":"0","moveDir":"1","moveDistance":"","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"105325","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"450","slotIndex":"-1","stopTime":"400","offsetPos":["20","-30","0"],"offsetRotation":["-249","-56","-196"],"offsetScale":["1.15","1.15","1.15"],"colorHex":"88E5FFFF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"105325","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"480","slotIndex":"-1","stopTime":"100","offsetPos":["20","20","0"],"offsetRotation":["-101","-17","-355"],"offsetScale":["1.2","1.2","1.2"],"colorHex":"88E5FFFF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"105325","duration":"","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"500","slotIndex":"-1","stopTime":"500","offsetPos":["30","0","0"],"offsetRotation":["-101","-8","-358"],"offsetScale":["1.5","1.5","1.5"],"colorHex":"88E5FFFF","isToPos":"","moveDir":"","moveDistance":"","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"1","guid":"111100","duration":"1100","hitLength":"300","frontRockLength":"800","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"116455","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"600","offsetPos":["0","0","0"],"offsetRotation":["0","0","-90"],"offsetScale":["1","1","1"],"colorHex":"88E5FFFF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"300","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"50","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"1","guid":"111093","duration":"1700","hitLength":"500","frontRockLength":"800","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"300","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"116459","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"600","slotIndex":"-1","stopTime":"1200","offsetPos":["0","0","-60"],"offsetRotation":["0","0","-180"],"offsetScale":["1","1","1"],"colorHex":"88E5FFFF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"}]}</v>
+      </c>
+      <c r="C18" s="1">
+        <v>122949</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1">
+        <v>121409</v>
+      </c>
+      <c r="F18" s="1">
+        <v>27422</v>
+      </c>
+      <c r="G18" s="5">
+        <v>10</v>
+      </c>
+      <c r="H18" s="2">
+        <v>1</v>
+      </c>
+      <c r="I18" s="1" t="str">
+        <v>纳米机甲剑</v>
+      </c>
+      <c r="J18" s="1">
+        <v>111095</v>
+      </c>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="1">
+        <v>15</v>
+      </c>
+      <c r="B19" s="1" t="str">
+        <v>{"charFightIdelAniId":"121951","infos":[{"type":"1","guid":"121959","duration":"800","hitLength":"380","frontRockLength":"400","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"105195","duration":"","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"800","offsetPos":["10","0","0"],"offsetRotation":["40","0","0"],"offsetScale":["0.8","0.8","0.8"],"colorHex":"BFFF5AFF","isToPos":"","moveDir":"","moveDistance":"","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"3","guid":"","duration":"200","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"50","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"30","skillRadius":"0","skillHeight":"120","skillLength":"130","skillWidth":"130","moveSpeed":"300"},{"type":"4","guid":"135750","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"0","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"1","guid":"121966","duration":"800","hitLength":"400","frontRockLength":"600","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"105195","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"800","offsetPos":["60","0","0"],"offsetRotation":["150","0","0"],"offsetScale":["0.8","0.8","0.8"],"colorHex":"BFFF5AFF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"30","skillRadius":"0","skillHeight":"120","skillLength":"120","skillWidth":"130","moveSpeed":"300"},{"type":"3","guid":"","duration":"200","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"50","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"4","guid":"135750","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"180","slotIndex":"-1","stopTime":"0","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"1","guid":"121965","duration":"900","hitLength":"300","frontRockLength":"500","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"105195","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"50","slotIndex":"-1","stopTime":"800","offsetPos":["0","0","0"],"offsetRotation":["50","0","0"],"offsetScale":["0.9","0.9","0.9"],"colorHex":"BFFF5AFF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"105195","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"50","slotIndex":"-1","stopTime":"500","offsetPos":["0","0","0"],"offsetRotation":["150","0","0"],"offsetScale":["1.2","1.2","1.2"],"colorHex":"A6FF39FF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"30","skillRadius":"0","skillHeight":"200","skillLength":"150","skillWidth":"200","moveSpeed":"300"},{"type":"4","guid":"135750","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"0","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"1","guid":"121963","duration":"1000","hitLength":"450","frontRockLength":"600","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"120062","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"350","slotIndex":"-1","stopTime":"800","offsetPos":["0","0","0"],"offsetRotation":["180","0","0"],"offsetScale":["1.3","1.3","1.3"],"colorHex":"A6FF39FF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"50","skillRadius":"0","skillHeight":"30","skillLength":"150","skillWidth":"300","moveSpeed":"300"},{"type":"4","guid":"135749","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"0","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"1","guid":"121962","duration":"1400","hitLength":"600","frontRockLength":"1000","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"3","guid":"","duration":"200","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"80","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"131516","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"400","slotIndex":"-1","stopTime":"1200","offsetPos":["100","0","-80"],"offsetRotation":["0","0","-90"],"offsetScale":["0.5","1","1"],"colorHex":"7DFF37FF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"30","skillRadius":"0","skillHeight":"350","skillLength":"650","skillWidth":"50","moveSpeed":"300"},{"type":"4","guid":"135749","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"250","slotIndex":"-1","stopTime":"0","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"1","guid":"121967","duration":"2400","hitLength":"1000","frontRockLength":"2200","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"3","guid":"","duration":"400","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"400","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"200","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"120066","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"400","slotIndex":"-1","stopTime":"600","offsetPos":["0","20","30"],"offsetRotation":["90","90","0"],"offsetScale":["1","1","1"],"colorHex":"A8FF58FF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"120066","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"500","slotIndex":"-1","stopTime":"600","offsetPos":["0","0","30"],"offsetRotation":["90","-30","0"],"offsetScale":["1.2","1.2","1.2"],"colorHex":"A8FF58FF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"120066","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"600","slotIndex":"-1","stopTime":"600","offsetPos":["0","-20","30"],"offsetRotation":["90","-160","0"],"offsetScale":["1.3","1.3","1.3"],"colorHex":"A8FF58FF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"120062","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"800","slotIndex":"-1","stopTime":"600","offsetPos":["30","0","30"],"offsetRotation":["90","60","0"],"offsetScale":["1.5","1.5","1.5"],"colorHex":"A8FF58FF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"120066","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"900","slotIndex":"-1","stopTime":"600","offsetPos":["150","0","30"],"offsetRotation":["90","30","0"],"offsetScale":["1.8","1.8","1.8"],"colorHex":"A8FF58FF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"400","skillLength":"350","skillWidth":"50","moveSpeed":"300"},{"type":"4","guid":"135749","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"900","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"}]}</v>
+      </c>
+      <c r="C19" s="1">
+        <v>122952</v>
+      </c>
+      <c r="D19" s="1">
+        <v>122952</v>
+      </c>
+      <c r="E19" s="1">
+        <v>121409</v>
+      </c>
+      <c r="F19" s="1">
+        <v>31122</v>
+      </c>
+      <c r="G19" s="1">
+        <v>10</v>
+      </c>
+      <c r="H19" s="2">
+        <v>1</v>
+      </c>
+      <c r="I19" s="1" t="str">
+        <v>双剑死侍</v>
+      </c>
+      <c r="J19" s="1">
+        <v>121951</v>
+      </c>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="1">
+        <v>16</v>
+      </c>
+      <c r="B20" s="1" t="str">
+        <v>{"charFightIdelAniId":"121951","infos":[{"type":"1","guid":"121959","duration":"800","hitLength":"380","frontRockLength":"400","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"105195","duration":"","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"800","offsetPos":["10","0","0"],"offsetRotation":["40","0","0"],"offsetScale":["0.8","0.8","0.8"],"colorHex":"BFFF5AFF","isToPos":"","moveDir":"","moveDistance":"","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"3","guid":"","duration":"200","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"50","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"30","skillRadius":"0","skillHeight":"120","skillLength":"130","skillWidth":"130","moveSpeed":"300"},{"type":"4","guid":"135750","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"0","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"1","guid":"121966","duration":"800","hitLength":"400","frontRockLength":"600","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"105195","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"800","offsetPos":["60","0","0"],"offsetRotation":["150","0","0"],"offsetScale":["0.8","0.8","0.8"],"colorHex":"BFFF5AFF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"30","skillRadius":"0","skillHeight":"120","skillLength":"120","skillWidth":"130","moveSpeed":"300"},{"type":"3","guid":"","duration":"200","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"50","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"4","guid":"135750","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"180","slotIndex":"-1","stopTime":"0","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"1","guid":"121965","duration":"900","hitLength":"300","frontRockLength":"500","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"105195","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"50","slotIndex":"-1","stopTime":"800","offsetPos":["0","0","0"],"offsetRotation":["50","0","0"],"offsetScale":["0.9","0.9","0.9"],"colorHex":"BFFF5AFF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"105195","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"50","slotIndex":"-1","stopTime":"500","offsetPos":["0","0","0"],"offsetRotation":["150","0","0"],"offsetScale":["1.2","1.2","1.2"],"colorHex":"A6FF39FF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"30","skillRadius":"0","skillHeight":"200","skillLength":"150","skillWidth":"200","moveSpeed":"300"},{"type":"4","guid":"135750","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"0","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"1","guid":"121963","duration":"1000","hitLength":"450","frontRockLength":"600","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"120062","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"350","slotIndex":"-1","stopTime":"800","offsetPos":["0","0","0"],"offsetRotation":["180","0","0"],"offsetScale":["1.3","1.3","1.3"],"colorHex":"A6FF39FF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"50","skillRadius":"0","skillHeight":"30","skillLength":"150","skillWidth":"300","moveSpeed":"300"},{"type":"4","guid":"135749","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"0","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"1","guid":"121962","duration":"1400","hitLength":"600","frontRockLength":"1000","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"3","guid":"","duration":"200","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"80","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"131516","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"400","slotIndex":"-1","stopTime":"1200","offsetPos":["100","0","-80"],"offsetRotation":["0","0","-90"],"offsetScale":["0.5","1","1"],"colorHex":"7DFF37FF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"30","skillRadius":"0","skillHeight":"350","skillLength":"650","skillWidth":"50","moveSpeed":"300"},{"type":"4","guid":"135749","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"250","slotIndex":"-1","stopTime":"0","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"1","guid":"121967","duration":"2400","hitLength":"1000","frontRockLength":"2200","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"3","guid":"","duration":"400","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"400","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"200","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"120066","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"400","slotIndex":"-1","stopTime":"600","offsetPos":["0","20","30"],"offsetRotation":["90","90","0"],"offsetScale":["1","1","1"],"colorHex":"A8FF58FF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"120066","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"500","slotIndex":"-1","stopTime":"600","offsetPos":["0","0","30"],"offsetRotation":["90","-30","0"],"offsetScale":["1.2","1.2","1.2"],"colorHex":"A8FF58FF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"120066","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"600","slotIndex":"-1","stopTime":"600","offsetPos":["0","-20","30"],"offsetRotation":["90","-160","0"],"offsetScale":["1.3","1.3","1.3"],"colorHex":"A8FF58FF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"120062","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"800","slotIndex":"-1","stopTime":"600","offsetPos":["30","0","30"],"offsetRotation":["90","60","0"],"offsetScale":["1.5","1.5","1.5"],"colorHex":"A8FF58FF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"120066","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"900","slotIndex":"-1","stopTime":"600","offsetPos":["150","0","30"],"offsetRotation":["90","30","0"],"offsetScale":["1.8","1.8","1.8"],"colorHex":"A8FF58FF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"400","skillLength":"350","skillWidth":"50","moveSpeed":"300"},{"type":"4","guid":"135749","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"900","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"}]}</v>
+      </c>
+      <c r="C20" s="1">
+        <v>122946</v>
+      </c>
+      <c r="D20" s="1">
+        <v>122946</v>
+      </c>
+      <c r="E20" s="1">
+        <v>121409</v>
+      </c>
+      <c r="F20" s="1">
+        <v>31122</v>
+      </c>
+      <c r="G20" s="1">
+        <v>10</v>
+      </c>
+      <c r="H20" s="10">
+        <v>1</v>
+      </c>
+      <c r="I20" s="1" t="str">
+        <v>紫斐镰刀变异版</v>
+      </c>
+      <c r="J20" s="1">
+        <v>121951</v>
+      </c>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1">
+        <v>17</v>
+      </c>
+      <c r="B21" s="1" t="str">
+        <v>{"charFightIdelAniId":"111092","infos":[{"type":"1","guid":"111094","duration":"900","hitLength":"550","frontRockLength":"600","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"113917","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"450","slotIndex":"-1","stopTime":"500","offsetPos":["-30","0","0"],"offsetRotation":["155","13","27"],"offsetScale":["0.8","0.8","0.8"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"150","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"30","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"80","skillLength":"100","skillWidth":"150"},{"type":"1","guid":"111098","duration":"900","hitLength":"400","frontRockLength":"600","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"113917","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"250","slotIndex":"-1","stopTime":"500","offsetPos":["0","0","0"],"offsetRotation":["0","0","-10"],"offsetScale":["0.8","0.8","0.8"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"150","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"30","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"80","skillLength":"100","skillWidth":"150"},{"type":"1","guid":"111099","duration":"1900","hitLength":"250","frontRockLength":"300","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"113921","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"150","slotIndex":"-1","stopTime":"800","offsetPos":["0","0","-80"],"offsetRotation":["0","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"-180","skillRadius":"0","skillHeight":"80","skillLength":"350","skillWidth":"350"},{"type":"1","guid":"111097","duration":"1900","hitLength":"700","frontRockLength":"800","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"113920","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"600","slotIndex":"-1","stopTime":"1200","offsetPos":["-30","0","0"],"offsetRotation":["35","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"200","skillLength":"200","skillWidth":"300"}]}</v>
+      </c>
+      <c r="C21" s="1">
+        <v>103061</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1">
+        <v>121409</v>
+      </c>
+      <c r="F21" s="1">
+        <v>31122</v>
+      </c>
+      <c r="G21" s="1">
+        <v>10</v>
+      </c>
+      <c r="H21" s="2">
+        <v>1</v>
+      </c>
+      <c r="I21" s="1" t="str">
+        <v>紫斐镰刀</v>
+      </c>
+      <c r="J21" s="1">
+        <v>111092</v>
+      </c>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1">
+        <v>18</v>
+      </c>
+      <c r="B22" s="1" t="str">
+        <v>{"charFightIdelAniId":"121658","infos":[{"type":"1","guid":"121650","duration":"900","hitLength":"300","frontRockLength":"600","isCharge":"0","isAutoPlay":"0","delayPlayTime":"","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"200","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"50","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"126922","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"350","slotIndex":"-1","stopTime":"400","offsetPos":["0","0","0"],"offsetRotation":["180","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"50","skillLength":"120","skillWidth":"220"},{"type":"1","guid":"121652","duration":"900","hitLength":"300","frontRockLength":"600","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"200","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"50","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"126922","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"250","slotIndex":"-1","stopTime":"400","offsetPos":["0","0","0"],"offsetRotation":["-30","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"120","skillLength":"120","skillWidth":"160"},{"type":"1","guid":"121639","duration":"1300","hitLength":"600","frontRockLength":"800","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"180","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"80","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"300","skillLength":"500","skillWidth":"120"},{"type":"2","guid":"126922","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"350","slotIndex":"-1","stopTime":"400","offsetPos":["0","0","0"],"offsetRotation":["90","0","0"],"offsetScale":["1.2","1.2","1.2"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"135892","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"450","slotIndex":"-1","stopTime":"600","offsetPos":["120","0","-85"],"offsetRotation":["0","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"135892","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"500","slotIndex":"-1","stopTime":"600","offsetPos":["240","0","-85"],"offsetRotation":["0","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"135892","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"550","slotIndex":"-1","stopTime":"600","offsetPos":["360","0","-85"],"offsetRotation":["0","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"135892","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"600","slotIndex":"-1","stopTime":"600","offsetPos":["480","0","-85"],"offsetRotation":["0","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"1","guid":"121644","duration":"1300","hitLength":"400","frontRockLength":"800","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"135891","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"800","offsetPos":["120","0","0"],"offsetRotation":["0","0","-90"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"200","skillLength":"300","skillWidth":"200"},{"type":"1","guid":"121642","duration":"1200","hitLength":"400","frontRockLength":"900","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"200","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"135893","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"800","offsetPos":["60","0","0"],"offsetRotation":["0","0","-180"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"100","skillLength":"200","skillWidth":"300"}]}</v>
+      </c>
+      <c r="C22" s="1">
+        <v>118147</v>
+      </c>
+      <c r="D22" s="1">
+        <v>118147</v>
+      </c>
+      <c r="E22" s="1">
+        <v>121409</v>
+      </c>
+      <c r="F22" s="1">
+        <v>135892</v>
+      </c>
+      <c r="G22" s="5">
+        <v>10</v>
+      </c>
+      <c r="H22" s="10">
+        <v>1</v>
+      </c>
+      <c r="I22" s="1" t="str">
+        <v>真雷神之锤</v>
+      </c>
+      <c r="J22" s="1">
+        <v>125369</v>
+      </c>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="1">
+        <v>19</v>
+      </c>
+      <c r="B23" s="1" t="str">
+        <v>{"charFightIdelAniId":"121648","infos":[{"type":"1","guid":"121647","duration":"800","hitLength":"300","frontRockLength":"500","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"124432","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"230","slotIndex":"-1","stopTime":"500","offsetPos":["0","0","0"],"offsetRotation":["0","-10","-120"],"offsetScale":["0.8","0.8","0.8"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"10","skillLength":"110","skillWidth":"160"},{"type":"1","guid":"121645","duration":"800","hitLength":"300","frontRockLength":"500","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"50","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"80","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"124432","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"150","slotIndex":"-1","stopTime":"500","offsetPos":["-5","0","0"],"offsetRotation":["203","25","-224"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"150","skillLength":"120","skillWidth":"100"},{"type":"1","guid":"121643","duration":"850","hitLength":"300","frontRockLength":"500","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"50","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"30","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"124432","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"500","offsetPos":["-30","0","0"],"offsetRotation":["-20","-50","-60"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"150","skillLength":"100","skillWidth":"100"},{"type":"1","guid":"121641","duration":"600","hitLength":"300","frontRockLength":"500","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"124433","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"1200","offsetPos":["-30","0","-20"],"offsetRotation":["240","-45","-278"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"150","skillLength":"120","skillWidth":"140"},{"type":"1","guid":"121651","duration":"2300","hitLength":"1000","frontRockLength":"1800","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"300","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"200","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"124434","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"900","slotIndex":"-1","stopTime":"2000","offsetPos":["50","0","-80"],"offsetRotation":["0","0","-90"],"offsetScale":["0.8","0.8","0.8"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"124431","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"1500","slotIndex":"-1","stopTime":"1500","offsetPos":["70","0","0"],"offsetRotation":["0","0","-90"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"100","skillLength":"600","skillWidth":"150"}]}</v>
+      </c>
+      <c r="C23" s="1">
+        <v>27693</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1">
+        <v>121409</v>
+      </c>
+      <c r="F23" s="1">
+        <v>117224</v>
+      </c>
+      <c r="G23" s="1">
+        <v>10</v>
+      </c>
+      <c r="H23" s="2">
+        <v>1</v>
+      </c>
+      <c r="I23" s="1" t="str">
+        <v>黑洞</v>
+      </c>
+      <c r="J23" s="1">
+        <v>125369</v>
+      </c>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="1">
+        <v>20</v>
+      </c>
+      <c r="B24" s="1" t="str">
+        <v>{"charFightIdelAniId":"121608","infos":[{"type":"1","guid":"121594","duration":"500","hitLength":"180","frontRockLength":"200","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"125705","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"500","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"30","skillLength":"135","skillWidth":"250"},{"type":"1","guid":"121595","duration":"700","hitLength":"300","frontRockLength":"400","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"125705","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"500","offsetPos":["0","0","0"],"offsetRotation":["150","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"150","skillLength":"150","skillWidth":"200"},{"type":"1","guid":"121591","duration":"800","hitLength":"300","frontRockLength":"500","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"125706","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"800","offsetPos":["0","0","-80"],"offsetRotation":["0","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"-200","skillRadius":"0","skillHeight":"80","skillLength":"400","skillWidth":"400"},{"type":"1","guid":"121593","duration":"1700","hitLength":"300","frontRockLength":"500","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"200","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"1","moveDistance":"150","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"125705","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"1200","offsetPos":["30","0","30"],"offsetRotation":["90","0","0"],"offsetScale":["1.5","1.5","1.5"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"350","skillLength":"240","skillWidth":"100"},{"type":"1","guid":"121598","duration":"2000","hitLength":"300","frontRockLength":"500","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"100","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"120","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"125704","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"1200","offsetPos":["0","0","0"],"offsetRotation":["0","0","-90"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"150","skillLength":"360","skillWidth":"120"},{"type":"1","guid":"121606","duration":"2000","hitLength":"1000","frontRockLength":"1500","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"200","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"400","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"300","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"125707","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"900","slotIndex":"-1","stopTime":"1000","offsetPos":["0","0","-80"],"offsetRotation":["0","0","-90"],"offsetScale":["1.2","1.2","1.2"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"600","skillLength":"200","skillWidth":"300"}]}</v>
+      </c>
+      <c r="C24" s="1">
+        <v>29057</v>
+      </c>
+      <c r="D24" s="1">
+        <v>29057</v>
+      </c>
+      <c r="E24" s="1">
+        <v>121409</v>
+      </c>
+      <c r="F24" s="1">
+        <v>151551</v>
+      </c>
+      <c r="G24" s="1">
+        <v>10</v>
+      </c>
+      <c r="H24" s="2">
+        <v>1</v>
+      </c>
+      <c r="I24" s="1" t="str">
+        <v>金刚狼爪</v>
+      </c>
+      <c r="J24" s="1">
+        <v>121608</v>
+      </c>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="1">
+        <v>21</v>
+      </c>
+      <c r="B25" s="1" t="str">
+        <v>{"charFightIdelAniId":"","infos":[{"type":"1","guid":"121592","duration":"750","hitLength":"450","frontRockLength":"500","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"126922","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"400","slotIndex":"-1","stopTime":"400","offsetPos":["50","0","0"],"offsetRotation":["160","0","0"],"offsetScale":["1.2","1.2","1.2"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"3","guid":"","duration":"200","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"50","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"120","skillLength":"200","skillWidth":"200","moveSpeed":"300"},{"type":"4","guid":"12374","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"0","slotIndex":"-1","stopTime":"0","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"0","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"100"},{"type":"1","guid":"121599","duration":"800","hitLength":"250","frontRockLength":"300","isCharge":"0","isAutoPlay":"0","delayPlayTime":"600","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"126922","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"400","offsetPos":["0","0","0"],"offsetRotation":["180","0","0"],"offsetScale":["1.5","1.5","1.5"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"80","skillLength":"200","skillWidth":"300","moveSpeed":"300"},{"type":"4","guid":"12374","duration":"","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"0","slotIndex":"-1","stopTime":"0","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"0","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"100"},{"type":"1","guid":"121597","duration":"1400","hitLength":"600","frontRockLength":"650","isCharge":"0","isAutoPlay":"0","delayPlayTime":"600","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"3","guid":"","duration":"80","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"500","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"50","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"126925","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"600","slotIndex":"-1","stopTime":"1200","offsetPos":["80","0","-125"],"offsetRotation":["0","0","-90"],"offsetScale":["1.5","1.5","1.5"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"50","skillRadius":"0","skillHeight":"250","skillLength":"600","skillWidth":"50","moveSpeed":"300"},{"type":"4","guid":"130793","duration":"","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"650","slotIndex":"-1","stopTime":"0","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"0","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"100"},{"type":"1","guid":"121596","duration":"1600","hitLength":"800","frontRockLength":"1000","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"3","guid":"","duration":"400","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"500","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"126924","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"800","slotIndex":"-1","stopTime":"1600","offsetPos":["10","0","-125"],"offsetRotation":["0","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"-200","skillRadius":"0","skillHeight":"120","skillLength":"400","skillWidth":"400","moveSpeed":"300"},{"type":"4","guid":"122569","duration":"","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"720","slotIndex":"-1","stopTime":"0","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"0","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"100"}]}</v>
+      </c>
+      <c r="C25" s="1">
+        <v>103077</v>
+      </c>
+      <c r="D25" s="1">
+        <v>103077</v>
+      </c>
+      <c r="E25" s="1">
+        <v>121409</v>
+      </c>
+      <c r="F25" s="1">
+        <v>89089</v>
+      </c>
+      <c r="G25" s="1">
+        <v>10</v>
+      </c>
+      <c r="H25" s="10">
+        <v>1</v>
+      </c>
+      <c r="I25" s="1" t="str">
+        <v>黄金裂地刀</v>
+      </c>
+      <c r="J25" s="1">
+        <v>121610</v>
+      </c>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="1">
+        <v>22</v>
+      </c>
+      <c r="B26" s="1" t="str">
+        <v>{"charFightIdelAniId":"121610","infos":[{"type":"1","guid":"121592","duration":"750","hitLength":"450","frontRockLength":"500","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"126922","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"400","slotIndex":"-1","stopTime":"400","offsetPos":["50","0","0"],"offsetRotation":["160","0","0"],"offsetScale":["1.2","1.2","1.2"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"200","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"50","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"120","skillLength":"200","skillWidth":"200"},{"type":"1","guid":"121600","duration":"800","hitLength":"150","frontRockLength":"250","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"80","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"126922","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"400","offsetPos":["0","0","0"],"offsetRotation":["30","0","0"],"offsetScale":["1.35","1.35","1.35"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"200","skillLength":"250","skillWidth":"200"},{"type":"1","guid":"121599","duration":"800","hitLength":"250","frontRockLength":"300","isCharge":"0","isAutoPlay":"0","delayPlayTime":"600","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"126922","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"400","offsetPos":["0","0","0"],"offsetRotation":["180","0","0"],"offsetScale":["1.5","1.5","1.5"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"80","skillLength":"200","skillWidth":"300"},{"type":"1","guid":"121597","duration":"1400","hitLength":"600","frontRockLength":"650","isCharge":"0","isAutoPlay":"0","delayPlayTime":"600","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"80","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"500","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"50","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"126925","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"600","slotIndex":"-1","stopTime":"1200","offsetPos":["80","0","-125"],"offsetRotation":["0","0","-90"],"offsetScale":["1.5","1.5","1.5"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"50","skillRadius":"0","skillHeight":"250","skillLength":"600","skillWidth":"50"},{"type":"1","guid":"121596","duration":"1600","hitLength":"800","frontRockLength":"1000","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"400","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"500","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"126924","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"800","slotIndex":"-1","stopTime":"1600","offsetPos":["10","0","-125"],"offsetRotation":["0","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"-200","skillRadius":"0","skillHeight":"120","skillLength":"400","skillWidth":"400"},{"type":"1","guid":"121609","duration":"2700","hitLength":"800","frontRockLength":"1500","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"126923","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"700","slotIndex":"-1","stopTime":"1600","offsetPos":["180","0","-123"],"offsetRotation":["0","0","-90"],"offsetScale":["1.5","1.5","1.5"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"113900","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"150","slotIndex":"-1","stopTime":"500","offsetPos":["40","0","-50"],"offsetRotation":["0","0","0"],"offsetScale":["2.5","2.5","2.5"],"colorHex":"FF5198FF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"50","skillRadius":"0","skillHeight":"350","skillLength":"600","skillWidth":"200"}]}</v>
+      </c>
+      <c r="C26" s="1">
+        <v>334201</v>
+      </c>
+      <c r="D26" s="1">
+        <v>334201</v>
+      </c>
+      <c r="E26" s="1">
+        <v>121409</v>
+      </c>
+      <c r="F26" s="1">
+        <v>89089</v>
+      </c>
+      <c r="G26" s="1">
+        <v>10</v>
+      </c>
+      <c r="H26" s="2">
+        <v>1</v>
+      </c>
+      <c r="I26" s="1" t="str">
+        <v>真裂地刀</v>
+      </c>
+      <c r="J26" s="1">
+        <v>121610</v>
+      </c>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="1">
+        <v>23</v>
+      </c>
+      <c r="B27" s="1" t="str">
+        <v>{"charFightIdelAniId":"108371","infos":[{"type":"1","guid":"108373","duration":"650","hitLength":"300","frontRockLength":"400","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"70","skillLength":"100","skillWidth":"100"},{"type":"2","guid":"121784","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"400","offsetPos":["20","0","0"],"offsetRotation":["-200","0","-180"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"100","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"30","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"20","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"1","guid":"108375","duration":"700","hitLength":"300","frontRockLength":"500","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"70","skillLength":"100","skillWidth":"100"},{"type":"3","guid":"","duration":"100","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"30","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"20","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"121784","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"250","slotIndex":"-1","stopTime":"400","offsetPos":["30","0","0"],"offsetRotation":["40","0","-180"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"1","guid":"108374","duration":"700","hitLength":"300","frontRockLength":"500","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"80","skillLength":"140","skillWidth":"80"},{"type":"2","guid":"121783","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"50","slotIndex":"-1","stopTime":"600","offsetPos":["30","0","10"],"offsetRotation":["0","0","90"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"1","guid":"108370","duration":"1700","hitLength":"300","frontRockLength":"600","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"200","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"150","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"150","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"80","skillLength":"230","skillWidth":"300"},{"type":"2","guid":"121782","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"1200","offsetPos":["80","0","-85"],"offsetRotation":["0","0","-90"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"1","guid":"108372","duration":"1380","hitLength":"300","frontRockLength":"500","isCharge":"0","isAutoPlay":"0","delayPlayTime":"","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"100","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"50","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"60","skillRadius":"0","skillHeight":"350","skillLength":"160","skillWidth":"160"},{"type":"2","guid":"121785","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"400","slotIndex":"-1","stopTime":"2500","offsetPos":["140","0","-85"],"offsetRotation":["0","0","0"],"offsetScale":["1.5","1.5","1.5"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"}]}</v>
+      </c>
+      <c r="C27" s="1">
+        <v>222534</v>
+      </c>
+      <c r="D27" s="1">
+        <v>222534</v>
+      </c>
+      <c r="E27" s="1">
+        <v>121409</v>
+      </c>
+      <c r="F27" s="1">
+        <v>27421</v>
+      </c>
+      <c r="G27" s="5">
+        <v>10</v>
+      </c>
+      <c r="H27" s="10">
+        <v>1</v>
+      </c>
+      <c r="I27" s="1" t="str">
+        <v>机甲枪</v>
+      </c>
+      <c r="J27" s="1">
+        <v>108371</v>
+      </c>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="1">
+        <v>24</v>
+      </c>
+      <c r="B28" s="1" t="str">
+        <v>{"charFightIdelAniId":"117340","infos":[{"type":"1","guid":"117337","duration":"550","hitLength":"200","frontRockLength":"300","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"132628","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"800","offsetPos":["0","0","0"],"offsetRotation":["0","0","-90"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"30","skillRadius":"0","skillHeight":"50","skillLength":"120","skillWidth":"200"},{"type":"1","guid":"117338","duration":"700","hitLength":"200","frontRockLength":"300","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"100","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"50","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"132630","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"150","slotIndex":"-1","stopTime":"1200","offsetPos":["50","0","0"],"offsetRotation":["0","0","90"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"30","skillRadius":"0","skillHeight":"60","skillLength":"180","skillWidth":"60"},{"type":"1","guid":"117335","duration":"1200","hitLength":"700","frontRockLength":"800","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"200","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"250","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"132629","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"600","slotIndex":"-1","stopTime":"1200","offsetPos":["-60","0","-80"],"offsetRotation":["0","0","-90"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"132627","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"650","slotIndex":"-1","stopTime":"1200","offsetPos":["120","0","-76"],"offsetRotation":["0","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"40","skillRadius":"0","skillHeight":"120","skillLength":"200","skillWidth":"200"},{"type":"1","guid":"117336","duration":"1200","hitLength":"500","frontRockLength":"800","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"200","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"350","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"200","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"132632","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"400","slotIndex":"-1","stopTime":"800","offsetPos":["120","0","-80"],"offsetRotation":["0","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"-100","skillRadius":"0","skillHeight":"200","skillLength":"300","skillWidth":"300"},{"type":"1","guid":"117339","duration":"1400","hitLength":"1050","frontRockLength":"1200","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"132860","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"800","offsetPos":["30","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"132631","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"1000","slotIndex":"-1","stopTime":"1200","offsetPos":["120","0","0"],"offsetRotation":["0","0","-90"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"200","skillLength":"400","skillWidth":"200"},{"type":"1","guid":"117341","duration":"1300","hitLength":"600","frontRockLength":"1000","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"100","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"200","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"132875","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"450","slotIndex":"-1","stopTime":"1500","offsetPos":["0","0","-80"],"offsetRotation":["0","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"-200","skillRadius":"0","skillHeight":"300","skillLength":"400","skillWidth":"400"}]}</v>
+      </c>
+      <c r="C28" s="1">
+        <v>160360</v>
+      </c>
+      <c r="D28" s="1">
+        <v>160360</v>
+      </c>
+      <c r="E28" s="1">
+        <v>121409</v>
+      </c>
+      <c r="F28" s="1">
+        <v>135892</v>
+      </c>
+      <c r="G28" s="1">
+        <v>10</v>
+      </c>
+      <c r="H28" s="2">
+        <v>1</v>
+      </c>
+      <c r="I28" s="1" t="str">
+        <v>雏田法球</v>
+      </c>
+      <c r="J28" s="1">
+        <v>117340</v>
+      </c>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="1">
+        <v>25</v>
+      </c>
+      <c r="B29" s="1" t="str">
+        <v>{"charFightIdelAniId":"122541","infos":[{"type":"1","guid":"122534","duration":"700","hitLength":"300","frontRockLength":"400","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"150","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"250","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1\r\n1","moveDistance":"50","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"129279","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"350","slotIndex":"-1","stopTime":"400","offsetPos":["-50","0","0"],"offsetRotation":["0","0","-90"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"80","skillLength":"200","skillWidth":"80"},{"type":"1","guid":"122535","duration":"700","hitLength":"300","frontRockLength":"400","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"100","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"\r\n0","moveDir":"1","moveDistance":"30","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"129283","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"250","slotIndex":"-1","stopTime":"400","offsetPos":["30","0","-110"],"offsetRotation":["0","0","-90"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"150","skillLength":"120","skillWidth":"80"},{"type":"1","guid":"122536","duration":"800","hitLength":"400","frontRockLength":"600","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"129279","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"500","slotIndex":"-1","stopTime":"400","offsetPos":["0","0","10"],"offsetRotation":["-30","-40","-80"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"100","skillLength":"250","skillWidth":"80"},{"type":"1","guid":"122522","duration":"900","hitLength":"300","frontRockLength":"500","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"100","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"50","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"129282","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"800","offsetPos":["-10","0","-89"],"offsetRotation":["0","0","-90"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"120","skillLength":"500","skillWidth":"100"},{"type":"1","guid":"122523","duration":"1600","hitLength":"800","frontRockLength":"1000","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"400","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"250","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"200","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"129280","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"600","slotIndex":"-1","stopTime":"1200","offsetPos":["30","0","-80"],"offsetRotation":["0","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"-160","skillRadius":"0","skillHeight":"50","skillLength":"350","skillWidth":"350"},{"type":"1","guid":"122548","duration":"3000","hitLength":"800","frontRockLength":"2000","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"129278","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"600","slotIndex":"-1","stopTime":"1200","offsetPos":["0","0","0"],"offsetRotation":["0","0","-90"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"129281","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"2000","slotIndex":"-1","stopTime":"1500","offsetPos":["-30","0","-80"],"offsetRotation":["0","0","-90"],"offsetScale":["1.2","1.2","1.2"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"150","skillLength":"700","skillWidth":"150"}]}</v>
+      </c>
+      <c r="C29" s="1">
+        <v>160357</v>
+      </c>
+      <c r="D29" s="1">
+        <v>160357</v>
+      </c>
+      <c r="E29" s="5">
+        <v>121409</v>
+      </c>
+      <c r="F29" s="1">
+        <v>135892</v>
+      </c>
+      <c r="G29" s="1">
+        <v>10</v>
+      </c>
+      <c r="H29" s="2">
+        <v>1</v>
+      </c>
+      <c r="I29" s="1" t="str">
+        <v>路飞二档</v>
+      </c>
+      <c r="J29" s="1">
+        <v>122541</v>
+      </c>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="1">
+        <v>26</v>
+      </c>
+      <c r="B30" s="1" t="str">
+        <v>{"charFightIdelAniId":"125369","infos":[{"type":"1","guid":"117326","duration":"500","hitLength":"200","frontRockLength":"250","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"121783","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"150","slotIndex":"-1","stopTime":"300","offsetPos":["60","0","0"],"offsetRotation":["0","0","90"],"offsetScale":["0.5","0.5","0.5"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"100","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"150","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"30","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"30","skillRadius":"0","skillHeight":"80","skillLength":"80","skillWidth":"80"},{"type":"1","guid":"117328","duration":"600","hitLength":"300","frontRockLength":"400","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"130639","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"300","offsetPos":["0","0","0"],"offsetRotation":["30","40","-48"],"offsetScale":["0.6","0.6","0.6"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"","skillAngle":"0","skillOffsetDis":"30","skillRadius":"0","skillHeight":"200","skillLength":"100","skillWidth":"80"},{"type":"1","guid":"117327","duration":"550","hitLength":"200","frontRockLength":"300","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"121785","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"150","slotIndex":"-1","stopTime":"800","offsetPos":["-30","0","-80"],"offsetRotation":["0","0","-90"],"offsetScale":["-1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"120","skillLength":"200","skillWidth":"450"},{"type":"1","guid":"117316","duration":"800","hitLength":"200","frontRockLength":"300","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"100","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"130643","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"800","offsetPos":["120","0","0"],"offsetRotation":["0","0","-90"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"100","skillRadius":"0","skillHeight":"300","skillLength":"120","skillWidth":"120"},{"type":"1","guid":"117315","duration":"800","hitLength":"500","frontRockLength":"600","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"200","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"200","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"130643","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"350","slotIndex":"-1","stopTime":"800","offsetPos":["-50","0","0"],"offsetRotation":["-140","0","-270"],"offsetScale":["1","1.5","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"130642","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"500","slotIndex":"-1","stopTime":"1200","offsetPos":["120","0","-80"],"offsetRotation":["0","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"130642","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"600","slotIndex":"-1","stopTime":"1200","offsetPos":["250","50","-80"],"offsetRotation":["0","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"130642","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"700","slotIndex":"-1","stopTime":"1200","offsetPos":["380","0","-80"],"offsetRotation":["0","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"130642","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"800","slotIndex":"-1","stopTime":"1200","offsetPos":["500","50","-80s"],"offsetRotation":["0","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"50","skillRadius":"0","skillHeight":"400","skillLength":"500","skillWidth":"150"},{"type":"1","guid":"117324","duration":"1600","hitLength":"1100","frontRockLength":"1200","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"300","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"1000","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"500","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"114161","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"150","slotIndex":"-1","stopTime":"700","offsetPos":["0","0","-75"],"offsetRotation":["0","0","0"],"offsetScale":["1.5","1.5","1.5"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"130743","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"800","offsetPos":["0","0","-80"],"offsetRotation":["0","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"130640","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"1050","slotIndex":"-1","stopTime":"1500","offsetPos":["600","0","0"],"offsetRotation":["0","0","-90"],"offsetScale":["1.2","1.2","1.2"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"-200","skillRadius":"0","skillHeight":"150","skillLength":"550","skillWidth":"150"}]}</v>
+      </c>
+      <c r="C30" s="1">
+        <v>31728</v>
+      </c>
+      <c r="D30" s="1">
+        <v>31728</v>
+      </c>
+      <c r="E30" s="1">
+        <v>121409</v>
+      </c>
+      <c r="F30" s="1">
+        <v>135892</v>
+      </c>
+      <c r="G30" s="1">
+        <v>10</v>
+      </c>
+      <c r="H30" s="2">
+        <v>1</v>
+      </c>
+      <c r="I30" s="1" t="str">
+        <v>佐助强化霜度剑</v>
+      </c>
+      <c r="J30" s="1">
+        <v>125369</v>
+      </c>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+    </row>
+    <row customHeight="true" ht="23" r="31">
+      <c r="A31" s="1">
+        <v>27</v>
+      </c>
+      <c r="B31" s="5" t="str">
         <v>{
     "charFightIdelAniId": "",
     "infos": [
@@ -1297,34 +3216,36 @@
     ]
 }</v>
       </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="1">
+      <c r="C31" s="5">
+        <v>103068</v>
+      </c>
+      <c r="D31" s="5"/>
+      <c r="E31" s="1">
         <v>121409</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F31" s="4">
         <v>163337</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G31" s="1">
         <v>10</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H31" s="2">
         <v>1</v>
       </c>
-      <c r="I13" s="8" t="str">
-        <v>森林哨兵</v>
-      </c>
-      <c r="J13" s="1">
+      <c r="I31" s="4" t="str">
+        <v>森林哨兵剑</v>
+      </c>
+      <c r="J31" s="1">
         <v>117391</v>
       </c>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-    </row>
-    <row customHeight="true" ht="23" r="14">
-      <c r="A14" s="1">
-        <v>10</v>
-      </c>
-      <c r="B14" s="7" t="str">
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+    </row>
+    <row customHeight="true" ht="23" r="32">
+      <c r="A32" s="1">
+        <v>28</v>
+      </c>
+      <c r="B32" s="5" t="str">
         <v>{
     "charFightIdelAniId": "",
     "infos": [
@@ -1521,34 +3442,36 @@
     ]
 }</v>
       </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="1">
+      <c r="C32" s="5">
+        <v>138213</v>
+      </c>
+      <c r="D32" s="5"/>
+      <c r="E32" s="1">
         <v>121409</v>
       </c>
-      <c r="F14" s="8">
+      <c r="F32" s="4">
         <v>135892</v>
       </c>
-      <c r="G14" s="7">
+      <c r="G32" s="5">
         <v>10</v>
       </c>
-      <c r="H14" s="2">
+      <c r="H32" s="2">
         <v>1</v>
       </c>
-      <c r="I14" s="8" t="str">
-        <v>索尼克</v>
-      </c>
-      <c r="J14" s="1">
+      <c r="I32" s="4" t="str">
+        <v>金枪鱼激光射线</v>
+      </c>
+      <c r="J32" s="1">
         <v>117391</v>
       </c>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-    </row>
-    <row customHeight="true" ht="23" r="15">
-      <c r="A15" s="1">
-        <v>11</v>
-      </c>
-      <c r="B15" s="7" t="str">
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+    </row>
+    <row customHeight="true" ht="23" r="33">
+      <c r="A33" s="1">
+        <v>29</v>
+      </c>
+      <c r="B33" s="5" t="str">
         <v>{
     "charFightIdelAniId": "",
     "infos": [
@@ -1745,34 +3668,36 @@
     ]
 }</v>
       </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="1">
+      <c r="C33" s="5">
+        <v>43702</v>
+      </c>
+      <c r="D33" s="5"/>
+      <c r="E33" s="1">
         <v>121409</v>
       </c>
-      <c r="F15" s="8">
+      <c r="F33" s="4">
         <v>142950</v>
       </c>
-      <c r="G15" s="1">
+      <c r="G33" s="1">
         <v>10</v>
       </c>
-      <c r="H15" s="2">
+      <c r="H33" s="2">
         <v>1</v>
       </c>
-      <c r="I15" s="8" t="str">
-        <v>粉毛怪</v>
-      </c>
-      <c r="J15" s="1">
+      <c r="I33" s="4" t="str">
+        <v>信号枪激光射线</v>
+      </c>
+      <c r="J33" s="1">
         <v>117391</v>
       </c>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-    </row>
-    <row customHeight="true" ht="23" r="16">
-      <c r="A16" s="1">
-        <v>12</v>
-      </c>
-      <c r="B16" s="7" t="str">
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+    </row>
+    <row customHeight="true" ht="23" r="34">
+      <c r="A34" s="1">
+        <v>30</v>
+      </c>
+      <c r="B34" s="5" t="str">
         <v>{
     "charFightIdelAniId": "",
     "infos": [
@@ -2045,34 +3970,38 @@
     ]
 }</v>
       </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="1">
+      <c r="C34" s="5">
+        <v>164529</v>
+      </c>
+      <c r="D34" s="5">
+        <v>164529</v>
+      </c>
+      <c r="E34" s="1">
         <v>121409</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F34" s="5">
         <v>135892</v>
       </c>
-      <c r="G16" s="1">
+      <c r="G34" s="1">
         <v>10</v>
       </c>
-      <c r="H16" s="2">
+      <c r="H34" s="2">
         <v>1</v>
       </c>
-      <c r="I16" s="7" t="str">
-        <v>纲手</v>
-      </c>
-      <c r="J16" s="1">
+      <c r="I34" s="5" t="str">
+        <v>藤蔓突刺</v>
+      </c>
+      <c r="J34" s="1">
         <v>111092</v>
       </c>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-    </row>
-    <row customHeight="true" ht="23" r="17">
-      <c r="A17" s="1">
-        <v>13</v>
-      </c>
-      <c r="B17" s="7" t="str">
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+    </row>
+    <row customHeight="true" ht="23" r="35">
+      <c r="A35" s="1">
+        <v>31</v>
+      </c>
+      <c r="B35" s="5" t="str">
         <v>{
     "charFightIdelAniId": "",
     "infos": [
@@ -2345,34 +4274,38 @@
     ]
 }</v>
       </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="1">
+      <c r="C35" s="5">
+        <v>302686</v>
+      </c>
+      <c r="D35" s="5">
+        <v>302686</v>
+      </c>
+      <c r="E35" s="1">
         <v>121409</v>
       </c>
-      <c r="F17" s="7">
+      <c r="F35" s="5">
         <v>135892</v>
       </c>
-      <c r="G17" s="1">
+      <c r="G35" s="1">
         <v>10</v>
       </c>
-      <c r="H17" s="2">
+      <c r="H35" s="2">
         <v>1</v>
       </c>
-      <c r="I17" s="7" t="str">
-        <v>李洛克</v>
-      </c>
-      <c r="J17" s="1">
+      <c r="I35" s="5" t="str">
+        <v>藤蔓缠绕</v>
+      </c>
+      <c r="J35" s="1">
         <v>117391</v>
       </c>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-    </row>
-    <row customHeight="true" ht="23" r="18">
-      <c r="A18" s="1">
-        <v>14</v>
-      </c>
-      <c r="B18" s="7" t="str">
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+    </row>
+    <row customHeight="true" ht="23" r="36">
+      <c r="A36" s="1">
+        <v>32</v>
+      </c>
+      <c r="B36" s="5" t="str">
         <v>{
     "charFightIdelAniId": "",
     "infos": [
@@ -2493,36 +4426,36 @@
     ]
 }</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C36" s="5">
         <v>103061</v>
       </c>
-      <c r="D18" s="7"/>
-      <c r="E18" s="1">
+      <c r="D36" s="5"/>
+      <c r="E36" s="1">
         <v>121409</v>
       </c>
-      <c r="F18" s="7">
+      <c r="F36" s="5">
         <v>168828</v>
       </c>
-      <c r="G18" s="1">
+      <c r="G36" s="1">
         <v>10</v>
       </c>
-      <c r="H18" s="2">
+      <c r="H36" s="2">
         <v>1</v>
       </c>
-      <c r="I18" s="7" t="str">
-        <v>干柿鬼鲛</v>
-      </c>
-      <c r="J18" s="1">
+      <c r="I36" s="5" t="str">
+        <v>干柿鬼鲛斩</v>
+      </c>
+      <c r="J36" s="1">
         <v>117391</v>
       </c>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-    </row>
-    <row customHeight="true" ht="23" r="19">
-      <c r="A19" s="1">
-        <v>15</v>
-      </c>
-      <c r="B19" s="7" t="str">
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+    </row>
+    <row customHeight="true" ht="23" r="37">
+      <c r="A37" s="1">
+        <v>33</v>
+      </c>
+      <c r="B37" s="5" t="str">
         <v>{
     "charFightIdelAniId": "",
     "infos": [
@@ -3137,34 +5070,38 @@
     ]
 }</v>
       </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="1">
+      <c r="C37" s="5">
+        <v>221099</v>
+      </c>
+      <c r="D37" s="5">
+        <v>221099</v>
+      </c>
+      <c r="E37" s="1">
         <v>121409</v>
       </c>
-      <c r="F19" s="7">
+      <c r="F37" s="5">
         <v>151551</v>
       </c>
-      <c r="G19" s="7">
+      <c r="G37" s="5">
         <v>10</v>
       </c>
-      <c r="H19" s="2">
+      <c r="H37" s="2">
         <v>1</v>
       </c>
-      <c r="I19" s="7" t="str">
-        <v>赛博女孩</v>
-      </c>
-      <c r="J19" s="1">
+      <c r="I37" s="5" t="str">
+        <v>赛博女孩枪</v>
+      </c>
+      <c r="J37" s="1">
         <v>111092</v>
       </c>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-    </row>
-    <row customHeight="true" ht="23" r="20">
-      <c r="A20" s="1">
-        <v>16</v>
-      </c>
-      <c r="B20" s="7" t="str">
+      <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
+    </row>
+    <row customHeight="true" ht="23" r="38">
+      <c r="A38" s="1">
+        <v>34</v>
+      </c>
+      <c r="B38" s="5" t="str">
         <v>{
     "charFightIdelAniId": "",
     "infos": [
@@ -3703,36 +5640,36 @@
     ]
 }</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C38" s="5">
         <v>31712</v>
       </c>
-      <c r="D20" s="7"/>
-      <c r="E20" s="1">
+      <c r="D38" s="5"/>
+      <c r="E38" s="1">
         <v>121409</v>
       </c>
-      <c r="F20" s="7">
+      <c r="F38" s="5">
         <v>27422</v>
       </c>
-      <c r="G20" s="1">
+      <c r="G38" s="1">
         <v>10</v>
       </c>
-      <c r="H20" s="9">
+      <c r="H38" s="10">
         <v>1</v>
       </c>
-      <c r="I20" s="7" t="str">
-        <v>黑寡妇</v>
-      </c>
-      <c r="J20" s="1">
+      <c r="I38" s="5" t="str">
+        <v>蝴蝶连击剑</v>
+      </c>
+      <c r="J38" s="1">
         <v>111092</v>
       </c>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-    </row>
-    <row customHeight="true" ht="23" r="21">
-      <c r="A21" s="1">
-        <v>17</v>
-      </c>
-      <c r="B21" s="7" t="str">
+      <c r="K38" s="3"/>
+      <c r="L38" s="3"/>
+    </row>
+    <row customHeight="true" ht="23" r="39">
+      <c r="A39" s="1">
+        <v>35</v>
+      </c>
+      <c r="B39" s="5" t="str">
         <v>{
     "charFightIdelAniId": "",
     "infos": [
@@ -3853,34 +5790,36 @@
     ]
 }</v>
       </c>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="1">
+      <c r="C39" s="5">
+        <v>186516</v>
+      </c>
+      <c r="D39" s="5"/>
+      <c r="E39" s="1">
         <v>121409</v>
       </c>
-      <c r="F21" s="7">
+      <c r="F39" s="5">
         <v>13418</v>
       </c>
-      <c r="G21" s="1">
+      <c r="G39" s="1">
         <v>10</v>
       </c>
-      <c r="H21" s="2">
+      <c r="H39" s="2">
         <v>1</v>
       </c>
-      <c r="I21" s="7" t="str">
+      <c r="I39" s="5" t="str">
         <v>怪物爪子</v>
       </c>
-      <c r="J21" s="1">
+      <c r="J39" s="1">
         <v>117391</v>
       </c>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-    </row>
-    <row customHeight="true" ht="24" r="22">
-      <c r="A22" s="1">
-        <v>18</v>
-      </c>
-      <c r="B22" s="7" t="str">
+      <c r="K39" s="3"/>
+      <c r="L39" s="3"/>
+    </row>
+    <row customHeight="true" ht="24" r="40">
+      <c r="A40" s="1">
+        <v>36</v>
+      </c>
+      <c r="B40" s="5" t="str">
         <v>{
     "charFightIdelAniId": "",
     "infos": [
@@ -4343,34 +6282,38 @@
     ]
 }</v>
       </c>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="1">
+      <c r="C40" s="5">
+        <v>300434</v>
+      </c>
+      <c r="D40" s="5">
+        <v>300434</v>
+      </c>
+      <c r="E40" s="1">
         <v>121409</v>
       </c>
-      <c r="F22" s="7">
+      <c r="F40" s="5">
         <v>13418</v>
       </c>
-      <c r="G22" s="1">
+      <c r="G40" s="1">
         <v>10</v>
       </c>
-      <c r="H22" s="2">
+      <c r="H40" s="2">
         <v>1</v>
       </c>
-      <c r="I22" s="7" t="str">
-        <v>卡卡西</v>
-      </c>
-      <c r="J22" s="1">
+      <c r="I40" s="5" t="str">
+        <v>断重剑</v>
+      </c>
+      <c r="J40" s="1">
         <v>117391</v>
       </c>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-    </row>
-    <row customHeight="true" ht="24" r="23">
-      <c r="A23" s="1">
-        <v>19</v>
-      </c>
-      <c r="B23" s="8" t="str">
+      <c r="K40" s="3"/>
+      <c r="L40" s="3"/>
+    </row>
+    <row customHeight="true" ht="24" r="41">
+      <c r="A41" s="1">
+        <v>37</v>
+      </c>
+      <c r="B41" s="4" t="str">
         <v>{
     "charFightIdelAniId": "",
     "infos": [
@@ -4719,34 +6662,36 @@
     ]
 }</v>
       </c>
-      <c r="C23" s="7"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="1">
+      <c r="C41" s="5">
+        <v>31730</v>
+      </c>
+      <c r="D41" s="4"/>
+      <c r="E41" s="1">
         <v>121409</v>
       </c>
-      <c r="F23" s="7">
+      <c r="F41" s="5">
         <v>27421</v>
       </c>
-      <c r="G23" s="1">
+      <c r="G41" s="1">
         <v>10</v>
       </c>
-      <c r="H23" s="9">
+      <c r="H41" s="10">
         <v>1</v>
       </c>
-      <c r="I23" s="8" t="str">
-        <v>鼬</v>
-      </c>
-      <c r="J23" s="1">
+      <c r="I41" s="4" t="str">
+        <v>冰雪剑</v>
+      </c>
+      <c r="J41" s="1">
         <v>117391</v>
       </c>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-    </row>
-    <row customHeight="true" ht="24" r="24">
-      <c r="A24" s="1">
-        <v>20</v>
-      </c>
-      <c r="B24" s="8" t="str">
+      <c r="K41" s="3"/>
+      <c r="L41" s="3"/>
+    </row>
+    <row customHeight="true" ht="24" r="42">
+      <c r="A42" s="1">
+        <v>38</v>
+      </c>
+      <c r="B42" s="4" t="str">
         <v>{
     "charFightIdelAniId": "",
     "infos": [
@@ -4981,34 +6926,36 @@
     ]
 }</v>
       </c>
-      <c r="C24" s="7"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="1">
+      <c r="C42" s="5">
+        <v>146763</v>
+      </c>
+      <c r="D42" s="4"/>
+      <c r="E42" s="1">
         <v>121409</v>
       </c>
-      <c r="F24" s="7">
+      <c r="F42" s="5">
         <v>27421</v>
       </c>
-      <c r="G24" s="1">
+      <c r="G42" s="1">
         <v>10</v>
       </c>
-      <c r="H24" s="2">
+      <c r="H42" s="2">
         <v>1</v>
       </c>
-      <c r="I24" s="8" t="str">
-        <v>大蛇丸</v>
-      </c>
-      <c r="J24" s="1">
+      <c r="I42" s="4" t="str">
+        <v>蓄力激光波</v>
+      </c>
+      <c r="J42" s="1">
         <v>117391</v>
       </c>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-    </row>
-    <row customHeight="true" ht="24" r="25">
-      <c r="A25" s="1">
-        <v>21</v>
-      </c>
-      <c r="B25" s="8" t="str">
+      <c r="K42" s="3"/>
+      <c r="L42" s="3"/>
+    </row>
+    <row customHeight="true" ht="24" r="43">
+      <c r="A43" s="1">
+        <v>39</v>
+      </c>
+      <c r="B43" s="4" t="str">
         <v>{
     "charFightIdelAniId": "",
     "infos": [
@@ -5357,36 +7304,36 @@
     ]
 }</v>
       </c>
-      <c r="C25" s="7">
+      <c r="C43" s="5">
         <v>31712</v>
       </c>
-      <c r="D25" s="8"/>
-      <c r="E25" s="1">
+      <c r="D43" s="4"/>
+      <c r="E43" s="1">
         <v>121409</v>
       </c>
-      <c r="F25" s="7">
+      <c r="F43" s="5">
         <v>27421</v>
       </c>
-      <c r="G25" s="7">
+      <c r="G43" s="5">
         <v>10</v>
       </c>
-      <c r="H25" s="2">
+      <c r="H43" s="2">
         <v>1</v>
       </c>
-      <c r="I25" s="8" t="str">
-        <v>冰女</v>
-      </c>
-      <c r="J25" s="1">
+      <c r="I43" s="4" t="str">
+        <v>冰女剑</v>
+      </c>
+      <c r="J43" s="1">
         <v>111092</v>
       </c>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-    </row>
-    <row customHeight="true" ht="24" r="26">
-      <c r="A26" s="1">
-        <v>22</v>
-      </c>
-      <c r="B26" s="8" t="str">
+      <c r="K43" s="3"/>
+      <c r="L43" s="3"/>
+    </row>
+    <row customHeight="true" ht="24" r="44">
+      <c r="A44" s="1">
+        <v>40</v>
+      </c>
+      <c r="B44" s="4" t="str">
         <v>{
     "charFightIdelAniId": "",
     "infos": [
@@ -5773,1908 +7720,27 @@
     ]
 }</v>
       </c>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="7">
+      <c r="C44" s="4">
+        <v>103056</v>
+      </c>
+      <c r="D44" s="4"/>
+      <c r="E44" s="5">
         <v>121409</v>
       </c>
-      <c r="F26" s="7">
+      <c r="F44" s="5">
         <v>27421</v>
-      </c>
-      <c r="G26" s="1">
-        <v>10</v>
-      </c>
-      <c r="H26" s="9">
-        <v>1</v>
-      </c>
-      <c r="I26" s="8" t="str">
-        <v>兔子</v>
-      </c>
-      <c r="J26" s="1">
-        <v>117391</v>
-      </c>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="1">
-        <v>23</v>
-      </c>
-      <c r="B27" s="1" t="str">
-        <v>{"charFightIdelAniId":"","infos":[{"type":"1","guid":"111103","duration":"700","hitLength":"300","frontRockLength":"500","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"3","guid":"","duration":"50","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"0","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"30","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"4","guid":"12374","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"0","slotIndex":"-1","stopTime":"0","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"0","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"100"},{"type":"2","guid":"105325","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"220","slotIndex":"-1","stopTime":"400","offsetPos":["30","0","0"],"offsetRotation":["150","12","20"],"offsetScale":["1","1","1"],"colorHex":"88E5FFFF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"4","guid":"12374","duration":"","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"0","slotIndex":"-1","stopTime":"0","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"0","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"100"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"80","skillLength":"110","skillWidth":"120","moveSpeed":"300"},{"type":"1","guid":"111101","duration":"1300","hitLength":"300","frontRockLength":"400","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"4","guid":"12374","duration":"","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"0","slotIndex":"-1","stopTime":"0","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"0","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"100"},{"type":"3","guid":"","duration":"100","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"60","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"-80","skillRadius":"0","skillHeight":"250","skillLength":"260","skillWidth":"20","moveSpeed":"300"},{"type":"2","guid":"105325","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"250","slotIndex":"-1","stopTime":"500","offsetPos":["20","0","0"],"offsetRotation":["-107","55","-14"],"offsetScale":["1.1","1.1","1.1"],"colorHex":"88E5FFFF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"105325","duration":"","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"350","slotIndex":"-1","stopTime":"500","offsetPos":["20","20","0"],"offsetRotation":["-254","44","-168"],"offsetScale":["1.3","1.3","1.3"],"colorHex":"88E5FFFF","isToPos":"0","moveDir":"1","moveDistance":"","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"105325","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"450","slotIndex":"-1","stopTime":"400","offsetPos":["20","-30","0"],"offsetRotation":["-249","-56","-196"],"offsetScale":["1.15","1.15","1.15"],"colorHex":"88E5FFFF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"105325","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"480","slotIndex":"-1","stopTime":"100","offsetPos":["20","20","0"],"offsetRotation":["-101","-17","-355"],"offsetScale":["1.2","1.2","1.2"],"colorHex":"88E5FFFF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"105325","duration":"","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"500","slotIndex":"-1","stopTime":"500","offsetPos":["30","0","0"],"offsetRotation":["-101","-8","-358"],"offsetScale":["1.5","1.5","1.5"],"colorHex":"88E5FFFF","isToPos":"","moveDir":"","moveDistance":"","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"1","guid":"111093","duration":"1700","hitLength":"500","frontRockLength":"800","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"3","guid":"","duration":"300","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"116459","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"600","slotIndex":"-1","stopTime":"1200","offsetPos":["0","0","-60"],"offsetRotation":["0","0","-180"],"offsetScale":["1","1","1"],"colorHex":"88E5FFFF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"4","guid":"12374","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"350","slotIndex":"-1","stopTime":"0","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"}]}</v>
-      </c>
-      <c r="C27" s="1">
-        <v>118148</v>
-      </c>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1">
-        <v>121409</v>
-      </c>
-      <c r="F27" s="1">
-        <v>27422</v>
-      </c>
-      <c r="G27" s="1">
-        <v>10</v>
-      </c>
-      <c r="H27" s="2">
-        <v>1</v>
-      </c>
-      <c r="I27" s="1" t="str">
-        <v>洛基</v>
-      </c>
-      <c r="J27" s="1">
-        <v>117391</v>
-      </c>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-    </row>
-    <row customHeight="true" ht="24" r="28">
-      <c r="A28" s="1">
-        <v>24</v>
-      </c>
-      <c r="B28" s="1" t="str">
-        <v>{
-    "charFightIdelAniId": "117380",
-    "infos": [
-        {
-            "type": "1",
-            "guid": "117399",
-            "duration": "1200",
-            "hitLength": "300",
-            "frontRockLength": "500",
-            "isCharge": "0",
-            "isAutoPlay": "0",
-            "delayPlayTime": "100",
-            "slotIndex": "-1",
-            "stopTime": "",
-            "offsetPos": [
-                "0",
-                "0",
-                "0"
-            ],
-            "offsetRotation": [
-                "0",
-                "0",
-                "0"
-            ],
-            "offsetScale": [
-                "0",
-                "0",
-                "0"
-            ],
-            "colorHex": "",
-            "isToPos": "",
-            "moveDir": "",
-            "moveDistance": "100",
-            "skillAngle": "0",
-            "skillOffsetDis": "0",
-            "skillRadius": "0",
-            "skillHeight": "0",
-            "skillLength": "0",
-            "skillWidth": "0"
-        },
-        {
-            "type": "2",
-            "guid": "120066",
-            "duration": "1000",
-            "hitLength": "",
-            "frontRockLength": "",
-            "isCharge": "0",
-            "isAutoPlay": "0",
-            "delayPlayTime": "150",
-            "slotIndex": "-1",
-            "stopTime": "500",
-            "offsetPos": [
-                "0",
-                "0",
-                "0"
-            ],
-            "offsetRotation": [
-                "0",
-                "0",
-                "0"
-            ],
-            "offsetScale": [
-                "1",
-                "1",
-                "1"
-            ],
-            "colorHex": "",
-            "isToPos": "",
-            "moveDir": "",
-            "moveDistance": "100",
-            "skillAngle": "0",
-            "skillOffsetDis": "0",
-            "skillRadius": "0",
-            "skillHeight": "0",
-            "skillLength": "0",
-            "skillWidth": "0"
-        },
-        {
-            "type": "3",
-            "guid": "",
-            "duration": "50",
-            "hitLength": "",
-            "frontRockLength": "",
-            "isCharge": "0",
-            "isAutoPlay": "0",
-            "delayPlayTime": "200",
-            "slotIndex": "-1",
-            "stopTime": "",
-            "offsetPos": [
-                "0",
-                "0",
-                "0"
-            ],
-            "offsetRotation": [
-                "0",
-                "0",
-                "0"
-            ],
-            "offsetScale": [
-                "0",
-                "0",
-                "0"
-            ],
-            "colorHex": "",
-            "isToPos": "0",
-            "moveDir": "1",
-            "moveDistance": "50",
-            "skillAngle": "0",
-            "skillOffsetDis": "0",
-            "skillRadius": "0",
-            "skillHeight": "0",
-            "skillLength": "0",
-            "skillWidth": "0"
-        },
-        {
-            "type": "5",
-            "guid": "",
-            "duration": "",
-            "hitLength": "",
-            "frontRockLength": "",
-            "isCharge": "0",
-            "isAutoPlay": "0",
-            "delayPlayTime": "300",
-            "slotIndex": "-1",
-            "stopTime": "",
-            "offsetPos": [
-                "0",
-                "0",
-                "0"
-            ],
-            "offsetRotation": [
-                "0",
-                "0",
-                "0"
-            ],
-            "offsetScale": [
-                "0",
-                "0",
-                "0"
-            ],
-            "colorHex": "",
-            "isToPos": "0",
-            "moveDir": "1",
-            "moveDistance": "",
-            "skillAngle": "45",
-            "skillOffsetDis": "0",
-            "skillRadius": "0",
-            "skillHeight": "60",
-            "skillLength": "180",
-            "skillWidth": "240"
-        },
-        {
-            "type": "1",
-            "guid": "117398",
-            "duration": "1400",
-            "hitLength": "300",
-            "frontRockLength": "600",
-            "isCharge": "0",
-            "isAutoPlay": "0",
-            "delayPlayTime": "100",
-            "slotIndex": "-1",
-            "stopTime": "",
-            "offsetPos": [
-                "0",
-                "0",
-                "0"
-            ],
-            "offsetRotation": [
-                "0",
-                "0",
-                "0"
-            ],
-            "offsetScale": [
-                "0",
-                "0",
-                "0"
-            ],
-            "colorHex": "",
-            "isToPos": "",
-            "moveDir": "",
-            "moveDistance": "100",
-            "skillAngle": "0",
-            "skillOffsetDis": "0",
-            "skillRadius": "0",
-            "skillHeight": "0",
-            "skillLength": "0",
-            "skillWidth": "0"
-        },
-        {
-            "type": "2",
-            "guid": "120066",
-            "duration": "1000",
-            "hitLength": "",
-            "frontRockLength": "",
-            "isCharge": "0",
-            "isAutoPlay": "0",
-            "delayPlayTime": "150",
-            "slotIndex": "-1",
-            "stopTime": "500",
-            "offsetPos": [
-                "0",
-                "0",
-                "0"
-            ],
-            "offsetRotation": [
-                "160",
-                "0",
-                "0"
-            ],
-            "offsetScale": [
-                "1",
-                "1",
-                "1"
-            ],
-            "colorHex": "",
-            "isToPos": "",
-            "moveDir": "",
-            "moveDistance": "100",
-            "skillAngle": "0",
-            "skillOffsetDis": "0",
-            "skillRadius": "0",
-            "skillHeight": "0",
-            "skillLength": "0",
-            "skillWidth": "0"
-        },
-        {
-            "type": "3",
-            "guid": "",
-            "duration": "50",
-            "hitLength": "",
-            "frontRockLength": "",
-            "isCharge": "0",
-            "isAutoPlay": "0",
-            "delayPlayTime": "100",
-            "slotIndex": "-1",
-            "stopTime": "",
-            "offsetPos": [
-                "0",
-                "0",
-                "0"
-            ],
-            "offsetRotation": [
-                "0",
-                "0",
-                "0"
-            ],
-            "offsetScale": [
-                "0",
-                "0",
-                "0"
-            ],
-            "colorHex": "",
-            "isToPos": "0",
-            "moveDir": "1",
-            "moveDistance": "50",
-            "skillAngle": "0",
-            "skillOffsetDis": "0",
-            "skillRadius": "0",
-            "skillHeight": "0",
-            "skillLength": "0",
-            "skillWidth": "0"
-        },
-        {
-            "type": "5",
-            "guid": "",
-            "duration": "1000",
-            "hitLength": "",
-            "frontRockLength": "",
-            "isCharge": "0",
-            "isAutoPlay": "0",
-            "delayPlayTime": "300",
-            "slotIndex": "-1",
-            "stopTime": "",
-            "offsetPos": [
-                "0",
-                "0",
-                "0"
-            ],
-            "offsetRotation": [
-                "0",
-                "0",
-                "0"
-            ],
-            "offsetScale": [
-                "0",
-                "0",
-                "0"
-            ],
-            "colorHex": "",
-            "isToPos": "",
-            "moveDir": "",
-            "moveDistance": "100",
-            "skillAngle": "0",
-            "skillOffsetDis": "40",
-            "skillRadius": "0",
-            "skillHeight": "120",
-            "skillLength": "180",
-            "skillWidth": "240"
-        },
-        {
-            "type": "1",
-            "guid": "117397",
-            "duration": "2100",
-            "hitLength": "300",
-            "frontRockLength": "800",
-            "isCharge": "0",
-            "isAutoPlay": "0",
-            "delayPlayTime": "100",
-            "slotIndex": "-1",
-            "stopTime": "",
-            "offsetPos": [
-                "0",
-                "0",
-                "0"
-            ],
-            "offsetRotation": [
-                "0",
-                "0",
-                "0"
-            ],
-            "offsetScale": [
-                "0",
-                "0",
-                "0"
-            ],
-            "colorHex": "",
-            "isToPos": "",
-            "moveDir": "",
-            "moveDistance": "100",
-            "skillAngle": "0",
-            "skillOffsetDis": "0",
-            "skillRadius": "0",
-            "skillHeight": "0",
-            "skillLength": "0",
-            "skillWidth": "0"
-        },
-        {
-            "type": "3",
-            "guid": "",
-            "duration": "500",
-            "hitLength": "",
-            "frontRockLength": "",
-            "isCharge": "0",
-            "isAutoPlay": "0",
-            "delayPlayTime": "150",
-            "slotIndex": "-1",
-            "stopTime": "",
-            "offsetPos": [
-                "0",
-                "0",
-                "0"
-            ],
-            "offsetRotation": [
-                "0",
-                "0",
-                "0"
-            ],
-            "offsetScale": [
-                "0",
-                "0",
-                "0"
-            ],
-            "colorHex": "",
-            "isToPos": "0",
-            "moveDir": "1",
-            "moveDistance": "300",
-            "skillAngle": "0",
-            "skillOffsetDis": "0",
-            "skillRadius": "0",
-            "skillHeight": "0",
-            "skillLength": "0",
-            "skillWidth": "0"
-        },
-        {
-            "type": "2",
-            "guid": "120063",
-            "duration": "1000",
-            "hitLength": "",
-            "frontRockLength": "",
-            "isCharge": "0",
-            "isAutoPlay": "0",
-            "delayPlayTime": "150",
-            "slotIndex": "-1",
-            "stopTime": "600",
-            "offsetPos": [
-                "120",
-                "0",
-                "0"
-            ],
-            "offsetRotation": [
-                "0",
-                "0",
-                "-90"
-            ],
-            "offsetScale": [
-                "1",
-                "1",
-                "1"
-            ],
-            "colorHex": "",
-            "isToPos": "",
-            "moveDir": "",
-            "moveDistance": "100",
-            "skillAngle": "0",
-            "skillOffsetDis": "0",
-            "skillRadius": "0",
-            "skillHeight": "0",
-            "skillLength": "0",
-            "skillWidth": "0"
-        },
-        {
-            "type": "2",
-            "guid": "120062",
-            "duration": "1000",
-            "hitLength": "",
-            "frontRockLength": "",
-            "isCharge": "0",
-            "isAutoPlay": "0",
-            "delayPlayTime": "350",
-            "slotIndex": "-1",
-            "stopTime": "800",
-            "offsetPos": [
-                "200",
-                "0",
-                "0"
-            ],
-            "offsetRotation": [
-                "0",
-                "0",
-                "0"
-            ],
-            "offsetScale": [
-                "1.3",
-                "1.3",
-                "1.3"
-            ],
-            "colorHex": "",
-            "isToPos": "",
-            "moveDir": "",
-            "moveDistance": "100",
-            "skillAngle": "0",
-            "skillOffsetDis": "0",
-            "skillRadius": "0",
-            "skillHeight": "0",
-            "skillLength": "0",
-            "skillWidth": "0"
-        },
-        {
-            "type": "5",
-            "guid": "",
-            "duration": "1000",
-            "hitLength": "",
-            "frontRockLength": "",
-            "isCharge": "0",
-            "isAutoPlay": "0",
-            "delayPlayTime": "300",
-            "slotIndex": "-1",
-            "stopTime": "",
-            "offsetPos": [
-                "0",
-                "0",
-                "0"
-            ],
-            "offsetRotation": [
-                "0",
-                "0",
-                "0"
-            ],
-            "offsetScale": [
-                "0",
-                "0",
-                "0"
-            ],
-            "colorHex": "",
-            "isToPos": "",
-            "moveDir": "",
-            "moveDistance": "100",
-            "skillAngle": "0",
-            "skillOffsetDis": "250",
-            "skillRadius": "0",
-            "skillHeight": "200",
-            "skillLength": "180",
-            "skillWidth": "240"
-        },
-        {
-            "type": "1",
-            "guid": "117396",
-            "duration": "2000",
-            "hitLength": "500",
-            "frontRockLength": "1200",
-            "isCharge": "0",
-            "isAutoPlay": "0",
-            "delayPlayTime": "100",
-            "slotIndex": "-1",
-            "stopTime": "",
-            "offsetPos": [
-                "0",
-                "0",
-                "0"
-            ],
-            "offsetRotation": [
-                "0",
-                "0",
-                "0"
-            ],
-            "offsetScale": [
-                "0",
-                "0",
-                "0"
-            ],
-            "colorHex": "",
-            "isToPos": "",
-            "moveDir": "",
-            "moveDistance": "100",
-            "skillAngle": "0",
-            "skillOffsetDis": "0",
-            "skillRadius": "0",
-            "skillHeight": "0",
-            "skillLength": "0",
-            "skillWidth": "0"
-        },
-        {
-            "type": "2",
-            "guid": "120065",
-            "duration": "1000",
-            "hitLength": "",
-            "frontRockLength": "",
-            "isCharge": "0",
-            "isAutoPlay": "0",
-            "delayPlayTime": "300",
-            "slotIndex": "-1",
-            "stopTime": "1800",
-            "offsetPos": [
-                "60",
-                "0",
-                "100"
-            ],
-            "offsetRotation": [
-                "90",
-                "0",
-                "0"
-            ],
-            "offsetScale": [
-                "1",
-                "1",
-                "1"
-            ],
-            "colorHex": "",
-            "isToPos": "",
-            "moveDir": "",
-            "moveDistance": "100",
-            "skillAngle": "0",
-            "skillOffsetDis": "0",
-            "skillRadius": "0",
-            "skillHeight": "0",
-            "skillLength": "0",
-            "skillWidth": "0"
-        },
-        {
-            "type": "3",
-            "guid": "",
-            "duration": "300",
-            "hitLength": "",
-            "frontRockLength": "",
-            "isCharge": "0",
-            "isAutoPlay": "0",
-            "delayPlayTime": "100",
-            "slotIndex": "-1",
-            "stopTime": "",
-            "offsetPos": [
-                "0",
-                "0",
-                "0"
-            ],
-            "offsetRotation": [
-                "0",
-                "0",
-                "0"
-            ],
-            "offsetScale": [
-                "0",
-                "0",
-                "0"
-            ],
-            "colorHex": "",
-            "isToPos": "0",
-            "moveDir": "1",
-            "moveDistance": "100",
-            "skillAngle": "0",
-            "skillOffsetDis": "0",
-            "skillRadius": "0",
-            "skillHeight": "0",
-            "skillLength": "0",
-            "skillWidth": "0"
-        },
-        {
-            "type": "5",
-            "guid": "",
-            "duration": "1000",
-            "hitLength": "",
-            "frontRockLength": "",
-            "isCharge": "0",
-            "isAutoPlay": "0",
-            "delayPlayTime": "500",
-            "slotIndex": "-1",
-            "stopTime": "",
-            "offsetPos": [
-                "0",
-                "0",
-                "0"
-            ],
-            "offsetRotation": [
-                "0",
-                "0",
-                "0"
-            ],
-            "offsetScale": [
-                "0",
-                "0",
-                "0"
-            ],
-            "colorHex": "",
-            "isToPos": "",
-            "moveDir": "",
-            "moveDistance": "100",
-            "skillAngle": "0",
-            "skillOffsetDis": "-150",
-            "skillRadius": "0",
-            "skillHeight": "200",
-            "skillLength": "300",
-            "skillWidth": "100"
-        },
-        {
-            "type": "1",
-            "guid": "117394",
-            "duration": "1600",
-            "hitLength": "300",
-            "frontRockLength": "500",
-            "isCharge": "0",
-            "isAutoPlay": "0",
-            "delayPlayTime": "100",
-            "slotIndex": "-1",
-            "stopTime": "",
-            "offsetPos": [
-                "0",
-                "0",
-                "0"
-            ],
-            "offsetRotation": [
-                "0",
-                "0",
-                "0"
-            ],
-            "offsetScale": [
-                "0",
-                "0",
-                "0"
-            ],
-            "colorHex": "",
-            "isToPos": "",
-            "moveDir": "",
-            "moveDistance": "100",
-            "skillAngle": "0",
-            "skillOffsetDis": "0",
-            "skillRadius": "0",
-            "skillHeight": "0",
-            "skillLength": "0",
-            "skillWidth": "0"
-        },
-        {
-            "type": "3",
-            "guid": "",
-            "duration": "200",
-            "hitLength": "",
-            "frontRockLength": "",
-            "isCharge": "0",
-            "isAutoPlay": "0",
-            "delayPlayTime": "100",
-            "slotIndex": "-1",
-            "stopTime": "",
-            "offsetPos": [
-                "0",
-                "0",
-                "0"
-            ],
-            "offsetRotation": [
-                "0",
-                "0",
-                "0"
-            ],
-            "offsetScale": [
-                "0",
-                "0",
-                "0"
-            ],
-            "colorHex": "",
-            "isToPos": "0",
-            "moveDir": "1",
-            "moveDistance": "150",
-            "skillAngle": "0",
-            "skillOffsetDis": "0",
-            "skillRadius": "0",
-            "skillHeight": "0",
-            "skillLength": "0",
-            "skillWidth": "0"
-        },
-        {
-            "type": "2",
-            "guid": "120064",
-            "duration": "1000",
-            "hitLength": "",
-            "frontRockLength": "",
-            "isCharge": "0",
-            "isAutoPlay": "0",
-            "delayPlayTime": "100",
-            "slotIndex": "-1",
-            "stopTime": "1600",
-            "offsetPos": [
-                "120",
-                "0",
-                "-50"
-            ],
-            "offsetRotation": [
-                "0",
-                "0",
-                "-90"
-            ],
-            "offsetScale": [
-                "1",
-                "1",
-                "1"
-            ],
-            "colorHex": "",
-            "isToPos": "",
-            "moveDir": "",
-            "moveDistance": "100",
-            "skillAngle": "0",
-            "skillOffsetDis": "0",
-            "skillRadius": "0",
-            "skillHeight": "0",
-            "skillLength": "0",
-            "skillWidth": "0"
-        },
-        {
-            "type": "5",
-            "guid": "",
-            "duration": "1000",
-            "hitLength": "",
-            "frontRockLength": "",
-            "isCharge": "0",
-            "isAutoPlay": "0",
-            "delayPlayTime": "300",
-            "slotIndex": "-1",
-            "stopTime": "",
-            "offsetPos": [
-                "0",
-                "0",
-                "0"
-            ],
-            "offsetRotation": [
-                "0",
-                "0",
-                "0"
-            ],
-            "offsetScale": [
-                "0",
-                "0",
-                "0"
-            ],
-            "colorHex": "",
-            "isToPos": "",
-            "moveDir": "",
-            "moveDistance": "100",
-            "skillAngle": "0",
-            "skillOffsetDis": "50",
-            "skillRadius": "0",
-            "skillHeight": "200",
-            "skillLength": "200",
-            "skillWidth": "200"
-        }
-    ]
-}</v>
-      </c>
-      <c r="C28" s="1">
-        <v>103061</v>
-      </c>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1">
-        <v>121409</v>
-      </c>
-      <c r="F28" s="1">
-        <v>31122</v>
-      </c>
-      <c r="G28" s="1">
-        <v>10</v>
-      </c>
-      <c r="H28" s="2">
-        <v>1</v>
-      </c>
-      <c r="I28" s="1" t="str">
-        <v>太阳神</v>
-      </c>
-      <c r="J28" s="1">
-        <v>117391</v>
-      </c>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="1">
-        <v>25</v>
-      </c>
-      <c r="B29" s="1" t="str">
-        <v>{"charFightIdelAniId":"117403","infos":[{"type":"1","guid":"117371","duration":"500","hitLength":"100","frontRockLength":"300","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"123288","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"500","offsetPos":["30","0","-30"],"offsetRotation":["0","-20","-90"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"","skillAngle":"45","skillOffsetDis":"0","skillRadius":"0","skillHeight":"60","skillLength":"180","skillWidth":"240"},{"type":"1","guid":"117366","duration":"1000","hitLength":"300","frontRockLength":"500","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"100","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"120","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"123288","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"400","slotIndex":"-1","stopTime":"500","offsetPos":["30","0","15"],"offsetRotation":["187","20","110"],"offsetScale":["1.2","1.2","1.2"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"40","skillRadius":"0","skillHeight":"120","skillLength":"180","skillWidth":"240"},{"type":"1","guid":"117375","duration":"1300","hitLength":"300","frontRockLength":"500","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"50","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"20","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"123288","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"150","slotIndex":"-1","stopTime":"400","offsetPos":["30","0","15"],"offsetRotation":["-15","27","-122"],"offsetScale":["1.25","1.25","1.25"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"200","skillLength":"180","skillWidth":"240"},{"type":"1","guid":"117376","duration":"1500","hitLength":"600","frontRockLength":"850","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"200","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"200","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"123286","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"400","slotIndex":"-1","stopTime":"500","offsetPos":["0","0","0"],"offsetRotation":["-180","15","-270"],"offsetScale":["1.5","1.5","1.5"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"123286","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"600","slotIndex":"-1","stopTime":"800","offsetPos":["30","0","0"],"offsetRotation":["0","0","-90"],"offsetScale":["1.6","1.6","1.6"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"120","skillLength":"250","skillWidth":"400"},{"type":"1","guid":"117382","duration":"1800","hitLength":"500","frontRockLength":"1300","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"200","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"150","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"300","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"123289","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"250","slotIndex":"-1","stopTime":"600","offsetPos":["280","0","-40"],"offsetRotation":["0","0","-90"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"123287","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"2500","offsetPos":["180","0","-80"],"offsetRotation":["0","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"360","skillOffsetDis":"0","skillRadius":"320","skillHeight":"230","skillLength":"0","skillWidth":"0"}]}</v>
-      </c>
-      <c r="C29" s="1">
-        <v>122956</v>
-      </c>
-      <c r="D29" s="1">
-        <v>122956</v>
-      </c>
-      <c r="E29" s="1">
-        <v>121409</v>
-      </c>
-      <c r="F29" s="7">
-        <v>27421</v>
-      </c>
-      <c r="G29" s="1">
-        <v>10</v>
-      </c>
-      <c r="H29" s="9">
-        <v>1</v>
-      </c>
-      <c r="I29" s="1" t="str">
-        <v>宇智波斑</v>
-      </c>
-      <c r="J29" s="1">
-        <v>117403</v>
-      </c>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="1">
-        <v>26</v>
-      </c>
-      <c r="B30" s="1" t="str">
-        <v>{"charFightIdelAniId":"111095","infos":[{"type":"1","guid":"111103","duration":"700","hitLength":"300","frontRockLength":"500","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"50","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"0","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"30","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"105325","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"220","slotIndex":"-1","stopTime":"400","offsetPos":["30","0","0"],"offsetRotation":["150","12","20"],"offsetScale":["1","1","1"],"colorHex":"88E5FFFF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"80","skillLength":"110","skillWidth":"120"},{"type":"1","guid":"111102","duration":"600","hitLength":"200","frontRockLength":"300","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"80","skillLength":"110","skillWidth":"120"},{"type":"2","guid":"105325","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"220","slotIndex":"-1","stopTime":"400","offsetPos":["20","0","0"],"offsetRotation":["-15","0","0"],"offsetScale":["1.3","1.3","1.3"],"colorHex":"88E5FFFF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"1","guid":"111101","duration":"1300","hitLength":"300","frontRockLength":"400","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"100","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"60","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"-80","skillRadius":"0","skillHeight":"250","skillLength":"260","skillWidth":"20"},{"type":"2","guid":"105325","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"250","slotIndex":"-1","stopTime":"500","offsetPos":["20","0","0"],"offsetRotation":["-107","55","-14"],"offsetScale":["1.1","1.1","1.1"],"colorHex":"88E5FFFF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"105325","duration":"","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"350","slotIndex":"-1","stopTime":"500","offsetPos":["20","20","0"],"offsetRotation":["-254","44","-168"],"offsetScale":["1.3","1.3","1.3"],"colorHex":"88E5FFFF","isToPos":"0","moveDir":"1","moveDistance":"","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"105325","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"450","slotIndex":"-1","stopTime":"400","offsetPos":["20","-30","0"],"offsetRotation":["-249","-56","-196"],"offsetScale":["1.15","1.15","1.15"],"colorHex":"88E5FFFF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"105325","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"480","slotIndex":"-1","stopTime":"100","offsetPos":["20","20","0"],"offsetRotation":["-101","-17","-355"],"offsetScale":["1.2","1.2","1.2"],"colorHex":"88E5FFFF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"105325","duration":"","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"500","slotIndex":"-1","stopTime":"500","offsetPos":["30","0","0"],"offsetRotation":["-101","-8","-358"],"offsetScale":["1.5","1.5","1.5"],"colorHex":"88E5FFFF","isToPos":"","moveDir":"","moveDistance":"","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"1","guid":"111100","duration":"1100","hitLength":"300","frontRockLength":"800","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"116455","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"600","offsetPos":["0","0","0"],"offsetRotation":["0","0","-90"],"offsetScale":["1","1","1"],"colorHex":"88E5FFFF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"300","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"50","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"1","guid":"111093","duration":"1700","hitLength":"500","frontRockLength":"800","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"300","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"116459","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"600","slotIndex":"-1","stopTime":"1200","offsetPos":["0","0","-60"],"offsetRotation":["0","0","-180"],"offsetScale":["1","1","1"],"colorHex":"88E5FFFF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"}]}</v>
-      </c>
-      <c r="C30" s="1">
-        <v>122949</v>
-      </c>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1">
-        <v>121409</v>
-      </c>
-      <c r="F30" s="1">
-        <v>27422</v>
-      </c>
-      <c r="G30" s="7">
-        <v>10</v>
-      </c>
-      <c r="H30" s="2">
-        <v>1</v>
-      </c>
-      <c r="I30" s="1" t="str">
-        <v>纳米机甲女性</v>
-      </c>
-      <c r="J30" s="1">
-        <v>111095</v>
-      </c>
-      <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="1">
-        <v>27</v>
-      </c>
-      <c r="B31" s="1" t="str">
-        <v>{"charFightIdelAniId":"121951","infos":[{"type":"1","guid":"121959","duration":"800","hitLength":"380","frontRockLength":"400","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"105195","duration":"","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"800","offsetPos":["10","0","0"],"offsetRotation":["40","0","0"],"offsetScale":["0.8","0.8","0.8"],"colorHex":"BFFF5AFF","isToPos":"","moveDir":"","moveDistance":"","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"3","guid":"","duration":"200","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"50","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"30","skillRadius":"0","skillHeight":"120","skillLength":"130","skillWidth":"130","moveSpeed":"300"},{"type":"4","guid":"135750","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"0","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"1","guid":"121966","duration":"800","hitLength":"400","frontRockLength":"600","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"105195","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"800","offsetPos":["60","0","0"],"offsetRotation":["150","0","0"],"offsetScale":["0.8","0.8","0.8"],"colorHex":"BFFF5AFF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"30","skillRadius":"0","skillHeight":"120","skillLength":"120","skillWidth":"130","moveSpeed":"300"},{"type":"3","guid":"","duration":"200","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"50","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"4","guid":"135750","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"180","slotIndex":"-1","stopTime":"0","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"1","guid":"121965","duration":"900","hitLength":"300","frontRockLength":"500","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"105195","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"50","slotIndex":"-1","stopTime":"800","offsetPos":["0","0","0"],"offsetRotation":["50","0","0"],"offsetScale":["0.9","0.9","0.9"],"colorHex":"BFFF5AFF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"105195","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"50","slotIndex":"-1","stopTime":"500","offsetPos":["0","0","0"],"offsetRotation":["150","0","0"],"offsetScale":["1.2","1.2","1.2"],"colorHex":"A6FF39FF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"30","skillRadius":"0","skillHeight":"200","skillLength":"150","skillWidth":"200","moveSpeed":"300"},{"type":"4","guid":"135750","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"0","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"1","guid":"121963","duration":"1000","hitLength":"450","frontRockLength":"600","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"120062","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"350","slotIndex":"-1","stopTime":"800","offsetPos":["0","0","0"],"offsetRotation":["180","0","0"],"offsetScale":["1.3","1.3","1.3"],"colorHex":"A6FF39FF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"50","skillRadius":"0","skillHeight":"30","skillLength":"150","skillWidth":"300","moveSpeed":"300"},{"type":"4","guid":"135749","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"0","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"1","guid":"121962","duration":"1400","hitLength":"600","frontRockLength":"1000","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"3","guid":"","duration":"200","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"80","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"131516","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"400","slotIndex":"-1","stopTime":"1200","offsetPos":["100","0","-80"],"offsetRotation":["0","0","-90"],"offsetScale":["0.5","1","1"],"colorHex":"7DFF37FF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"30","skillRadius":"0","skillHeight":"350","skillLength":"650","skillWidth":"50","moveSpeed":"300"},{"type":"4","guid":"135749","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"250","slotIndex":"-1","stopTime":"0","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"1","guid":"121967","duration":"2400","hitLength":"1000","frontRockLength":"2200","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"3","guid":"","duration":"400","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"400","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"200","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"120066","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"400","slotIndex":"-1","stopTime":"600","offsetPos":["0","20","30"],"offsetRotation":["90","90","0"],"offsetScale":["1","1","1"],"colorHex":"A8FF58FF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"120066","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"500","slotIndex":"-1","stopTime":"600","offsetPos":["0","0","30"],"offsetRotation":["90","-30","0"],"offsetScale":["1.2","1.2","1.2"],"colorHex":"A8FF58FF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"120066","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"600","slotIndex":"-1","stopTime":"600","offsetPos":["0","-20","30"],"offsetRotation":["90","-160","0"],"offsetScale":["1.3","1.3","1.3"],"colorHex":"A8FF58FF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"120062","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"800","slotIndex":"-1","stopTime":"600","offsetPos":["30","0","30"],"offsetRotation":["90","60","0"],"offsetScale":["1.5","1.5","1.5"],"colorHex":"A8FF58FF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"120066","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"900","slotIndex":"-1","stopTime":"600","offsetPos":["150","0","30"],"offsetRotation":["90","30","0"],"offsetScale":["1.8","1.8","1.8"],"colorHex":"A8FF58FF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"400","skillLength":"350","skillWidth":"50","moveSpeed":"300"},{"type":"4","guid":"135749","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"900","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"}]}</v>
-      </c>
-      <c r="C31" s="1">
-        <v>122952</v>
-      </c>
-      <c r="D31" s="1">
-        <v>122952</v>
-      </c>
-      <c r="E31" s="1">
-        <v>121409</v>
-      </c>
-      <c r="F31" s="1">
-        <v>31122</v>
-      </c>
-      <c r="G31" s="1">
-        <v>10</v>
-      </c>
-      <c r="H31" s="2">
-        <v>1</v>
-      </c>
-      <c r="I31" s="1" t="str">
-        <v>死侍</v>
-      </c>
-      <c r="J31" s="1">
-        <v>121951</v>
-      </c>
-      <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="1">
-        <v>28</v>
-      </c>
-      <c r="B32" s="1" t="str">
-        <v>{"charFightIdelAniId":"121951","infos":[{"type":"1","guid":"121959","duration":"800","hitLength":"380","frontRockLength":"400","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"105195","duration":"","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"800","offsetPos":["10","0","0"],"offsetRotation":["40","0","0"],"offsetScale":["0.8","0.8","0.8"],"colorHex":"BFFF5AFF","isToPos":"","moveDir":"","moveDistance":"","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"3","guid":"","duration":"200","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"50","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"30","skillRadius":"0","skillHeight":"120","skillLength":"130","skillWidth":"130","moveSpeed":"300"},{"type":"4","guid":"135750","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"0","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"1","guid":"121966","duration":"800","hitLength":"400","frontRockLength":"600","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"105195","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"800","offsetPos":["60","0","0"],"offsetRotation":["150","0","0"],"offsetScale":["0.8","0.8","0.8"],"colorHex":"BFFF5AFF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"30","skillRadius":"0","skillHeight":"120","skillLength":"120","skillWidth":"130","moveSpeed":"300"},{"type":"3","guid":"","duration":"200","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"50","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"4","guid":"135750","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"180","slotIndex":"-1","stopTime":"0","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"1","guid":"121965","duration":"900","hitLength":"300","frontRockLength":"500","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"105195","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"50","slotIndex":"-1","stopTime":"800","offsetPos":["0","0","0"],"offsetRotation":["50","0","0"],"offsetScale":["0.9","0.9","0.9"],"colorHex":"BFFF5AFF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"105195","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"50","slotIndex":"-1","stopTime":"500","offsetPos":["0","0","0"],"offsetRotation":["150","0","0"],"offsetScale":["1.2","1.2","1.2"],"colorHex":"A6FF39FF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"30","skillRadius":"0","skillHeight":"200","skillLength":"150","skillWidth":"200","moveSpeed":"300"},{"type":"4","guid":"135750","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"0","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"1","guid":"121963","duration":"1000","hitLength":"450","frontRockLength":"600","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"120062","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"350","slotIndex":"-1","stopTime":"800","offsetPos":["0","0","0"],"offsetRotation":["180","0","0"],"offsetScale":["1.3","1.3","1.3"],"colorHex":"A6FF39FF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"50","skillRadius":"0","skillHeight":"30","skillLength":"150","skillWidth":"300","moveSpeed":"300"},{"type":"4","guid":"135749","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"0","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"1","guid":"121962","duration":"1400","hitLength":"600","frontRockLength":"1000","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"3","guid":"","duration":"200","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"80","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"131516","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"400","slotIndex":"-1","stopTime":"1200","offsetPos":["100","0","-80"],"offsetRotation":["0","0","-90"],"offsetScale":["0.5","1","1"],"colorHex":"7DFF37FF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"30","skillRadius":"0","skillHeight":"350","skillLength":"650","skillWidth":"50","moveSpeed":"300"},{"type":"4","guid":"135749","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"250","slotIndex":"-1","stopTime":"0","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"1","guid":"121967","duration":"2400","hitLength":"1000","frontRockLength":"2200","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"3","guid":"","duration":"400","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"400","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"200","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"120066","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"400","slotIndex":"-1","stopTime":"600","offsetPos":["0","20","30"],"offsetRotation":["90","90","0"],"offsetScale":["1","1","1"],"colorHex":"A8FF58FF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"120066","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"500","slotIndex":"-1","stopTime":"600","offsetPos":["0","0","30"],"offsetRotation":["90","-30","0"],"offsetScale":["1.2","1.2","1.2"],"colorHex":"A8FF58FF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"120066","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"600","slotIndex":"-1","stopTime":"600","offsetPos":["0","-20","30"],"offsetRotation":["90","-160","0"],"offsetScale":["1.3","1.3","1.3"],"colorHex":"A8FF58FF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"120062","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"800","slotIndex":"-1","stopTime":"600","offsetPos":["30","0","30"],"offsetRotation":["90","60","0"],"offsetScale":["1.5","1.5","1.5"],"colorHex":"A8FF58FF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"120066","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"900","slotIndex":"-1","stopTime":"600","offsetPos":["150","0","30"],"offsetRotation":["90","30","0"],"offsetScale":["1.8","1.8","1.8"],"colorHex":"A8FF58FF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"400","skillLength":"350","skillWidth":"50","moveSpeed":"300"},{"type":"4","guid":"135749","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"900","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"}]}</v>
-      </c>
-      <c r="C32" s="1">
-        <v>122946</v>
-      </c>
-      <c r="D32" s="1">
-        <v>122946</v>
-      </c>
-      <c r="E32" s="1">
-        <v>121409</v>
-      </c>
-      <c r="F32" s="1">
-        <v>31122</v>
-      </c>
-      <c r="G32" s="1">
-        <v>10</v>
-      </c>
-      <c r="H32" s="9">
-        <v>1</v>
-      </c>
-      <c r="I32" s="2" t="str">
-        <v>火山哨兵</v>
-      </c>
-      <c r="J32" s="1">
-        <v>121951</v>
-      </c>
-      <c r="K32" s="3"/>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="1">
-        <v>29</v>
-      </c>
-      <c r="B33" s="1" t="str">
-        <v>{"charFightIdelAniId":"111092","infos":[{"type":"1","guid":"111094","duration":"900","hitLength":"550","frontRockLength":"600","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"113917","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"450","slotIndex":"-1","stopTime":"500","offsetPos":["-30","0","0"],"offsetRotation":["155","13","27"],"offsetScale":["0.8","0.8","0.8"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"150","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"30","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"80","skillLength":"100","skillWidth":"150"},{"type":"1","guid":"111098","duration":"900","hitLength":"400","frontRockLength":"600","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"113917","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"250","slotIndex":"-1","stopTime":"500","offsetPos":["0","0","0"],"offsetRotation":["0","0","-10"],"offsetScale":["0.8","0.8","0.8"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"150","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"30","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"80","skillLength":"100","skillWidth":"150"},{"type":"1","guid":"111099","duration":"1900","hitLength":"250","frontRockLength":"300","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"113921","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"150","slotIndex":"-1","stopTime":"800","offsetPos":["0","0","-80"],"offsetRotation":["0","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"-180","skillRadius":"0","skillHeight":"80","skillLength":"350","skillWidth":"350"},{"type":"1","guid":"111097","duration":"1900","hitLength":"700","frontRockLength":"800","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"113920","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"600","slotIndex":"-1","stopTime":"1200","offsetPos":["-30","0","0"],"offsetRotation":["35","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"200","skillLength":"200","skillWidth":"300"}]}</v>
-      </c>
-      <c r="C33" s="1">
-        <v>103061</v>
-      </c>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1">
-        <v>121409</v>
-      </c>
-      <c r="F33" s="1">
-        <v>31122</v>
-      </c>
-      <c r="G33" s="1">
-        <v>10</v>
-      </c>
-      <c r="H33" s="2">
-        <v>1</v>
-      </c>
-      <c r="I33" s="1" t="str">
-        <v>绯红女巫</v>
-      </c>
-      <c r="J33" s="1">
-        <v>111092</v>
-      </c>
-      <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
-    </row>
-    <row customHeight="true" ht="24" r="34">
-      <c r="A34" s="1">
-        <v>30</v>
-      </c>
-      <c r="B34" s="1" t="str">
-        <v>{
-    "charFightIdelAniId": "",
-    "infos": [
-        {
-            "type": "1",
-            "guid": "121413",
-            "duration": "2000",
-            "hitLength": "500",
-            "frontRockLength": "500",
-            "isCharge": "0",
-            "isAutoPlay": "0",
-            "delayPlayTime": "600",
-            "slotIndex": "-1",
-            "stopTime": "",
-            "offsetPos": [
-                "0",
-                "0",
-                "0"
-            ],
-            "offsetRotation": [
-                "0",
-                "0",
-                "0"
-            ],
-            "offsetScale": [
-                "0",
-                "0",
-                "0"
-            ],
-            "colorHex": "",
-            "isToPos": "0",
-            "moveDir": "",
-            "moveDistance": "100",
-            "skillAngle": "0",
-            "skillOffsetDis": "0",
-            "skillRadius": "0",
-            "skillHeight": "0",
-            "skillLength": "0",
-            "skillWidth": "0",
-            "moveSpeed": "300"
-        },
-        {
-            "type": "2",
-            "guid": "224109",
-            "duration": "1000",
-            "hitLength": "",
-            "frontRockLength": "",
-            "isCharge": "0",
-            "isAutoPlay": "0",
-            "delayPlayTime": "300",
-            "slotIndex": "-1",
-            "stopTime": "400",
-            "offsetPos": [
-                "50",
-                "0",
-                "30"
-            ],
-            "offsetRotation": [
-                "180",
-                "0",
-                "90"
-            ],
-            "offsetScale": [
-                "1.5",
-                "1.5",
-                "1.5"
-            ],
-            "colorHex": "",
-            "isToPos": "",
-            "moveDir": "",
-            "moveDistance": "100",
-            "skillAngle": "0",
-            "skillOffsetDis": "0",
-            "skillRadius": "0",
-            "skillHeight": "0",
-            "skillLength": "0",
-            "skillWidth": "0",
-            "moveSpeed": "300"
-        },
-        {
-            "type": "5",
-            "guid": "",
-            "duration": "1000",
-            "hitLength": "",
-            "frontRockLength": "",
-            "isCharge": "0",
-            "isAutoPlay": "0",
-            "delayPlayTime": "100",
-            "slotIndex": "-1",
-            "stopTime": "",
-            "offsetPos": [
-                "0",
-                "0",
-                "0"
-            ],
-            "offsetRotation": [
-                "0",
-                "0",
-                "0"
-            ],
-            "offsetScale": [
-                "0",
-                "0",
-                "0"
-            ],
-            "colorHex": "",
-            "isToPos": "",
-            "moveDir": "",
-            "moveDistance": "100",
-            "skillAngle": "0",
-            "skillOffsetDis": "0",
-            "skillRadius": "0",
-            "skillHeight": "80",
-            "skillLength": "700",
-            "skillWidth": "100",
-            "moveSpeed": "300"
-        },
-        {
-            "type": "4",
-            "guid": "75351",
-            "duration": "",
-            "hitLength": "",
-            "frontRockLength": "",
-            "isCharge": "0",
-            "isAutoPlay": "0",
-            "delayPlayTime": "150",
-            "slotIndex": "-1",
-            "stopTime": "",
-            "offsetPos": [
-                "0",
-                "0",
-                "0"
-            ],
-            "offsetRotation": [
-                "0",
-                "0",
-                "0"
-            ],
-            "offsetScale": [
-                "0",
-                "0",
-                "0"
-            ],
-            "colorHex": "",
-            "isToPos": "0",
-            "moveDir": "1",
-            "moveDistance": "",
-            "skillAngle": "0",
-            "skillOffsetDis": "0|0|0",
-            "skillRadius": "0",
-            "skillHeight": "0",
-            "skillLength": "0",
-            "skillWidth": "0",
-            "moveSpeed": "100"
-        },
-        {
-            "type": "1",
-            "guid": "121654",
-            "duration": "750",
-            "hitLength": "500",
-            "frontRockLength": "600",
-            "isCharge": "0",
-            "isAutoPlay": "0",
-            "delayPlayTime": "100",
-            "slotIndex": "-1",
-            "stopTime": "",
-            "offsetPos": [
-                "0",
-                "0",
-                "0"
-            ],
-            "offsetRotation": [
-                "0",
-                "0",
-                "0"
-            ],
-            "offsetScale": [
-                "0",
-                "0",
-                "0"
-            ],
-            "colorHex": "",
-            "isToPos": "",
-            "moveDir": "",
-            "moveDistance": "100",
-            "skillAngle": "0",
-            "skillOffsetDis": "0",
-            "skillRadius": "0",
-            "skillHeight": "0",
-            "skillLength": "0",
-            "skillWidth": "0",
-            "moveSpeed": "300"
-        },
-        {
-            "type": "2",
-            "guid": "224109",
-            "duration": "1000",
-            "hitLength": "",
-            "frontRockLength": "",
-            "isCharge": "0",
-            "isAutoPlay": "0",
-            "delayPlayTime": "450",
-            "slotIndex": "-1",
-            "stopTime": "400",
-            "offsetPos": [
-                "90",
-                "0",
-                "0"
-            ],
-            "offsetRotation": [
-                "180",
-                "0",
-                "90"
-            ],
-            "offsetScale": [
-                "1.2",
-                "1.2",
-                "1.2"
-            ],
-            "colorHex": "",
-            "isToPos": "",
-            "moveDir": "",
-            "moveDistance": "100",
-            "skillAngle": "0",
-            "skillOffsetDis": "0",
-            "skillRadius": "0",
-            "skillHeight": "0",
-            "skillLength": "0",
-            "skillWidth": "0",
-            "moveSpeed": "300"
-        },
-        {
-            "type": "4",
-            "guid": "75351",
-            "duration": "",
-            "hitLength": "",
-            "frontRockLength": "",
-            "isCharge": "0",
-            "isAutoPlay": "0",
-            "delayPlayTime": "300",
-            "slotIndex": "-1",
-            "stopTime": "",
-            "offsetPos": [
-                "0",
-                "0",
-                "0"
-            ],
-            "offsetRotation": [
-                "0",
-                "0",
-                "0"
-            ],
-            "offsetScale": [
-                "0",
-                "0",
-                "0"
-            ],
-            "colorHex": "",
-            "isToPos": "0",
-            "moveDir": "1",
-            "moveDistance": "",
-            "skillAngle": "0",
-            "skillOffsetDis": "0|0|0",
-            "skillRadius": "0",
-            "skillHeight": "0",
-            "skillLength": "0",
-            "skillWidth": "0",
-            "moveSpeed": "100"
-        },
-        {
-            "type": "3",
-            "guid": "",
-            "duration": "200",
-            "hitLength": "",
-            "frontRockLength": "",
-            "isCharge": "0",
-            "isAutoPlay": "0",
-            "delayPlayTime": "300",
-            "slotIndex": "-1",
-            "stopTime": "",
-            "offsetPos": [
-                "0",
-                "0",
-                "0"
-            ],
-            "offsetRotation": [
-                "0",
-                "0",
-                "0"
-            ],
-            "offsetScale": [
-                "0",
-                "0",
-                "0"
-            ],
-            "colorHex": "",
-            "isToPos": "0",
-            "moveDir": "1",
-            "moveDistance": "50",
-            "skillAngle": "0",
-            "skillOffsetDis": "0",
-            "skillRadius": "0",
-            "skillHeight": "0",
-            "skillLength": "0",
-            "skillWidth": "0",
-            "moveSpeed": "300"
-        },
-        {
-            "type": "5",
-            "guid": "",
-            "duration": "1000",
-            "hitLength": "",
-            "frontRockLength": "",
-            "isCharge": "0",
-            "isAutoPlay": "0",
-            "delayPlayTime": "100",
-            "slotIndex": "-1",
-            "stopTime": "",
-            "offsetPos": [
-                "0",
-                "0",
-                "0"
-            ],
-            "offsetRotation": [
-                "0",
-                "0",
-                "0"
-            ],
-            "offsetScale": [
-                "0",
-                "0",
-                "0"
-            ],
-            "colorHex": "",
-            "isToPos": "",
-            "moveDir": "",
-            "moveDistance": "100",
-            "skillAngle": "0",
-            "skillOffsetDis": "0",
-            "skillRadius": "0",
-            "skillHeight": "120",
-            "skillLength": "700",
-            "skillWidth": "100",
-            "moveSpeed": "300"
-        },
-        {
-            "type": "1",
-            "guid": "121416",
-            "duration": "800",
-            "hitLength": "400",
-            "frontRockLength": "500",
-            "isCharge": "0",
-            "isAutoPlay": "0",
-            "delayPlayTime": "100",
-            "slotIndex": "-1",
-            "stopTime": "",
-            "offsetPos": [
-                "0",
-                "0",
-                "0"
-            ],
-            "offsetRotation": [
-                "0",
-                "0",
-                "0"
-            ],
-            "offsetScale": [
-                "0",
-                "0",
-                "0"
-            ],
-            "colorHex": "",
-            "isToPos": "0",
-            "moveDir": "",
-            "moveDistance": "100",
-            "skillAngle": "0",
-            "skillOffsetDis": "0",
-            "skillRadius": "0",
-            "skillHeight": "0",
-            "skillLength": "0",
-            "skillWidth": "0",
-            "moveSpeed": "300"
-        },
-        {
-            "type": "3",
-            "guid": "",
-            "duration": "80",
-            "hitLength": "",
-            "frontRockLength": "",
-            "isCharge": "0",
-            "isAutoPlay": "0",
-            "delayPlayTime": "200",
-            "slotIndex": "-1",
-            "stopTime": "",
-            "offsetPos": [
-                "0",
-                "0",
-                "0"
-            ],
-            "offsetRotation": [
-                "0",
-                "0",
-                "0"
-            ],
-            "offsetScale": [
-                "0",
-                "0",
-                "0"
-            ],
-            "colorHex": "",
-            "isToPos": "0",
-            "moveDir": "1",
-            "moveDistance": "100",
-            "skillAngle": "0",
-            "skillOffsetDis": "0",
-            "skillRadius": "0",
-            "skillHeight": "0",
-            "skillLength": "0",
-            "skillWidth": "0",
-            "moveSpeed": "300"
-        },
-        {
-            "type": "2",
-            "guid": "224109",
-            "duration": "1000",
-            "hitLength": "",
-            "frontRockLength": "",
-            "isCharge": "0",
-            "isAutoPlay": "0",
-            "delayPlayTime": "450",
-            "slotIndex": "-1",
-            "stopTime": "400",
-            "offsetPos": [
-                "60",
-                "0",
-                "70"
-            ],
-            "offsetRotation": [
-                "180",
-                "0",
-                "90"
-            ],
-            "offsetScale": [
-                "1.35",
-                "1.35",
-                "1.35"
-            ],
-            "colorHex": "",
-            "isToPos": "",
-            "moveDir": "",
-            "moveDistance": "100",
-            "skillAngle": "0",
-            "skillOffsetDis": "0",
-            "skillRadius": "0",
-            "skillHeight": "0",
-            "skillLength": "0",
-            "skillWidth": "0",
-            "moveSpeed": "300"
-        },
-        {
-            "type": "4",
-            "guid": "75351",
-            "duration": "",
-            "hitLength": "",
-            "frontRockLength": "",
-            "isCharge": "0",
-            "isAutoPlay": "0",
-            "delayPlayTime": "300",
-            "slotIndex": "-1",
-            "stopTime": "",
-            "offsetPos": [
-                "0",
-                "0",
-                "0"
-            ],
-            "offsetRotation": [
-                "0",
-                "0",
-                "0"
-            ],
-            "offsetScale": [
-                "0",
-                "0",
-                "0"
-            ],
-            "colorHex": "",
-            "isToPos": "0",
-            "moveDir": "1",
-            "moveDistance": "",
-            "skillAngle": "0",
-            "skillOffsetDis": "0|0|0",
-            "skillRadius": "0",
-            "skillHeight": "0",
-            "skillLength": "0",
-            "skillWidth": "0",
-            "moveSpeed": "300"
-        },
-        {
-            "type": "5",
-            "guid": "",
-            "duration": "1000",
-            "hitLength": "",
-            "frontRockLength": "",
-            "isCharge": "0",
-            "isAutoPlay": "0",
-            "delayPlayTime": "100",
-            "slotIndex": "-1",
-            "stopTime": "",
-            "offsetPos": [
-                "0",
-                "0",
-                "0"
-            ],
-            "offsetRotation": [
-                "0",
-                "0",
-                "0"
-            ],
-            "offsetScale": [
-                "0",
-                "0",
-                "0"
-            ],
-            "colorHex": "",
-            "isToPos": "",
-            "moveDir": "",
-            "moveDistance": "100",
-            "skillAngle": "0",
-            "skillOffsetDis": "0",
-            "skillRadius": "0",
-            "skillHeight": "200",
-            "skillLength": "700",
-            "skillWidth": "100",
-            "moveSpeed": "300"
-        }
-    ]
-}</v>
-      </c>
-      <c r="C34" s="1">
-        <v>122720</v>
-      </c>
-      <c r="D34" s="1">
-        <v>122720</v>
-      </c>
-      <c r="E34" s="1">
-        <v>121409</v>
-      </c>
-      <c r="F34" s="1">
-        <v>135892</v>
-      </c>
-      <c r="G34" s="1">
-        <v>10</v>
-      </c>
-      <c r="H34" s="2">
-        <v>1</v>
-      </c>
-      <c r="I34" s="1" t="str">
-        <v>钢铁侠</v>
-      </c>
-      <c r="J34" s="1">
-        <v>117391</v>
-      </c>
-      <c r="K34" s="3"/>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="1">
-        <v>31</v>
-      </c>
-      <c r="B35" s="1" t="str">
-        <v>{"charFightIdelAniId":"121658","infos":[{"type":"1","guid":"121650","duration":"900","hitLength":"300","frontRockLength":"600","isCharge":"0","isAutoPlay":"0","delayPlayTime":"","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"200","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"50","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"126922","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"350","slotIndex":"-1","stopTime":"400","offsetPos":["0","0","0"],"offsetRotation":["180","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"50","skillLength":"120","skillWidth":"220"},{"type":"1","guid":"121652","duration":"900","hitLength":"300","frontRockLength":"600","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"200","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"50","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"126922","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"250","slotIndex":"-1","stopTime":"400","offsetPos":["0","0","0"],"offsetRotation":["-30","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"120","skillLength":"120","skillWidth":"160"},{"type":"1","guid":"121639","duration":"1300","hitLength":"600","frontRockLength":"800","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"180","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"80","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"300","skillLength":"500","skillWidth":"120"},{"type":"2","guid":"126922","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"350","slotIndex":"-1","stopTime":"400","offsetPos":["0","0","0"],"offsetRotation":["90","0","0"],"offsetScale":["1.2","1.2","1.2"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"135892","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"450","slotIndex":"-1","stopTime":"600","offsetPos":["120","0","-85"],"offsetRotation":["0","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"135892","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"500","slotIndex":"-1","stopTime":"600","offsetPos":["240","0","-85"],"offsetRotation":["0","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"135892","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"550","slotIndex":"-1","stopTime":"600","offsetPos":["360","0","-85"],"offsetRotation":["0","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"135892","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"600","slotIndex":"-1","stopTime":"600","offsetPos":["480","0","-85"],"offsetRotation":["0","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"1","guid":"121644","duration":"1300","hitLength":"400","frontRockLength":"800","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"135891","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"800","offsetPos":["120","0","0"],"offsetRotation":["0","0","-90"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"200","skillLength":"300","skillWidth":"200"},{"type":"1","guid":"121642","duration":"1200","hitLength":"400","frontRockLength":"900","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"200","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"135893","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"800","offsetPos":["60","0","0"],"offsetRotation":["0","0","-180"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"100","skillLength":"200","skillWidth":"300"}]}</v>
-      </c>
-      <c r="C35" s="1">
-        <v>118147</v>
-      </c>
-      <c r="D35" s="1">
-        <v>118147</v>
-      </c>
-      <c r="E35" s="1">
-        <v>121409</v>
-      </c>
-      <c r="F35" s="1">
-        <v>135892</v>
-      </c>
-      <c r="G35" s="7">
-        <v>10</v>
-      </c>
-      <c r="H35" s="9">
-        <v>1</v>
-      </c>
-      <c r="I35" s="1" t="str">
-        <v>雷神</v>
-      </c>
-      <c r="J35" s="1">
-        <v>125369</v>
-      </c>
-      <c r="K35" s="3"/>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="1">
-        <v>32</v>
-      </c>
-      <c r="B36" s="1" t="str">
-        <v>{"charFightIdelAniId":"121648","infos":[{"type":"1","guid":"121647","duration":"800","hitLength":"300","frontRockLength":"500","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"124432","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"230","slotIndex":"-1","stopTime":"500","offsetPos":["0","0","0"],"offsetRotation":["0","-10","-120"],"offsetScale":["0.8","0.8","0.8"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"10","skillLength":"110","skillWidth":"160"},{"type":"1","guid":"121645","duration":"800","hitLength":"300","frontRockLength":"500","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"50","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"80","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"124432","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"150","slotIndex":"-1","stopTime":"500","offsetPos":["-5","0","0"],"offsetRotation":["203","25","-224"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"150","skillLength":"120","skillWidth":"100"},{"type":"1","guid":"121643","duration":"850","hitLength":"300","frontRockLength":"500","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"50","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"30","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"124432","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"500","offsetPos":["-30","0","0"],"offsetRotation":["-20","-50","-60"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"150","skillLength":"100","skillWidth":"100"},{"type":"1","guid":"121641","duration":"600","hitLength":"300","frontRockLength":"500","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"124433","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"1200","offsetPos":["-30","0","-20"],"offsetRotation":["240","-45","-278"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"150","skillLength":"120","skillWidth":"140"},{"type":"1","guid":"121651","duration":"2300","hitLength":"1000","frontRockLength":"1800","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"300","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"200","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"124434","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"900","slotIndex":"-1","stopTime":"2000","offsetPos":["50","0","-80"],"offsetRotation":["0","0","-90"],"offsetScale":["0.8","0.8","0.8"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"124431","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"1500","slotIndex":"-1","stopTime":"1500","offsetPos":["70","0","0"],"offsetRotation":["0","0","-90"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"100","skillLength":"600","skillWidth":"150"}]}</v>
-      </c>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1">
-        <v>121409</v>
-      </c>
-      <c r="F36" s="1">
-        <v>117224</v>
-      </c>
-      <c r="G36" s="1">
-        <v>10</v>
-      </c>
-      <c r="H36" s="2">
-        <v>1</v>
-      </c>
-      <c r="I36" s="1" t="str">
-        <v>蜘蛛侠</v>
-      </c>
-      <c r="J36" s="1">
-        <v>125369</v>
-      </c>
-      <c r="K36" s="3"/>
-      <c r="L36" s="3"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="1">
-        <v>33</v>
-      </c>
-      <c r="B37" s="1" t="str">
-        <v>{"charFightIdelAniId":"121608","infos":[{"type":"1","guid":"121594","duration":"500","hitLength":"180","frontRockLength":"200","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"125705","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"500","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"30","skillLength":"135","skillWidth":"250"},{"type":"1","guid":"121595","duration":"700","hitLength":"300","frontRockLength":"400","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"125705","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"500","offsetPos":["0","0","0"],"offsetRotation":["150","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"150","skillLength":"150","skillWidth":"200"},{"type":"1","guid":"121591","duration":"800","hitLength":"300","frontRockLength":"500","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"125706","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"800","offsetPos":["0","0","-80"],"offsetRotation":["0","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"-200","skillRadius":"0","skillHeight":"80","skillLength":"400","skillWidth":"400"},{"type":"1","guid":"121593","duration":"1700","hitLength":"300","frontRockLength":"500","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"200","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"1","moveDistance":"150","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"125705","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"1200","offsetPos":["30","0","30"],"offsetRotation":["90","0","0"],"offsetScale":["1.5","1.5","1.5"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"350","skillLength":"240","skillWidth":"100"},{"type":"1","guid":"121598","duration":"2000","hitLength":"300","frontRockLength":"500","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"100","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"120","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"125704","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"1200","offsetPos":["0","0","0"],"offsetRotation":["0","0","-90"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"150","skillLength":"360","skillWidth":"120"},{"type":"1","guid":"121606","duration":"2000","hitLength":"1000","frontRockLength":"1500","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"200","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"400","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"300","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"125707","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"900","slotIndex":"-1","stopTime":"1000","offsetPos":["0","0","-80"],"offsetRotation":["0","0","-90"],"offsetScale":["1.2","1.2","1.2"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"600","skillLength":"200","skillWidth":"300"}]}</v>
-      </c>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1">
-        <v>121409</v>
-      </c>
-      <c r="F37" s="1">
-        <v>151551</v>
-      </c>
-      <c r="G37" s="1">
-        <v>10</v>
-      </c>
-      <c r="H37" s="2">
-        <v>1</v>
-      </c>
-      <c r="I37" s="1" t="str">
-        <v>金刚狼</v>
-      </c>
-      <c r="J37" s="1">
-        <v>121608</v>
-      </c>
-      <c r="K37" s="3"/>
-      <c r="L37" s="3"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="1">
-        <v>34</v>
-      </c>
-      <c r="B38" s="1" t="str">
-        <v>{"charFightIdelAniId":"","infos":[{"type":"1","guid":"121592","duration":"750","hitLength":"450","frontRockLength":"500","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"126922","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"400","slotIndex":"-1","stopTime":"400","offsetPos":["50","0","0"],"offsetRotation":["160","0","0"],"offsetScale":["1.2","1.2","1.2"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"3","guid":"","duration":"200","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"50","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"120","skillLength":"200","skillWidth":"200","moveSpeed":"300"},{"type":"4","guid":"12374","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"0","slotIndex":"-1","stopTime":"0","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"0","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"100"},{"type":"1","guid":"121599","duration":"800","hitLength":"250","frontRockLength":"300","isCharge":"0","isAutoPlay":"0","delayPlayTime":"600","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"126922","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"400","offsetPos":["0","0","0"],"offsetRotation":["180","0","0"],"offsetScale":["1.5","1.5","1.5"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"80","skillLength":"200","skillWidth":"300","moveSpeed":"300"},{"type":"4","guid":"12374","duration":"","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"0","slotIndex":"-1","stopTime":"0","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"0","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"100"},{"type":"1","guid":"121597","duration":"1400","hitLength":"600","frontRockLength":"650","isCharge":"0","isAutoPlay":"0","delayPlayTime":"600","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"3","guid":"","duration":"80","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"500","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"50","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"126925","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"600","slotIndex":"-1","stopTime":"1200","offsetPos":["80","0","-125"],"offsetRotation":["0","0","-90"],"offsetScale":["1.5","1.5","1.5"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"50","skillRadius":"0","skillHeight":"250","skillLength":"600","skillWidth":"50","moveSpeed":"300"},{"type":"4","guid":"130793","duration":"","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"650","slotIndex":"-1","stopTime":"0","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"0","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"100"},{"type":"1","guid":"121596","duration":"1600","hitLength":"800","frontRockLength":"1000","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"3","guid":"","duration":"400","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"500","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"2","guid":"126924","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"800","slotIndex":"-1","stopTime":"1600","offsetPos":["10","0","-125"],"offsetRotation":["0","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"300"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"-200","skillRadius":"0","skillHeight":"120","skillLength":"400","skillWidth":"400","moveSpeed":"300"},{"type":"4","guid":"122569","duration":"","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"720","slotIndex":"-1","stopTime":"0","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"0","skillAngle":"0","skillOffsetDis":"0|0|0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0","moveSpeed":"100"}]}</v>
-      </c>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1">
-        <v>121409</v>
-      </c>
-      <c r="F38" s="1">
-        <v>89089</v>
-      </c>
-      <c r="G38" s="1">
-        <v>10</v>
-      </c>
-      <c r="H38" s="9">
-        <v>1</v>
-      </c>
-      <c r="I38" s="1" t="str">
-        <v>女浩克</v>
-      </c>
-      <c r="J38" s="1">
-        <v>121610</v>
-      </c>
-      <c r="K38" s="3"/>
-      <c r="L38" s="3"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="1">
-        <v>35</v>
-      </c>
-      <c r="B39" s="1" t="str">
-        <v>{"charFightIdelAniId":"121610","infos":[{"type":"1","guid":"121592","duration":"750","hitLength":"450","frontRockLength":"500","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"126922","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"400","slotIndex":"-1","stopTime":"400","offsetPos":["50","0","0"],"offsetRotation":["160","0","0"],"offsetScale":["1.2","1.2","1.2"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"200","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"50","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"120","skillLength":"200","skillWidth":"200"},{"type":"1","guid":"121600","duration":"800","hitLength":"150","frontRockLength":"250","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"80","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"126922","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"400","offsetPos":["0","0","0"],"offsetRotation":["30","0","0"],"offsetScale":["1.35","1.35","1.35"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"200","skillLength":"250","skillWidth":"200"},{"type":"1","guid":"121599","duration":"800","hitLength":"250","frontRockLength":"300","isCharge":"0","isAutoPlay":"0","delayPlayTime":"600","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"126922","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"400","offsetPos":["0","0","0"],"offsetRotation":["180","0","0"],"offsetScale":["1.5","1.5","1.5"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"80","skillLength":"200","skillWidth":"300"},{"type":"1","guid":"121597","duration":"1400","hitLength":"600","frontRockLength":"650","isCharge":"0","isAutoPlay":"0","delayPlayTime":"600","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"80","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"500","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"50","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"126925","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"600","slotIndex":"-1","stopTime":"1200","offsetPos":["80","0","-125"],"offsetRotation":["0","0","-90"],"offsetScale":["1.5","1.5","1.5"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"50","skillRadius":"0","skillHeight":"250","skillLength":"600","skillWidth":"50"},{"type":"1","guid":"121596","duration":"1600","hitLength":"800","frontRockLength":"1000","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"400","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"500","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"126924","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"800","slotIndex":"-1","stopTime":"1600","offsetPos":["10","0","-125"],"offsetRotation":["0","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"-200","skillRadius":"0","skillHeight":"120","skillLength":"400","skillWidth":"400"},{"type":"1","guid":"121609","duration":"2700","hitLength":"800","frontRockLength":"1500","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"126923","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"700","slotIndex":"-1","stopTime":"1600","offsetPos":["180","0","-123"],"offsetRotation":["0","0","-90"],"offsetScale":["1.5","1.5","1.5"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"113900","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"150","slotIndex":"-1","stopTime":"500","offsetPos":["40","0","-50"],"offsetRotation":["0","0","0"],"offsetScale":["2.5","2.5","2.5"],"colorHex":"FF5198FF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"50","skillRadius":"0","skillHeight":"350","skillLength":"600","skillWidth":"200"}]}</v>
-      </c>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1">
-        <v>121409</v>
-      </c>
-      <c r="F39" s="1">
-        <v>89089</v>
-      </c>
-      <c r="G39" s="1">
-        <v>10</v>
-      </c>
-      <c r="H39" s="2">
-        <v>1</v>
-      </c>
-      <c r="I39" s="1" t="str">
-        <v>绿巨人</v>
-      </c>
-      <c r="J39" s="1">
-        <v>121610</v>
-      </c>
-      <c r="K39" s="3"/>
-      <c r="L39" s="3"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="1">
-        <v>36</v>
-      </c>
-      <c r="B40" s="1" t="str">
-        <v>{"charFightIdelAniId":"117391","infos":[{"type":"1","guid":"117402","duration":"500","hitLength":"100","frontRockLength":"300","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"108555","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"500","offsetPos":["80","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["1.5","1.5","1.5"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"60","skillLength":"100","skillWidth":"60"},{"type":"1","guid":"117400","duration":"500","hitLength":"250","frontRockLength":"300","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"108558","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"0","slotIndex":"-1","stopTime":"600","offsetPos":["0","0","0"],"offsetRotation":["-130","0","0"],"offsetScale":["1.5","1.5","1.5"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"80","skillLength":"80","skillWidth":"80"},{"type":"1","guid":"108416","duration":"1800","hitLength":"500","frontRockLength":"800","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"108556","duration":"","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"500","slotIndex":"-1","stopTime":"600","offsetPos":["80","0","0"],"offsetRotation":["0","0","-90"],"offsetScale":["1.5","1.5","1.5"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"50","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"450","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"50","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"60","skillLength":"130","skillWidth":"60"},{"type":"1","guid":"108417","duration":"1100","hitLength":"550","frontRockLength":"800","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"85166","duration":"","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"600","offsetPos":["100","0","-50"],"offsetRotation":["0","0","0"],"offsetScale":["1","1","1"],"colorHex":"A8FF8AFF","isToPos":"","moveDir":"","moveDistance":"","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"85166","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"450","slotIndex":"-1","stopTime":"600","offsetPos":["80","0","60"],"offsetRotation":["0","0","0"],"offsetScale":["1","1","1"],"colorHex":"A8FF8AFF","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"30","skillRadius":"0","skillHeight":"120","skillLength":"140","skillWidth":"120"},{"type":"1","guid":"108418","duration":"2300","hitLength":"700","frontRockLength":"1000","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"108557","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"500","slotIndex":"-1","stopTime":"1200","offsetPos":["30","0","-80"],"offsetRotation":["0","0","-90"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"108557","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"550","slotIndex":"-1","stopTime":"1200","offsetPos":["30","0","-80"],"offsetRotation":["0","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"108557","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"600","slotIndex":"-1","stopTime":"1200","offsetPos":["30","0","-80"],"offsetRotation":["0","0","90"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"108557","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"650","slotIndex":"-1","stopTime":"1200","offsetPos":["30","0","-80"],"offsetRotation":["0","0","180"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"123626","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"500","slotIndex":"-1","stopTime":"1500","offsetPos":["0","0","-70"],"offsetRotation":["0","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"450","skillLength":"500","skillWidth":"120"}]}</v>
-      </c>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1">
-        <v>121409</v>
-      </c>
-      <c r="F40" s="1">
-        <v>27421</v>
-      </c>
-      <c r="G40" s="1">
-        <v>10</v>
-      </c>
-      <c r="H40" s="2">
-        <v>1</v>
-      </c>
-      <c r="I40" s="1" t="str">
-        <v>天神</v>
-      </c>
-      <c r="J40" s="1">
-        <v>117391</v>
-      </c>
-      <c r="K40" s="3"/>
-      <c r="L40" s="3"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="1">
-        <v>37</v>
-      </c>
-      <c r="B41" s="1" t="str">
-        <v>{"charFightIdelAniId":"108371","infos":[{"type":"1","guid":"108373","duration":"650","hitLength":"300","frontRockLength":"400","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"70","skillLength":"100","skillWidth":"100"},{"type":"2","guid":"121784","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"400","offsetPos":["20","0","0"],"offsetRotation":["-200","0","-180"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"100","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"30","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"20","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"1","guid":"108375","duration":"700","hitLength":"300","frontRockLength":"500","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"70","skillLength":"100","skillWidth":"100"},{"type":"3","guid":"","duration":"100","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"30","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"20","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"121784","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"250","slotIndex":"-1","stopTime":"400","offsetPos":["30","0","0"],"offsetRotation":["40","0","-180"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"1","guid":"108374","duration":"700","hitLength":"300","frontRockLength":"500","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"80","skillLength":"140","skillWidth":"80"},{"type":"2","guid":"121783","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"50","slotIndex":"-1","stopTime":"600","offsetPos":["30","0","10"],"offsetRotation":["0","0","90"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"1","guid":"108370","duration":"1700","hitLength":"300","frontRockLength":"600","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"200","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"150","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"150","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"80","skillLength":"230","skillWidth":"300"},{"type":"2","guid":"121782","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"1200","offsetPos":["80","0","-85"],"offsetRotation":["0","0","-90"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"1","guid":"108372","duration":"1380","hitLength":"300","frontRockLength":"500","isCharge":"0","isAutoPlay":"0","delayPlayTime":"","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"100","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"50","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"60","skillRadius":"0","skillHeight":"350","skillLength":"160","skillWidth":"160"},{"type":"2","guid":"121785","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"400","slotIndex":"-1","stopTime":"2500","offsetPos":["140","0","-85"],"offsetRotation":["0","0","0"],"offsetScale":["1.5","1.5","1.5"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"}]}</v>
-      </c>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1">
-        <v>121409</v>
-      </c>
-      <c r="F41" s="1">
-        <v>27421</v>
-      </c>
-      <c r="G41" s="7">
-        <v>10</v>
-      </c>
-      <c r="H41" s="9">
-        <v>1</v>
-      </c>
-      <c r="I41" s="1" t="str">
-        <v>机甲少女</v>
-      </c>
-      <c r="J41" s="1">
-        <v>108371</v>
-      </c>
-      <c r="K41" s="3"/>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="1">
-        <v>38</v>
-      </c>
-      <c r="B42" s="1" t="str">
-        <v>{"charFightIdelAniId":"117340","infos":[{"type":"1","guid":"117337","duration":"550","hitLength":"200","frontRockLength":"300","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"132628","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"800","offsetPos":["0","0","0"],"offsetRotation":["0","0","-90"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"30","skillRadius":"0","skillHeight":"50","skillLength":"120","skillWidth":"200"},{"type":"1","guid":"117338","duration":"700","hitLength":"200","frontRockLength":"300","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"100","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"50","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"132630","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"150","slotIndex":"-1","stopTime":"1200","offsetPos":["50","0","0"],"offsetRotation":["0","0","90"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"30","skillRadius":"0","skillHeight":"60","skillLength":"180","skillWidth":"60"},{"type":"1","guid":"117335","duration":"1200","hitLength":"700","frontRockLength":"800","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"200","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"250","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"132629","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"600","slotIndex":"-1","stopTime":"1200","offsetPos":["-60","0","-80"],"offsetRotation":["0","0","-90"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"132627","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"650","slotIndex":"-1","stopTime":"1200","offsetPos":["120","0","-76"],"offsetRotation":["0","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"40","skillRadius":"0","skillHeight":"120","skillLength":"200","skillWidth":"200"},{"type":"1","guid":"117336","duration":"1200","hitLength":"500","frontRockLength":"800","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"200","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"350","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"200","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"132632","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"400","slotIndex":"-1","stopTime":"800","offsetPos":["120","0","-80"],"offsetRotation":["0","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"-100","skillRadius":"0","skillHeight":"200","skillLength":"300","skillWidth":"300"},{"type":"1","guid":"117339","duration":"1400","hitLength":"1050","frontRockLength":"1200","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"132860","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"800","offsetPos":["30","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"132631","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"1000","slotIndex":"-1","stopTime":"1200","offsetPos":["120","0","0"],"offsetRotation":["0","0","-90"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"200","skillLength":"400","skillWidth":"200"},{"type":"1","guid":"117341","duration":"1300","hitLength":"600","frontRockLength":"1000","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"100","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"200","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"132875","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"450","slotIndex":"-1","stopTime":"1500","offsetPos":["0","0","-80"],"offsetRotation":["0","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"-200","skillRadius":"0","skillHeight":"300","skillLength":"400","skillWidth":"400"}]}</v>
-      </c>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1">
-        <v>121409</v>
-      </c>
-      <c r="F42" s="1">
-        <v>135892</v>
-      </c>
-      <c r="G42" s="1">
-        <v>10</v>
-      </c>
-      <c r="H42" s="2">
-        <v>1</v>
-      </c>
-      <c r="I42" s="1" t="str">
-        <v>雏田</v>
-      </c>
-      <c r="J42" s="1">
-        <v>117340</v>
-      </c>
-      <c r="K42" s="3"/>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="1">
-        <v>39</v>
-      </c>
-      <c r="B43" s="1" t="str">
-        <v>{"charFightIdelAniId":"122541","infos":[{"type":"1","guid":"122534","duration":"700","hitLength":"300","frontRockLength":"400","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"150","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"250","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1\r\n1","moveDistance":"50","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"129279","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"350","slotIndex":"-1","stopTime":"400","offsetPos":["-50","0","0"],"offsetRotation":["0","0","-90"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"80","skillLength":"200","skillWidth":"80"},{"type":"1","guid":"122535","duration":"700","hitLength":"300","frontRockLength":"400","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"100","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"\r\n0","moveDir":"1","moveDistance":"30","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"129283","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"250","slotIndex":"-1","stopTime":"400","offsetPos":["30","0","-110"],"offsetRotation":["0","0","-90"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"150","skillLength":"120","skillWidth":"80"},{"type":"1","guid":"122536","duration":"800","hitLength":"400","frontRockLength":"600","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"129279","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"500","slotIndex":"-1","stopTime":"400","offsetPos":["0","0","10"],"offsetRotation":["-30","-40","-80"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"100","skillLength":"250","skillWidth":"80"},{"type":"1","guid":"122522","duration":"900","hitLength":"300","frontRockLength":"500","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"100","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"50","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"129282","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"800","offsetPos":["-10","0","-89"],"offsetRotation":["0","0","-90"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"120","skillLength":"500","skillWidth":"100"},{"type":"1","guid":"122523","duration":"1600","hitLength":"800","frontRockLength":"1000","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"400","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"250","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"200","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"129280","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"600","slotIndex":"-1","stopTime":"1200","offsetPos":["30","0","-80"],"offsetRotation":["0","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"-160","skillRadius":"0","skillHeight":"50","skillLength":"350","skillWidth":"350"},{"type":"1","guid":"122548","duration":"3000","hitLength":"800","frontRockLength":"2000","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"129278","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"600","slotIndex":"-1","stopTime":"1200","offsetPos":["0","0","0"],"offsetRotation":["0","0","-90"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"129281","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"2000","slotIndex":"-1","stopTime":"1500","offsetPos":["-30","0","-80"],"offsetRotation":["0","0","-90"],"offsetScale":["1.2","1.2","1.2"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"150","skillLength":"700","skillWidth":"150"}]}</v>
-      </c>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="7">
-        <v>121409</v>
-      </c>
-      <c r="F43" s="1">
-        <v>135892</v>
-      </c>
-      <c r="G43" s="1">
-        <v>10</v>
-      </c>
-      <c r="H43" s="2">
-        <v>1</v>
-      </c>
-      <c r="I43" s="1" t="str">
-        <v>路飞</v>
-      </c>
-      <c r="J43" s="1">
-        <v>122541</v>
-      </c>
-      <c r="K43" s="3"/>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="1">
-        <v>40</v>
-      </c>
-      <c r="B44" s="1" t="str">
-        <v>{"charFightIdelAniId":"125369","infos":[{"type":"1","guid":"117326","duration":"500","hitLength":"200","frontRockLength":"250","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"121783","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"150","slotIndex":"-1","stopTime":"300","offsetPos":["60","0","0"],"offsetRotation":["0","0","90"],"offsetScale":["0.5","0.5","0.5"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"100","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"150","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"30","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"30","skillRadius":"0","skillHeight":"80","skillLength":"80","skillWidth":"80"},{"type":"1","guid":"117328","duration":"600","hitLength":"300","frontRockLength":"400","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"130639","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"300","slotIndex":"-1","stopTime":"300","offsetPos":["0","0","0"],"offsetRotation":["30","40","-48"],"offsetScale":["0.6","0.6","0.6"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"","skillAngle":"0","skillOffsetDis":"30","skillRadius":"0","skillHeight":"200","skillLength":"100","skillWidth":"80"},{"type":"1","guid":"117327","duration":"550","hitLength":"200","frontRockLength":"300","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"121785","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"150","slotIndex":"-1","stopTime":"800","offsetPos":["-30","0","-80"],"offsetRotation":["0","0","-90"],"offsetScale":["-1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"120","skillLength":"200","skillWidth":"450"},{"type":"1","guid":"117316","duration":"800","hitLength":"200","frontRockLength":"300","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"100","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"130643","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"800","offsetPos":["120","0","0"],"offsetRotation":["0","0","-90"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"100","skillRadius":"0","skillHeight":"300","skillLength":"120","skillWidth":"120"},{"type":"1","guid":"117315","duration":"800","hitLength":"500","frontRockLength":"600","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"200","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"200","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"130643","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"350","slotIndex":"-1","stopTime":"800","offsetPos":["-50","0","0"],"offsetRotation":["-140","0","-270"],"offsetScale":["1","1.5","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"130642","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"500","slotIndex":"-1","stopTime":"1200","offsetPos":["120","0","-80"],"offsetRotation":["0","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"130642","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"600","slotIndex":"-1","stopTime":"1200","offsetPos":["250","50","-80"],"offsetRotation":["0","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"130642","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"700","slotIndex":"-1","stopTime":"1200","offsetPos":["380","0","-80"],"offsetRotation":["0","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"130642","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"800","slotIndex":"-1","stopTime":"1200","offsetPos":["500","50","-80s"],"offsetRotation":["0","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"50","skillRadius":"0","skillHeight":"400","skillLength":"500","skillWidth":"150"},{"type":"1","guid":"117324","duration":"1600","hitLength":"1100","frontRockLength":"1200","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"3","guid":"","duration":"300","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"1000","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"0","moveDir":"1","moveDistance":"500","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"114161","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"150","slotIndex":"-1","stopTime":"700","offsetPos":["0","0","-75"],"offsetRotation":["0","0","0"],"offsetScale":["1.5","1.5","1.5"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"130743","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"200","slotIndex":"-1","stopTime":"800","offsetPos":["0","0","-80"],"offsetRotation":["0","0","0"],"offsetScale":["1","1","1"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"2","guid":"130640","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"1050","slotIndex":"-1","stopTime":"1500","offsetPos":["600","0","0"],"offsetRotation":["0","0","-90"],"offsetScale":["1.2","1.2","1.2"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"0","skillRadius":"0","skillHeight":"0","skillLength":"0","skillWidth":"0"},{"type":"5","guid":"","duration":"1000","hitLength":"","frontRockLength":"","isCharge":"0","isAutoPlay":"0","delayPlayTime":"100","slotIndex":"-1","stopTime":"","offsetPos":["0","0","0"],"offsetRotation":["0","0","0"],"offsetScale":["0","0","0"],"colorHex":"","isToPos":"","moveDir":"","moveDistance":"100","skillAngle":"0","skillOffsetDis":"-200","skillRadius":"0","skillHeight":"150","skillLength":"550","skillWidth":"150"}]}</v>
-      </c>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1">
-        <v>121409</v>
-      </c>
-      <c r="F44" s="1">
-        <v>135892</v>
       </c>
       <c r="G44" s="1">
         <v>10</v>
       </c>
-      <c r="H44" s="2"/>
-      <c r="I44" s="1" t="str">
-        <v>佐助</v>
+      <c r="H44" s="10">
+        <v>1</v>
+      </c>
+      <c r="I44" s="4" t="str">
+        <v>地刺镰刀</v>
       </c>
       <c r="J44" s="1">
-        <v>125369</v>
+        <v>117391</v>
       </c>
       <c r="K44" s="3"/>
       <c r="L44" s="3"/>
